--- a/excel_sheets/Geospatial_metadata.xlsx
+++ b/excel_sheets/Geospatial_metadata.xlsx
@@ -12,8 +12,6 @@
     <sheet name="description" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="provenance" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="tags" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="lda_topics" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="embeddings" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22393,2338 +22391,4 @@
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AD34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>lda_topics</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr"/>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>model_info</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>[{"source": null, "author": null, "version": null, "model_id": null, "nb_topics": null, "description": null, "corpus": null, "uri": null}]</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="6" t="n"/>
-      <c r="K2" s="6" t="n"/>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="6" t="n"/>
-      <c r="U2" s="6" t="n"/>
-      <c r="V2" s="6" t="n"/>
-      <c r="W2" s="6" t="n"/>
-      <c r="X2" s="6" t="n"/>
-      <c r="Y2" s="6" t="n"/>
-      <c r="Z2" s="6" t="n"/>
-      <c r="AA2" s="6" t="n"/>
-      <c r="AB2" s="6" t="n"/>
-      <c r="AC2" s="6" t="n"/>
-      <c r="AD2" s="6" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr"/>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>topic_description</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>[{"topic_id": null, "topic_score": null, "topic_label": null, "topic_words": [{"word": null, "word_weight": null}]}]</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="n"/>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="6" t="n"/>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="6" t="n"/>
-      <c r="U3" s="6" t="n"/>
-      <c r="V3" s="6" t="n"/>
-      <c r="W3" s="6" t="n"/>
-      <c r="X3" s="6" t="n"/>
-      <c r="Y3" s="6" t="n"/>
-      <c r="Z3" s="6" t="n"/>
-      <c r="AA3" s="6" t="n"/>
-      <c r="AB3" s="6" t="n"/>
-      <c r="AC3" s="6" t="n"/>
-      <c r="AD3" s="6" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
-      <c r="L4" s="2" t="n"/>
-      <c r="M4" s="2" t="n"/>
-      <c r="N4" s="2" t="n"/>
-      <c r="O4" s="2" t="n"/>
-      <c r="P4" s="2" t="n"/>
-      <c r="Q4" s="2" t="n"/>
-      <c r="R4" s="2" t="n"/>
-      <c r="S4" s="2" t="n"/>
-      <c r="T4" s="2" t="n"/>
-      <c r="U4" s="2" t="n"/>
-      <c r="V4" s="2" t="n"/>
-      <c r="W4" s="2" t="n"/>
-      <c r="X4" s="2" t="n"/>
-      <c r="Y4" s="2" t="n"/>
-      <c r="Z4" s="2" t="n"/>
-      <c r="AA4" s="2" t="n"/>
-      <c r="AB4" s="2" t="n"/>
-      <c r="AC4" s="2" t="n"/>
-      <c r="AD4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
-      <c r="M5" s="4" t="n"/>
-      <c r="N5" s="4" t="n"/>
-      <c r="O5" s="4" t="n"/>
-      <c r="P5" s="4" t="n"/>
-      <c r="Q5" s="4" t="n"/>
-      <c r="R5" s="4" t="n"/>
-      <c r="S5" s="4" t="n"/>
-      <c r="T5" s="4" t="n"/>
-      <c r="U5" s="4" t="n"/>
-      <c r="V5" s="4" t="n"/>
-      <c r="W5" s="4" t="n"/>
-      <c r="X5" s="4" t="n"/>
-      <c r="Y5" s="4" t="n"/>
-      <c r="Z5" s="4" t="n"/>
-      <c r="AA5" s="4" t="n"/>
-      <c r="AB5" s="4" t="n"/>
-      <c r="AC5" s="4" t="n"/>
-      <c r="AD5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="n"/>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="4" t="n"/>
-      <c r="F6" s="4" t="n"/>
-      <c r="G6" s="4" t="n"/>
-      <c r="H6" s="4" t="n"/>
-      <c r="I6" s="4" t="n"/>
-      <c r="J6" s="4" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4" t="n"/>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="4" t="n"/>
-      <c r="O6" s="4" t="n"/>
-      <c r="P6" s="4" t="n"/>
-      <c r="Q6" s="4" t="n"/>
-      <c r="R6" s="4" t="n"/>
-      <c r="S6" s="4" t="n"/>
-      <c r="T6" s="4" t="n"/>
-      <c r="U6" s="4" t="n"/>
-      <c r="V6" s="4" t="n"/>
-      <c r="W6" s="4" t="n"/>
-      <c r="X6" s="4" t="n"/>
-      <c r="Y6" s="4" t="n"/>
-      <c r="Z6" s="4" t="n"/>
-      <c r="AA6" s="4" t="n"/>
-      <c r="AB6" s="4" t="n"/>
-      <c r="AC6" s="4" t="n"/>
-      <c r="AD6" s="4" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
-      <c r="O7" s="4" t="n"/>
-      <c r="P7" s="4" t="n"/>
-      <c r="Q7" s="4" t="n"/>
-      <c r="R7" s="4" t="n"/>
-      <c r="S7" s="4" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="U7" s="4" t="n"/>
-      <c r="V7" s="4" t="n"/>
-      <c r="W7" s="4" t="n"/>
-      <c r="X7" s="4" t="n"/>
-      <c r="Y7" s="4" t="n"/>
-      <c r="Z7" s="4" t="n"/>
-      <c r="AA7" s="4" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-      <c r="AC7" s="4" t="n"/>
-      <c r="AD7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
-      <c r="O8" s="4" t="n"/>
-      <c r="P8" s="4" t="n"/>
-      <c r="Q8" s="4" t="n"/>
-      <c r="R8" s="4" t="n"/>
-      <c r="S8" s="4" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="U8" s="4" t="n"/>
-      <c r="V8" s="4" t="n"/>
-      <c r="W8" s="4" t="n"/>
-      <c r="X8" s="4" t="n"/>
-      <c r="Y8" s="4" t="n"/>
-      <c r="Z8" s="4" t="n"/>
-      <c r="AA8" s="4" t="n"/>
-      <c r="AB8" s="4" t="n"/>
-      <c r="AC8" s="4" t="n"/>
-      <c r="AD8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-      <c r="O9" s="4" t="n"/>
-      <c r="P9" s="4" t="n"/>
-      <c r="Q9" s="4" t="n"/>
-      <c r="R9" s="4" t="n"/>
-      <c r="S9" s="4" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="U9" s="4" t="n"/>
-      <c r="V9" s="4" t="n"/>
-      <c r="W9" s="4" t="n"/>
-      <c r="X9" s="4" t="n"/>
-      <c r="Y9" s="4" t="n"/>
-      <c r="Z9" s="4" t="n"/>
-      <c r="AA9" s="4" t="n"/>
-      <c r="AB9" s="4" t="n"/>
-      <c r="AC9" s="4" t="n"/>
-      <c r="AD9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="M10" s="4" t="n"/>
-      <c r="N10" s="4" t="n"/>
-      <c r="O10" s="4" t="n"/>
-      <c r="P10" s="4" t="n"/>
-      <c r="Q10" s="4" t="n"/>
-      <c r="R10" s="4" t="n"/>
-      <c r="S10" s="4" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="U10" s="4" t="n"/>
-      <c r="V10" s="4" t="n"/>
-      <c r="W10" s="4" t="n"/>
-      <c r="X10" s="4" t="n"/>
-      <c r="Y10" s="4" t="n"/>
-      <c r="Z10" s="4" t="n"/>
-      <c r="AA10" s="4" t="n"/>
-      <c r="AB10" s="4" t="n"/>
-      <c r="AC10" s="4" t="n"/>
-      <c r="AD10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="4" t="n"/>
-      <c r="I11" s="4" t="n"/>
-      <c r="J11" s="4" t="n"/>
-      <c r="K11" s="4" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="M11" s="4" t="n"/>
-      <c r="N11" s="4" t="n"/>
-      <c r="O11" s="4" t="n"/>
-      <c r="P11" s="4" t="n"/>
-      <c r="Q11" s="4" t="n"/>
-      <c r="R11" s="4" t="n"/>
-      <c r="S11" s="4" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="U11" s="4" t="n"/>
-      <c r="V11" s="4" t="n"/>
-      <c r="W11" s="4" t="n"/>
-      <c r="X11" s="4" t="n"/>
-      <c r="Y11" s="4" t="n"/>
-      <c r="Z11" s="4" t="n"/>
-      <c r="AA11" s="4" t="n"/>
-      <c r="AB11" s="4" t="n"/>
-      <c r="AC11" s="4" t="n"/>
-      <c r="AD11" s="4" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
-      <c r="O12" s="4" t="n"/>
-      <c r="P12" s="4" t="n"/>
-      <c r="Q12" s="4" t="n"/>
-      <c r="R12" s="4" t="n"/>
-      <c r="S12" s="4" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="U12" s="4" t="n"/>
-      <c r="V12" s="4" t="n"/>
-      <c r="W12" s="4" t="n"/>
-      <c r="X12" s="4" t="n"/>
-      <c r="Y12" s="4" t="n"/>
-      <c r="Z12" s="4" t="n"/>
-      <c r="AA12" s="4" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-      <c r="AC12" s="4" t="n"/>
-      <c r="AD12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="4" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="4" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="M13" s="4" t="n"/>
-      <c r="N13" s="4" t="n"/>
-      <c r="O13" s="4" t="n"/>
-      <c r="P13" s="4" t="n"/>
-      <c r="Q13" s="4" t="n"/>
-      <c r="R13" s="4" t="n"/>
-      <c r="S13" s="4" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="U13" s="4" t="n"/>
-      <c r="V13" s="4" t="n"/>
-      <c r="W13" s="4" t="n"/>
-      <c r="X13" s="4" t="n"/>
-      <c r="Y13" s="4" t="n"/>
-      <c r="Z13" s="4" t="n"/>
-      <c r="AA13" s="4" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-      <c r="AC13" s="4" t="n"/>
-      <c r="AD13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
-      <c r="I14" s="4" t="n"/>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="4" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="4" t="n"/>
-      <c r="N14" s="4" t="n"/>
-      <c r="O14" s="4" t="n"/>
-      <c r="P14" s="4" t="n"/>
-      <c r="Q14" s="4" t="n"/>
-      <c r="R14" s="4" t="n"/>
-      <c r="S14" s="4" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="U14" s="4" t="n"/>
-      <c r="V14" s="4" t="n"/>
-      <c r="W14" s="4" t="n"/>
-      <c r="X14" s="4" t="n"/>
-      <c r="Y14" s="4" t="n"/>
-      <c r="Z14" s="4" t="n"/>
-      <c r="AA14" s="4" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-      <c r="AC14" s="4" t="n"/>
-      <c r="AD14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="4" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="M15" s="4" t="n"/>
-      <c r="N15" s="4" t="n"/>
-      <c r="O15" s="4" t="n"/>
-      <c r="P15" s="4" t="n"/>
-      <c r="Q15" s="4" t="n"/>
-      <c r="R15" s="4" t="n"/>
-      <c r="S15" s="4" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="U15" s="4" t="n"/>
-      <c r="V15" s="4" t="n"/>
-      <c r="W15" s="4" t="n"/>
-      <c r="X15" s="4" t="n"/>
-      <c r="Y15" s="4" t="n"/>
-      <c r="Z15" s="4" t="n"/>
-      <c r="AA15" s="4" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-      <c r="AC15" s="4" t="n"/>
-      <c r="AD15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
-      <c r="I16" s="4" t="n"/>
-      <c r="J16" s="4" t="n"/>
-      <c r="K16" s="4" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="M16" s="4" t="n"/>
-      <c r="N16" s="4" t="n"/>
-      <c r="O16" s="4" t="n"/>
-      <c r="P16" s="4" t="n"/>
-      <c r="Q16" s="4" t="n"/>
-      <c r="R16" s="4" t="n"/>
-      <c r="S16" s="4" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="U16" s="4" t="n"/>
-      <c r="V16" s="4" t="n"/>
-      <c r="W16" s="4" t="n"/>
-      <c r="X16" s="4" t="n"/>
-      <c r="Y16" s="4" t="n"/>
-      <c r="Z16" s="4" t="n"/>
-      <c r="AA16" s="4" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-      <c r="AC16" s="4" t="n"/>
-      <c r="AD16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
-      <c r="I17" s="4" t="n"/>
-      <c r="J17" s="4" t="n"/>
-      <c r="K17" s="4" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="M17" s="4" t="n"/>
-      <c r="N17" s="4" t="n"/>
-      <c r="O17" s="4" t="n"/>
-      <c r="P17" s="4" t="n"/>
-      <c r="Q17" s="4" t="n"/>
-      <c r="R17" s="4" t="n"/>
-      <c r="S17" s="4" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="U17" s="4" t="n"/>
-      <c r="V17" s="4" t="n"/>
-      <c r="W17" s="4" t="n"/>
-      <c r="X17" s="4" t="n"/>
-      <c r="Y17" s="4" t="n"/>
-      <c r="Z17" s="4" t="n"/>
-      <c r="AA17" s="4" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-      <c r="AC17" s="4" t="n"/>
-      <c r="AD17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="M18" s="4" t="n"/>
-      <c r="N18" s="4" t="n"/>
-      <c r="O18" s="4" t="n"/>
-      <c r="P18" s="4" t="n"/>
-      <c r="Q18" s="4" t="n"/>
-      <c r="R18" s="4" t="n"/>
-      <c r="S18" s="4" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="U18" s="4" t="n"/>
-      <c r="V18" s="4" t="n"/>
-      <c r="W18" s="4" t="n"/>
-      <c r="X18" s="4" t="n"/>
-      <c r="Y18" s="4" t="n"/>
-      <c r="Z18" s="4" t="n"/>
-      <c r="AA18" s="4" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-      <c r="AC18" s="4" t="n"/>
-      <c r="AD18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
-      <c r="I19" s="4" t="n"/>
-      <c r="J19" s="4" t="n"/>
-      <c r="K19" s="4" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="M19" s="4" t="n"/>
-      <c r="N19" s="4" t="n"/>
-      <c r="O19" s="4" t="n"/>
-      <c r="P19" s="4" t="n"/>
-      <c r="Q19" s="4" t="n"/>
-      <c r="R19" s="4" t="n"/>
-      <c r="S19" s="4" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="U19" s="4" t="n"/>
-      <c r="V19" s="4" t="n"/>
-      <c r="W19" s="4" t="n"/>
-      <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n"/>
-      <c r="Z19" s="4" t="n"/>
-      <c r="AA19" s="4" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-      <c r="AC19" s="4" t="n"/>
-      <c r="AD19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
-      <c r="I20" s="4" t="n"/>
-      <c r="J20" s="4" t="n"/>
-      <c r="K20" s="4" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="M20" s="4" t="n"/>
-      <c r="N20" s="4" t="n"/>
-      <c r="O20" s="4" t="n"/>
-      <c r="P20" s="4" t="n"/>
-      <c r="Q20" s="4" t="n"/>
-      <c r="R20" s="4" t="n"/>
-      <c r="S20" s="4" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="U20" s="4" t="n"/>
-      <c r="V20" s="4" t="n"/>
-      <c r="W20" s="4" t="n"/>
-      <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="4" t="n"/>
-      <c r="Z20" s="4" t="n"/>
-      <c r="AA20" s="4" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-      <c r="AC20" s="4" t="n"/>
-      <c r="AD20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
-      <c r="I21" s="4" t="n"/>
-      <c r="J21" s="4" t="n"/>
-      <c r="K21" s="4" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="M21" s="4" t="n"/>
-      <c r="N21" s="4" t="n"/>
-      <c r="O21" s="4" t="n"/>
-      <c r="P21" s="4" t="n"/>
-      <c r="Q21" s="4" t="n"/>
-      <c r="R21" s="4" t="n"/>
-      <c r="S21" s="4" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="U21" s="4" t="n"/>
-      <c r="V21" s="4" t="n"/>
-      <c r="W21" s="4" t="n"/>
-      <c r="X21" s="4" t="n"/>
-      <c r="Y21" s="4" t="n"/>
-      <c r="Z21" s="4" t="n"/>
-      <c r="AA21" s="4" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-      <c r="AC21" s="4" t="n"/>
-      <c r="AD21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
-      <c r="I22" s="4" t="n"/>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="M22" s="4" t="n"/>
-      <c r="N22" s="4" t="n"/>
-      <c r="O22" s="4" t="n"/>
-      <c r="P22" s="4" t="n"/>
-      <c r="Q22" s="4" t="n"/>
-      <c r="R22" s="4" t="n"/>
-      <c r="S22" s="4" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="U22" s="4" t="n"/>
-      <c r="V22" s="4" t="n"/>
-      <c r="W22" s="4" t="n"/>
-      <c r="X22" s="4" t="n"/>
-      <c r="Y22" s="4" t="n"/>
-      <c r="Z22" s="4" t="n"/>
-      <c r="AA22" s="4" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-      <c r="AC22" s="4" t="n"/>
-      <c r="AD22" s="4" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
-      <c r="I23" s="4" t="n"/>
-      <c r="J23" s="4" t="n"/>
-      <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4" t="n"/>
-      <c r="M23" s="4" t="n"/>
-      <c r="N23" s="4" t="n"/>
-      <c r="O23" s="4" t="n"/>
-      <c r="P23" s="4" t="n"/>
-      <c r="Q23" s="4" t="n"/>
-      <c r="R23" s="4" t="n"/>
-      <c r="S23" s="4" t="n"/>
-      <c r="T23" s="4" t="n"/>
-      <c r="U23" s="4" t="n"/>
-      <c r="V23" s="4" t="n"/>
-      <c r="W23" s="4" t="n"/>
-      <c r="X23" s="4" t="n"/>
-      <c r="Y23" s="4" t="n"/>
-      <c r="Z23" s="4" t="n"/>
-      <c r="AA23" s="4" t="n"/>
-      <c r="AB23" s="4" t="n"/>
-      <c r="AC23" s="4" t="n"/>
-      <c r="AD23" s="4" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
-      <c r="I24" s="4" t="n"/>
-      <c r="J24" s="4" t="n"/>
-      <c r="K24" s="4" t="n"/>
-      <c r="L24" s="4" t="n"/>
-      <c r="M24" s="4" t="n"/>
-      <c r="N24" s="4" t="n"/>
-      <c r="O24" s="4" t="n"/>
-      <c r="P24" s="4" t="n"/>
-      <c r="Q24" s="4" t="n"/>
-      <c r="R24" s="4" t="n"/>
-      <c r="S24" s="4" t="n"/>
-      <c r="T24" s="4" t="n"/>
-      <c r="U24" s="4" t="n"/>
-      <c r="V24" s="4" t="n"/>
-      <c r="W24" s="4" t="n"/>
-      <c r="X24" s="4" t="n"/>
-      <c r="Y24" s="4" t="n"/>
-      <c r="Z24" s="4" t="n"/>
-      <c r="AA24" s="4" t="n"/>
-      <c r="AB24" s="4" t="n"/>
-      <c r="AC24" s="4" t="n"/>
-      <c r="AD24" s="4" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
-      <c r="I25" s="4" t="n"/>
-      <c r="J25" s="4" t="n"/>
-      <c r="K25" s="4" t="n"/>
-      <c r="L25" s="4" t="n"/>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="4" t="n"/>
-      <c r="O25" s="4" t="n"/>
-      <c r="P25" s="4" t="n"/>
-      <c r="Q25" s="4" t="n"/>
-      <c r="R25" s="4" t="n"/>
-      <c r="S25" s="4" t="n"/>
-      <c r="T25" s="4" t="n"/>
-      <c r="U25" s="4" t="n"/>
-      <c r="V25" s="4" t="n"/>
-      <c r="W25" s="4" t="n"/>
-      <c r="X25" s="4" t="n"/>
-      <c r="Y25" s="4" t="n"/>
-      <c r="Z25" s="4" t="n"/>
-      <c r="AA25" s="4" t="n"/>
-      <c r="AB25" s="4" t="n"/>
-      <c r="AC25" s="4" t="n"/>
-      <c r="AD25" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
-      <c r="I26" s="4" t="n"/>
-      <c r="J26" s="4" t="n"/>
-      <c r="K26" s="4" t="n"/>
-      <c r="L26" s="4" t="n"/>
-      <c r="M26" s="4" t="n"/>
-      <c r="N26" s="4" t="n"/>
-      <c r="O26" s="4" t="n"/>
-      <c r="P26" s="4" t="n"/>
-      <c r="Q26" s="4" t="n"/>
-      <c r="R26" s="4" t="n"/>
-      <c r="S26" s="4" t="n"/>
-      <c r="T26" s="4" t="n"/>
-      <c r="U26" s="4" t="n"/>
-      <c r="V26" s="4" t="n"/>
-      <c r="W26" s="4" t="n"/>
-      <c r="X26" s="4" t="n"/>
-      <c r="Y26" s="4" t="n"/>
-      <c r="Z26" s="4" t="n"/>
-      <c r="AA26" s="4" t="n"/>
-      <c r="AB26" s="4" t="n"/>
-      <c r="AC26" s="4" t="n"/>
-      <c r="AD26" s="4" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
-      <c r="I27" s="4" t="n"/>
-      <c r="J27" s="4" t="n"/>
-      <c r="K27" s="4" t="n"/>
-      <c r="L27" s="4" t="n"/>
-      <c r="M27" s="4" t="n"/>
-      <c r="N27" s="4" t="n"/>
-      <c r="O27" s="4" t="n"/>
-      <c r="P27" s="4" t="n"/>
-      <c r="Q27" s="4" t="n"/>
-      <c r="R27" s="4" t="n"/>
-      <c r="S27" s="4" t="n"/>
-      <c r="T27" s="4" t="n"/>
-      <c r="U27" s="4" t="n"/>
-      <c r="V27" s="4" t="n"/>
-      <c r="W27" s="4" t="n"/>
-      <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n"/>
-      <c r="Z27" s="4" t="n"/>
-      <c r="AA27" s="4" t="n"/>
-      <c r="AB27" s="4" t="n"/>
-      <c r="AC27" s="4" t="n"/>
-      <c r="AD27" s="4" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
-      <c r="I28" s="4" t="n"/>
-      <c r="J28" s="4" t="n"/>
-      <c r="K28" s="4" t="n"/>
-      <c r="L28" s="4" t="n"/>
-      <c r="M28" s="4" t="n"/>
-      <c r="N28" s="4" t="n"/>
-      <c r="O28" s="4" t="n"/>
-      <c r="P28" s="4" t="n"/>
-      <c r="Q28" s="4" t="n"/>
-      <c r="R28" s="4" t="n"/>
-      <c r="S28" s="4" t="n"/>
-      <c r="T28" s="4" t="n"/>
-      <c r="U28" s="4" t="n"/>
-      <c r="V28" s="4" t="n"/>
-      <c r="W28" s="4" t="n"/>
-      <c r="X28" s="4" t="n"/>
-      <c r="Y28" s="4" t="n"/>
-      <c r="Z28" s="4" t="n"/>
-      <c r="AA28" s="4" t="n"/>
-      <c r="AB28" s="4" t="n"/>
-      <c r="AC28" s="4" t="n"/>
-      <c r="AD28" s="4" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
-      <c r="I29" s="4" t="n"/>
-      <c r="J29" s="4" t="n"/>
-      <c r="K29" s="4" t="n"/>
-      <c r="L29" s="4" t="n"/>
-      <c r="M29" s="4" t="n"/>
-      <c r="N29" s="4" t="n"/>
-      <c r="O29" s="4" t="n"/>
-      <c r="P29" s="4" t="n"/>
-      <c r="Q29" s="4" t="n"/>
-      <c r="R29" s="4" t="n"/>
-      <c r="S29" s="4" t="n"/>
-      <c r="T29" s="4" t="n"/>
-      <c r="U29" s="4" t="n"/>
-      <c r="V29" s="4" t="n"/>
-      <c r="W29" s="4" t="n"/>
-      <c r="X29" s="4" t="n"/>
-      <c r="Y29" s="4" t="n"/>
-      <c r="Z29" s="4" t="n"/>
-      <c r="AA29" s="4" t="n"/>
-      <c r="AB29" s="4" t="n"/>
-      <c r="AC29" s="4" t="n"/>
-      <c r="AD29" s="4" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
-      <c r="I30" s="4" t="n"/>
-      <c r="J30" s="4" t="n"/>
-      <c r="K30" s="4" t="n"/>
-      <c r="L30" s="4" t="n"/>
-      <c r="M30" s="4" t="n"/>
-      <c r="N30" s="4" t="n"/>
-      <c r="O30" s="4" t="n"/>
-      <c r="P30" s="4" t="n"/>
-      <c r="Q30" s="4" t="n"/>
-      <c r="R30" s="4" t="n"/>
-      <c r="S30" s="4" t="n"/>
-      <c r="T30" s="4" t="n"/>
-      <c r="U30" s="4" t="n"/>
-      <c r="V30" s="4" t="n"/>
-      <c r="W30" s="4" t="n"/>
-      <c r="X30" s="4" t="n"/>
-      <c r="Y30" s="4" t="n"/>
-      <c r="Z30" s="4" t="n"/>
-      <c r="AA30" s="4" t="n"/>
-      <c r="AB30" s="4" t="n"/>
-      <c r="AC30" s="4" t="n"/>
-      <c r="AD30" s="4" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
-      <c r="I31" s="4" t="n"/>
-      <c r="J31" s="4" t="n"/>
-      <c r="K31" s="4" t="n"/>
-      <c r="L31" s="4" t="n"/>
-      <c r="M31" s="4" t="n"/>
-      <c r="N31" s="4" t="n"/>
-      <c r="O31" s="4" t="n"/>
-      <c r="P31" s="4" t="n"/>
-      <c r="Q31" s="4" t="n"/>
-      <c r="R31" s="4" t="n"/>
-      <c r="S31" s="4" t="n"/>
-      <c r="T31" s="4" t="n"/>
-      <c r="U31" s="4" t="n"/>
-      <c r="V31" s="4" t="n"/>
-      <c r="W31" s="4" t="n"/>
-      <c r="X31" s="4" t="n"/>
-      <c r="Y31" s="4" t="n"/>
-      <c r="Z31" s="4" t="n"/>
-      <c r="AA31" s="4" t="n"/>
-      <c r="AB31" s="4" t="n"/>
-      <c r="AC31" s="4" t="n"/>
-      <c r="AD31" s="4" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
-      <c r="I32" s="4" t="n"/>
-      <c r="J32" s="4" t="n"/>
-      <c r="K32" s="4" t="n"/>
-      <c r="L32" s="4" t="n"/>
-      <c r="M32" s="4" t="n"/>
-      <c r="N32" s="4" t="n"/>
-      <c r="O32" s="4" t="n"/>
-      <c r="P32" s="4" t="n"/>
-      <c r="Q32" s="4" t="n"/>
-      <c r="R32" s="4" t="n"/>
-      <c r="S32" s="4" t="n"/>
-      <c r="T32" s="4" t="n"/>
-      <c r="U32" s="4" t="n"/>
-      <c r="V32" s="4" t="n"/>
-      <c r="W32" s="4" t="n"/>
-      <c r="X32" s="4" t="n"/>
-      <c r="Y32" s="4" t="n"/>
-      <c r="Z32" s="4" t="n"/>
-      <c r="AA32" s="4" t="n"/>
-      <c r="AB32" s="4" t="n"/>
-      <c r="AC32" s="4" t="n"/>
-      <c r="AD32" s="4" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="4" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="4" t="n"/>
-      <c r="F33" s="4" t="n"/>
-      <c r="G33" s="4" t="n"/>
-      <c r="H33" s="4" t="n"/>
-      <c r="I33" s="4" t="n"/>
-      <c r="J33" s="4" t="n"/>
-      <c r="K33" s="4" t="n"/>
-      <c r="L33" s="4" t="n"/>
-      <c r="M33" s="4" t="n"/>
-      <c r="N33" s="4" t="n"/>
-      <c r="O33" s="4" t="n"/>
-      <c r="P33" s="4" t="n"/>
-      <c r="Q33" s="4" t="n"/>
-      <c r="R33" s="4" t="n"/>
-      <c r="S33" s="4" t="n"/>
-      <c r="T33" s="4" t="n"/>
-      <c r="U33" s="4" t="n"/>
-      <c r="V33" s="4" t="n"/>
-      <c r="W33" s="4" t="n"/>
-      <c r="X33" s="4" t="n"/>
-      <c r="Y33" s="4" t="n"/>
-      <c r="Z33" s="4" t="n"/>
-      <c r="AA33" s="4" t="n"/>
-      <c r="AB33" s="4" t="n"/>
-      <c r="AC33" s="4" t="n"/>
-      <c r="AD33" s="4" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="4" t="n"/>
-      <c r="F34" s="4" t="n"/>
-      <c r="G34" s="4" t="n"/>
-      <c r="H34" s="4" t="n"/>
-      <c r="I34" s="4" t="n"/>
-      <c r="J34" s="4" t="n"/>
-      <c r="K34" s="4" t="n"/>
-      <c r="L34" s="4" t="n"/>
-      <c r="M34" s="4" t="n"/>
-      <c r="N34" s="4" t="n"/>
-      <c r="O34" s="4" t="n"/>
-      <c r="P34" s="4" t="n"/>
-      <c r="Q34" s="4" t="n"/>
-      <c r="R34" s="4" t="n"/>
-      <c r="S34" s="4" t="n"/>
-      <c r="T34" s="4" t="n"/>
-      <c r="U34" s="4" t="n"/>
-      <c r="V34" s="4" t="n"/>
-      <c r="W34" s="4" t="n"/>
-      <c r="X34" s="4" t="n"/>
-      <c r="Y34" s="4" t="n"/>
-      <c r="Z34" s="4" t="n"/>
-      <c r="AA34" s="4" t="n"/>
-      <c r="AB34" s="4" t="n"/>
-      <c r="AC34" s="4" t="n"/>
-      <c r="AD34" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AD36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>embeddings</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr"/>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr"/>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="6" t="n"/>
-      <c r="H2" s="6" t="n"/>
-      <c r="I2" s="6" t="n"/>
-      <c r="J2" s="6" t="n"/>
-      <c r="K2" s="6" t="n"/>
-      <c r="L2" s="6" t="n"/>
-      <c r="M2" s="6" t="n"/>
-      <c r="N2" s="6" t="n"/>
-      <c r="O2" s="6" t="n"/>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="6" t="n"/>
-      <c r="S2" s="6" t="n"/>
-      <c r="T2" s="6" t="n"/>
-      <c r="U2" s="6" t="n"/>
-      <c r="V2" s="6" t="n"/>
-      <c r="W2" s="6" t="n"/>
-      <c r="X2" s="6" t="n"/>
-      <c r="Y2" s="6" t="n"/>
-      <c r="Z2" s="6" t="n"/>
-      <c r="AA2" s="6" t="n"/>
-      <c r="AB2" s="6" t="n"/>
-      <c r="AC2" s="6" t="n"/>
-      <c r="AD2" s="6" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr"/>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
-      <c r="I3" s="6" t="n"/>
-      <c r="J3" s="6" t="n"/>
-      <c r="K3" s="6" t="n"/>
-      <c r="L3" s="6" t="n"/>
-      <c r="M3" s="6" t="n"/>
-      <c r="N3" s="6" t="n"/>
-      <c r="O3" s="6" t="n"/>
-      <c r="P3" s="6" t="n"/>
-      <c r="Q3" s="6" t="n"/>
-      <c r="R3" s="6" t="n"/>
-      <c r="S3" s="6" t="n"/>
-      <c r="T3" s="6" t="n"/>
-      <c r="U3" s="6" t="n"/>
-      <c r="V3" s="6" t="n"/>
-      <c r="W3" s="6" t="n"/>
-      <c r="X3" s="6" t="n"/>
-      <c r="Y3" s="6" t="n"/>
-      <c r="Z3" s="6" t="n"/>
-      <c r="AA3" s="6" t="n"/>
-      <c r="AB3" s="6" t="n"/>
-      <c r="AC3" s="6" t="n"/>
-      <c r="AD3" s="6" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr"/>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
-      <c r="I4" s="6" t="n"/>
-      <c r="J4" s="6" t="n"/>
-      <c r="K4" s="6" t="n"/>
-      <c r="L4" s="6" t="n"/>
-      <c r="M4" s="6" t="n"/>
-      <c r="N4" s="6" t="n"/>
-      <c r="O4" s="6" t="n"/>
-      <c r="P4" s="6" t="n"/>
-      <c r="Q4" s="6" t="n"/>
-      <c r="R4" s="6" t="n"/>
-      <c r="S4" s="6" t="n"/>
-      <c r="T4" s="6" t="n"/>
-      <c r="U4" s="6" t="n"/>
-      <c r="V4" s="6" t="n"/>
-      <c r="W4" s="6" t="n"/>
-      <c r="X4" s="6" t="n"/>
-      <c r="Y4" s="6" t="n"/>
-      <c r="Z4" s="6" t="n"/>
-      <c r="AA4" s="6" t="n"/>
-      <c r="AB4" s="6" t="n"/>
-      <c r="AC4" s="6" t="n"/>
-      <c r="AD4" s="6" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr"/>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>vector</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>[""]</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="6" t="n"/>
-      <c r="J5" s="6" t="n"/>
-      <c r="K5" s="6" t="n"/>
-      <c r="L5" s="6" t="n"/>
-      <c r="M5" s="6" t="n"/>
-      <c r="N5" s="6" t="n"/>
-      <c r="O5" s="6" t="n"/>
-      <c r="P5" s="6" t="n"/>
-      <c r="Q5" s="6" t="n"/>
-      <c r="R5" s="6" t="n"/>
-      <c r="S5" s="6" t="n"/>
-      <c r="T5" s="6" t="n"/>
-      <c r="U5" s="6" t="n"/>
-      <c r="V5" s="6" t="n"/>
-      <c r="W5" s="6" t="n"/>
-      <c r="X5" s="6" t="n"/>
-      <c r="Y5" s="6" t="n"/>
-      <c r="Z5" s="6" t="n"/>
-      <c r="AA5" s="6" t="n"/>
-      <c r="AB5" s="6" t="n"/>
-      <c r="AC5" s="6" t="n"/>
-      <c r="AD5" s="6" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
-      <c r="L6" s="2" t="n"/>
-      <c r="M6" s="2" t="n"/>
-      <c r="N6" s="2" t="n"/>
-      <c r="O6" s="2" t="n"/>
-      <c r="P6" s="2" t="n"/>
-      <c r="Q6" s="2" t="n"/>
-      <c r="R6" s="2" t="n"/>
-      <c r="S6" s="2" t="n"/>
-      <c r="T6" s="2" t="n"/>
-      <c r="U6" s="2" t="n"/>
-      <c r="V6" s="2" t="n"/>
-      <c r="W6" s="2" t="n"/>
-      <c r="X6" s="2" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="2" t="n"/>
-      <c r="AB6" s="2" t="n"/>
-      <c r="AC6" s="2" t="n"/>
-      <c r="AD6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="n"/>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="4" t="n"/>
-      <c r="F7" s="4" t="n"/>
-      <c r="G7" s="4" t="n"/>
-      <c r="H7" s="4" t="n"/>
-      <c r="I7" s="4" t="n"/>
-      <c r="J7" s="4" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
-      <c r="O7" s="4" t="n"/>
-      <c r="P7" s="4" t="n"/>
-      <c r="Q7" s="4" t="n"/>
-      <c r="R7" s="4" t="n"/>
-      <c r="S7" s="4" t="n"/>
-      <c r="T7" s="4" t="n"/>
-      <c r="U7" s="4" t="n"/>
-      <c r="V7" s="4" t="n"/>
-      <c r="W7" s="4" t="n"/>
-      <c r="X7" s="4" t="n"/>
-      <c r="Y7" s="4" t="n"/>
-      <c r="Z7" s="4" t="n"/>
-      <c r="AA7" s="4" t="n"/>
-      <c r="AB7" s="4" t="n"/>
-      <c r="AC7" s="4" t="n"/>
-      <c r="AD7" s="4" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="n"/>
-      <c r="C8" s="4" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="4" t="n"/>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
-      <c r="I8" s="4" t="n"/>
-      <c r="J8" s="4" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
-      <c r="O8" s="4" t="n"/>
-      <c r="P8" s="4" t="n"/>
-      <c r="Q8" s="4" t="n"/>
-      <c r="R8" s="4" t="n"/>
-      <c r="S8" s="4" t="n"/>
-      <c r="T8" s="4" t="n"/>
-      <c r="U8" s="4" t="n"/>
-      <c r="V8" s="4" t="n"/>
-      <c r="W8" s="4" t="n"/>
-      <c r="X8" s="4" t="n"/>
-      <c r="Y8" s="4" t="n"/>
-      <c r="Z8" s="4" t="n"/>
-      <c r="AA8" s="4" t="n"/>
-      <c r="AB8" s="4" t="n"/>
-      <c r="AC8" s="4" t="n"/>
-      <c r="AD8" s="4" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="n"/>
-      <c r="C9" s="4" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="4" t="n"/>
-      <c r="F9" s="4" t="n"/>
-      <c r="G9" s="4" t="n"/>
-      <c r="H9" s="4" t="n"/>
-      <c r="I9" s="4" t="n"/>
-      <c r="J9" s="4" t="n"/>
-      <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="4" t="n"/>
-      <c r="O9" s="4" t="n"/>
-      <c r="P9" s="4" t="n"/>
-      <c r="Q9" s="4" t="n"/>
-      <c r="R9" s="4" t="n"/>
-      <c r="S9" s="4" t="n"/>
-      <c r="T9" s="4" t="n"/>
-      <c r="U9" s="4" t="n"/>
-      <c r="V9" s="4" t="n"/>
-      <c r="W9" s="4" t="n"/>
-      <c r="X9" s="4" t="n"/>
-      <c r="Y9" s="4" t="n"/>
-      <c r="Z9" s="4" t="n"/>
-      <c r="AA9" s="4" t="n"/>
-      <c r="AB9" s="4" t="n"/>
-      <c r="AC9" s="4" t="n"/>
-      <c r="AD9" s="4" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="n"/>
-      <c r="C10" s="4" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="4" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="4" t="n"/>
-      <c r="H10" s="4" t="n"/>
-      <c r="I10" s="4" t="n"/>
-      <c r="J10" s="4" t="n"/>
-      <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4" t="n"/>
-      <c r="M10" s="4" t="n"/>
-      <c r="N10" s="4" t="n"/>
-      <c r="O10" s="4" t="n"/>
-      <c r="P10" s="4" t="n"/>
-      <c r="Q10" s="4" t="n"/>
-      <c r="R10" s="4" t="n"/>
-      <c r="S10" s="4" t="n"/>
-      <c r="T10" s="4" t="n"/>
-      <c r="U10" s="4" t="n"/>
-      <c r="V10" s="4" t="n"/>
-      <c r="W10" s="4" t="n"/>
-      <c r="X10" s="4" t="n"/>
-      <c r="Y10" s="4" t="n"/>
-      <c r="Z10" s="4" t="n"/>
-      <c r="AA10" s="4" t="n"/>
-      <c r="AB10" s="4" t="n"/>
-      <c r="AC10" s="4" t="n"/>
-      <c r="AD10" s="4" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="n"/>
-      <c r="C11" s="4" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="4" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="4" t="n"/>
-      <c r="H11" s="4" t="n"/>
-      <c r="I11" s="4" t="n"/>
-      <c r="J11" s="4" t="n"/>
-      <c r="K11" s="4" t="n"/>
-      <c r="L11" s="4" t="n"/>
-      <c r="M11" s="4" t="n"/>
-      <c r="N11" s="4" t="n"/>
-      <c r="O11" s="4" t="n"/>
-      <c r="P11" s="4" t="n"/>
-      <c r="Q11" s="4" t="n"/>
-      <c r="R11" s="4" t="n"/>
-      <c r="S11" s="4" t="n"/>
-      <c r="T11" s="4" t="n"/>
-      <c r="U11" s="4" t="n"/>
-      <c r="V11" s="4" t="n"/>
-      <c r="W11" s="4" t="n"/>
-      <c r="X11" s="4" t="n"/>
-      <c r="Y11" s="4" t="n"/>
-      <c r="Z11" s="4" t="n"/>
-      <c r="AA11" s="4" t="n"/>
-      <c r="AB11" s="4" t="n"/>
-      <c r="AC11" s="4" t="n"/>
-      <c r="AD11" s="4" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="n"/>
-      <c r="C12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="4" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="4" t="n"/>
-      <c r="H12" s="4" t="n"/>
-      <c r="I12" s="4" t="n"/>
-      <c r="J12" s="4" t="n"/>
-      <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4" t="n"/>
-      <c r="M12" s="4" t="n"/>
-      <c r="N12" s="4" t="n"/>
-      <c r="O12" s="4" t="n"/>
-      <c r="P12" s="4" t="n"/>
-      <c r="Q12" s="4" t="n"/>
-      <c r="R12" s="4" t="n"/>
-      <c r="S12" s="4" t="n"/>
-      <c r="T12" s="4" t="n"/>
-      <c r="U12" s="4" t="n"/>
-      <c r="V12" s="4" t="n"/>
-      <c r="W12" s="4" t="n"/>
-      <c r="X12" s="4" t="n"/>
-      <c r="Y12" s="4" t="n"/>
-      <c r="Z12" s="4" t="n"/>
-      <c r="AA12" s="4" t="n"/>
-      <c r="AB12" s="4" t="n"/>
-      <c r="AC12" s="4" t="n"/>
-      <c r="AD12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="n"/>
-      <c r="C13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="4" t="n"/>
-      <c r="F13" s="4" t="n"/>
-      <c r="G13" s="4" t="n"/>
-      <c r="H13" s="4" t="n"/>
-      <c r="I13" s="4" t="n"/>
-      <c r="J13" s="4" t="n"/>
-      <c r="K13" s="4" t="n"/>
-      <c r="L13" s="4" t="n"/>
-      <c r="M13" s="4" t="n"/>
-      <c r="N13" s="4" t="n"/>
-      <c r="O13" s="4" t="n"/>
-      <c r="P13" s="4" t="n"/>
-      <c r="Q13" s="4" t="n"/>
-      <c r="R13" s="4" t="n"/>
-      <c r="S13" s="4" t="n"/>
-      <c r="T13" s="4" t="n"/>
-      <c r="U13" s="4" t="n"/>
-      <c r="V13" s="4" t="n"/>
-      <c r="W13" s="4" t="n"/>
-      <c r="X13" s="4" t="n"/>
-      <c r="Y13" s="4" t="n"/>
-      <c r="Z13" s="4" t="n"/>
-      <c r="AA13" s="4" t="n"/>
-      <c r="AB13" s="4" t="n"/>
-      <c r="AC13" s="4" t="n"/>
-      <c r="AD13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="n"/>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="4" t="n"/>
-      <c r="F14" s="4" t="n"/>
-      <c r="G14" s="4" t="n"/>
-      <c r="H14" s="4" t="n"/>
-      <c r="I14" s="4" t="n"/>
-      <c r="J14" s="4" t="n"/>
-      <c r="K14" s="4" t="n"/>
-      <c r="L14" s="4" t="n"/>
-      <c r="M14" s="4" t="n"/>
-      <c r="N14" s="4" t="n"/>
-      <c r="O14" s="4" t="n"/>
-      <c r="P14" s="4" t="n"/>
-      <c r="Q14" s="4" t="n"/>
-      <c r="R14" s="4" t="n"/>
-      <c r="S14" s="4" t="n"/>
-      <c r="T14" s="4" t="n"/>
-      <c r="U14" s="4" t="n"/>
-      <c r="V14" s="4" t="n"/>
-      <c r="W14" s="4" t="n"/>
-      <c r="X14" s="4" t="n"/>
-      <c r="Y14" s="4" t="n"/>
-      <c r="Z14" s="4" t="n"/>
-      <c r="AA14" s="4" t="n"/>
-      <c r="AB14" s="4" t="n"/>
-      <c r="AC14" s="4" t="n"/>
-      <c r="AD14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="n"/>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="4" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="4" t="n"/>
-      <c r="F15" s="4" t="n"/>
-      <c r="G15" s="4" t="n"/>
-      <c r="H15" s="4" t="n"/>
-      <c r="I15" s="4" t="n"/>
-      <c r="J15" s="4" t="n"/>
-      <c r="K15" s="4" t="n"/>
-      <c r="L15" s="4" t="n"/>
-      <c r="M15" s="4" t="n"/>
-      <c r="N15" s="4" t="n"/>
-      <c r="O15" s="4" t="n"/>
-      <c r="P15" s="4" t="n"/>
-      <c r="Q15" s="4" t="n"/>
-      <c r="R15" s="4" t="n"/>
-      <c r="S15" s="4" t="n"/>
-      <c r="T15" s="4" t="n"/>
-      <c r="U15" s="4" t="n"/>
-      <c r="V15" s="4" t="n"/>
-      <c r="W15" s="4" t="n"/>
-      <c r="X15" s="4" t="n"/>
-      <c r="Y15" s="4" t="n"/>
-      <c r="Z15" s="4" t="n"/>
-      <c r="AA15" s="4" t="n"/>
-      <c r="AB15" s="4" t="n"/>
-      <c r="AC15" s="4" t="n"/>
-      <c r="AD15" s="4" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="n"/>
-      <c r="C16" s="4" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
-      <c r="G16" s="4" t="n"/>
-      <c r="H16" s="4" t="n"/>
-      <c r="I16" s="4" t="n"/>
-      <c r="J16" s="4" t="n"/>
-      <c r="K16" s="4" t="n"/>
-      <c r="L16" s="4" t="n"/>
-      <c r="M16" s="4" t="n"/>
-      <c r="N16" s="4" t="n"/>
-      <c r="O16" s="4" t="n"/>
-      <c r="P16" s="4" t="n"/>
-      <c r="Q16" s="4" t="n"/>
-      <c r="R16" s="4" t="n"/>
-      <c r="S16" s="4" t="n"/>
-      <c r="T16" s="4" t="n"/>
-      <c r="U16" s="4" t="n"/>
-      <c r="V16" s="4" t="n"/>
-      <c r="W16" s="4" t="n"/>
-      <c r="X16" s="4" t="n"/>
-      <c r="Y16" s="4" t="n"/>
-      <c r="Z16" s="4" t="n"/>
-      <c r="AA16" s="4" t="n"/>
-      <c r="AB16" s="4" t="n"/>
-      <c r="AC16" s="4" t="n"/>
-      <c r="AD16" s="4" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="n"/>
-      <c r="C17" s="4" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="4" t="n"/>
-      <c r="F17" s="4" t="n"/>
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="4" t="n"/>
-      <c r="I17" s="4" t="n"/>
-      <c r="J17" s="4" t="n"/>
-      <c r="K17" s="4" t="n"/>
-      <c r="L17" s="4" t="n"/>
-      <c r="M17" s="4" t="n"/>
-      <c r="N17" s="4" t="n"/>
-      <c r="O17" s="4" t="n"/>
-      <c r="P17" s="4" t="n"/>
-      <c r="Q17" s="4" t="n"/>
-      <c r="R17" s="4" t="n"/>
-      <c r="S17" s="4" t="n"/>
-      <c r="T17" s="4" t="n"/>
-      <c r="U17" s="4" t="n"/>
-      <c r="V17" s="4" t="n"/>
-      <c r="W17" s="4" t="n"/>
-      <c r="X17" s="4" t="n"/>
-      <c r="Y17" s="4" t="n"/>
-      <c r="Z17" s="4" t="n"/>
-      <c r="AA17" s="4" t="n"/>
-      <c r="AB17" s="4" t="n"/>
-      <c r="AC17" s="4" t="n"/>
-      <c r="AD17" s="4" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="n"/>
-      <c r="C18" s="4" t="n"/>
-      <c r="D18" s="4" t="n"/>
-      <c r="E18" s="4" t="n"/>
-      <c r="F18" s="4" t="n"/>
-      <c r="G18" s="4" t="n"/>
-      <c r="H18" s="4" t="n"/>
-      <c r="I18" s="4" t="n"/>
-      <c r="J18" s="4" t="n"/>
-      <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4" t="n"/>
-      <c r="M18" s="4" t="n"/>
-      <c r="N18" s="4" t="n"/>
-      <c r="O18" s="4" t="n"/>
-      <c r="P18" s="4" t="n"/>
-      <c r="Q18" s="4" t="n"/>
-      <c r="R18" s="4" t="n"/>
-      <c r="S18" s="4" t="n"/>
-      <c r="T18" s="4" t="n"/>
-      <c r="U18" s="4" t="n"/>
-      <c r="V18" s="4" t="n"/>
-      <c r="W18" s="4" t="n"/>
-      <c r="X18" s="4" t="n"/>
-      <c r="Y18" s="4" t="n"/>
-      <c r="Z18" s="4" t="n"/>
-      <c r="AA18" s="4" t="n"/>
-      <c r="AB18" s="4" t="n"/>
-      <c r="AC18" s="4" t="n"/>
-      <c r="AD18" s="4" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="n"/>
-      <c r="C19" s="4" t="n"/>
-      <c r="D19" s="4" t="n"/>
-      <c r="E19" s="4" t="n"/>
-      <c r="F19" s="4" t="n"/>
-      <c r="G19" s="4" t="n"/>
-      <c r="H19" s="4" t="n"/>
-      <c r="I19" s="4" t="n"/>
-      <c r="J19" s="4" t="n"/>
-      <c r="K19" s="4" t="n"/>
-      <c r="L19" s="4" t="n"/>
-      <c r="M19" s="4" t="n"/>
-      <c r="N19" s="4" t="n"/>
-      <c r="O19" s="4" t="n"/>
-      <c r="P19" s="4" t="n"/>
-      <c r="Q19" s="4" t="n"/>
-      <c r="R19" s="4" t="n"/>
-      <c r="S19" s="4" t="n"/>
-      <c r="T19" s="4" t="n"/>
-      <c r="U19" s="4" t="n"/>
-      <c r="V19" s="4" t="n"/>
-      <c r="W19" s="4" t="n"/>
-      <c r="X19" s="4" t="n"/>
-      <c r="Y19" s="4" t="n"/>
-      <c r="Z19" s="4" t="n"/>
-      <c r="AA19" s="4" t="n"/>
-      <c r="AB19" s="4" t="n"/>
-      <c r="AC19" s="4" t="n"/>
-      <c r="AD19" s="4" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="4" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="4" t="n"/>
-      <c r="F20" s="4" t="n"/>
-      <c r="G20" s="4" t="n"/>
-      <c r="H20" s="4" t="n"/>
-      <c r="I20" s="4" t="n"/>
-      <c r="J20" s="4" t="n"/>
-      <c r="K20" s="4" t="n"/>
-      <c r="L20" s="4" t="n"/>
-      <c r="M20" s="4" t="n"/>
-      <c r="N20" s="4" t="n"/>
-      <c r="O20" s="4" t="n"/>
-      <c r="P20" s="4" t="n"/>
-      <c r="Q20" s="4" t="n"/>
-      <c r="R20" s="4" t="n"/>
-      <c r="S20" s="4" t="n"/>
-      <c r="T20" s="4" t="n"/>
-      <c r="U20" s="4" t="n"/>
-      <c r="V20" s="4" t="n"/>
-      <c r="W20" s="4" t="n"/>
-      <c r="X20" s="4" t="n"/>
-      <c r="Y20" s="4" t="n"/>
-      <c r="Z20" s="4" t="n"/>
-      <c r="AA20" s="4" t="n"/>
-      <c r="AB20" s="4" t="n"/>
-      <c r="AC20" s="4" t="n"/>
-      <c r="AD20" s="4" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="n"/>
-      <c r="C21" s="4" t="n"/>
-      <c r="D21" s="4" t="n"/>
-      <c r="E21" s="4" t="n"/>
-      <c r="F21" s="4" t="n"/>
-      <c r="G21" s="4" t="n"/>
-      <c r="H21" s="4" t="n"/>
-      <c r="I21" s="4" t="n"/>
-      <c r="J21" s="4" t="n"/>
-      <c r="K21" s="4" t="n"/>
-      <c r="L21" s="4" t="n"/>
-      <c r="M21" s="4" t="n"/>
-      <c r="N21" s="4" t="n"/>
-      <c r="O21" s="4" t="n"/>
-      <c r="P21" s="4" t="n"/>
-      <c r="Q21" s="4" t="n"/>
-      <c r="R21" s="4" t="n"/>
-      <c r="S21" s="4" t="n"/>
-      <c r="T21" s="4" t="n"/>
-      <c r="U21" s="4" t="n"/>
-      <c r="V21" s="4" t="n"/>
-      <c r="W21" s="4" t="n"/>
-      <c r="X21" s="4" t="n"/>
-      <c r="Y21" s="4" t="n"/>
-      <c r="Z21" s="4" t="n"/>
-      <c r="AA21" s="4" t="n"/>
-      <c r="AB21" s="4" t="n"/>
-      <c r="AC21" s="4" t="n"/>
-      <c r="AD21" s="4" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="4" t="n"/>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="n"/>
-      <c r="H22" s="4" t="n"/>
-      <c r="I22" s="4" t="n"/>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="M22" s="4" t="n"/>
-      <c r="N22" s="4" t="n"/>
-      <c r="O22" s="4" t="n"/>
-      <c r="P22" s="4" t="n"/>
-      <c r="Q22" s="4" t="n"/>
-      <c r="R22" s="4" t="n"/>
-      <c r="S22" s="4" t="n"/>
-      <c r="T22" s="4" t="n"/>
-      <c r="U22" s="4" t="n"/>
-      <c r="V22" s="4" t="n"/>
-      <c r="W22" s="4" t="n"/>
-      <c r="X22" s="4" t="n"/>
-      <c r="Y22" s="4" t="n"/>
-      <c r="Z22" s="4" t="n"/>
-      <c r="AA22" s="4" t="n"/>
-      <c r="AB22" s="4" t="n"/>
-      <c r="AC22" s="4" t="n"/>
-      <c r="AD22" s="4" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="n"/>
-      <c r="C23" s="4" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="4" t="n"/>
-      <c r="F23" s="4" t="n"/>
-      <c r="G23" s="4" t="n"/>
-      <c r="H23" s="4" t="n"/>
-      <c r="I23" s="4" t="n"/>
-      <c r="J23" s="4" t="n"/>
-      <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4" t="n"/>
-      <c r="M23" s="4" t="n"/>
-      <c r="N23" s="4" t="n"/>
-      <c r="O23" s="4" t="n"/>
-      <c r="P23" s="4" t="n"/>
-      <c r="Q23" s="4" t="n"/>
-      <c r="R23" s="4" t="n"/>
-      <c r="S23" s="4" t="n"/>
-      <c r="T23" s="4" t="n"/>
-      <c r="U23" s="4" t="n"/>
-      <c r="V23" s="4" t="n"/>
-      <c r="W23" s="4" t="n"/>
-      <c r="X23" s="4" t="n"/>
-      <c r="Y23" s="4" t="n"/>
-      <c r="Z23" s="4" t="n"/>
-      <c r="AA23" s="4" t="n"/>
-      <c r="AB23" s="4" t="n"/>
-      <c r="AC23" s="4" t="n"/>
-      <c r="AD23" s="4" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="n"/>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="4" t="n"/>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="4" t="n"/>
-      <c r="F24" s="4" t="n"/>
-      <c r="G24" s="4" t="n"/>
-      <c r="H24" s="4" t="n"/>
-      <c r="I24" s="4" t="n"/>
-      <c r="J24" s="4" t="n"/>
-      <c r="K24" s="4" t="n"/>
-      <c r="L24" s="4" t="n"/>
-      <c r="M24" s="4" t="n"/>
-      <c r="N24" s="4" t="n"/>
-      <c r="O24" s="4" t="n"/>
-      <c r="P24" s="4" t="n"/>
-      <c r="Q24" s="4" t="n"/>
-      <c r="R24" s="4" t="n"/>
-      <c r="S24" s="4" t="n"/>
-      <c r="T24" s="4" t="n"/>
-      <c r="U24" s="4" t="n"/>
-      <c r="V24" s="4" t="n"/>
-      <c r="W24" s="4" t="n"/>
-      <c r="X24" s="4" t="n"/>
-      <c r="Y24" s="4" t="n"/>
-      <c r="Z24" s="4" t="n"/>
-      <c r="AA24" s="4" t="n"/>
-      <c r="AB24" s="4" t="n"/>
-      <c r="AC24" s="4" t="n"/>
-      <c r="AD24" s="4" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="n"/>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="4" t="n"/>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="4" t="n"/>
-      <c r="F25" s="4" t="n"/>
-      <c r="G25" s="4" t="n"/>
-      <c r="H25" s="4" t="n"/>
-      <c r="I25" s="4" t="n"/>
-      <c r="J25" s="4" t="n"/>
-      <c r="K25" s="4" t="n"/>
-      <c r="L25" s="4" t="n"/>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="4" t="n"/>
-      <c r="O25" s="4" t="n"/>
-      <c r="P25" s="4" t="n"/>
-      <c r="Q25" s="4" t="n"/>
-      <c r="R25" s="4" t="n"/>
-      <c r="S25" s="4" t="n"/>
-      <c r="T25" s="4" t="n"/>
-      <c r="U25" s="4" t="n"/>
-      <c r="V25" s="4" t="n"/>
-      <c r="W25" s="4" t="n"/>
-      <c r="X25" s="4" t="n"/>
-      <c r="Y25" s="4" t="n"/>
-      <c r="Z25" s="4" t="n"/>
-      <c r="AA25" s="4" t="n"/>
-      <c r="AB25" s="4" t="n"/>
-      <c r="AC25" s="4" t="n"/>
-      <c r="AD25" s="4" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="n"/>
-      <c r="B26" s="4" t="n"/>
-      <c r="C26" s="4" t="n"/>
-      <c r="D26" s="4" t="n"/>
-      <c r="E26" s="4" t="n"/>
-      <c r="F26" s="4" t="n"/>
-      <c r="G26" s="4" t="n"/>
-      <c r="H26" s="4" t="n"/>
-      <c r="I26" s="4" t="n"/>
-      <c r="J26" s="4" t="n"/>
-      <c r="K26" s="4" t="n"/>
-      <c r="L26" s="4" t="n"/>
-      <c r="M26" s="4" t="n"/>
-      <c r="N26" s="4" t="n"/>
-      <c r="O26" s="4" t="n"/>
-      <c r="P26" s="4" t="n"/>
-      <c r="Q26" s="4" t="n"/>
-      <c r="R26" s="4" t="n"/>
-      <c r="S26" s="4" t="n"/>
-      <c r="T26" s="4" t="n"/>
-      <c r="U26" s="4" t="n"/>
-      <c r="V26" s="4" t="n"/>
-      <c r="W26" s="4" t="n"/>
-      <c r="X26" s="4" t="n"/>
-      <c r="Y26" s="4" t="n"/>
-      <c r="Z26" s="4" t="n"/>
-      <c r="AA26" s="4" t="n"/>
-      <c r="AB26" s="4" t="n"/>
-      <c r="AC26" s="4" t="n"/>
-      <c r="AD26" s="4" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="n"/>
-      <c r="B27" s="4" t="n"/>
-      <c r="C27" s="4" t="n"/>
-      <c r="D27" s="4" t="n"/>
-      <c r="E27" s="4" t="n"/>
-      <c r="F27" s="4" t="n"/>
-      <c r="G27" s="4" t="n"/>
-      <c r="H27" s="4" t="n"/>
-      <c r="I27" s="4" t="n"/>
-      <c r="J27" s="4" t="n"/>
-      <c r="K27" s="4" t="n"/>
-      <c r="L27" s="4" t="n"/>
-      <c r="M27" s="4" t="n"/>
-      <c r="N27" s="4" t="n"/>
-      <c r="O27" s="4" t="n"/>
-      <c r="P27" s="4" t="n"/>
-      <c r="Q27" s="4" t="n"/>
-      <c r="R27" s="4" t="n"/>
-      <c r="S27" s="4" t="n"/>
-      <c r="T27" s="4" t="n"/>
-      <c r="U27" s="4" t="n"/>
-      <c r="V27" s="4" t="n"/>
-      <c r="W27" s="4" t="n"/>
-      <c r="X27" s="4" t="n"/>
-      <c r="Y27" s="4" t="n"/>
-      <c r="Z27" s="4" t="n"/>
-      <c r="AA27" s="4" t="n"/>
-      <c r="AB27" s="4" t="n"/>
-      <c r="AC27" s="4" t="n"/>
-      <c r="AD27" s="4" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="n"/>
-      <c r="B28" s="4" t="n"/>
-      <c r="C28" s="4" t="n"/>
-      <c r="D28" s="4" t="n"/>
-      <c r="E28" s="4" t="n"/>
-      <c r="F28" s="4" t="n"/>
-      <c r="G28" s="4" t="n"/>
-      <c r="H28" s="4" t="n"/>
-      <c r="I28" s="4" t="n"/>
-      <c r="J28" s="4" t="n"/>
-      <c r="K28" s="4" t="n"/>
-      <c r="L28" s="4" t="n"/>
-      <c r="M28" s="4" t="n"/>
-      <c r="N28" s="4" t="n"/>
-      <c r="O28" s="4" t="n"/>
-      <c r="P28" s="4" t="n"/>
-      <c r="Q28" s="4" t="n"/>
-      <c r="R28" s="4" t="n"/>
-      <c r="S28" s="4" t="n"/>
-      <c r="T28" s="4" t="n"/>
-      <c r="U28" s="4" t="n"/>
-      <c r="V28" s="4" t="n"/>
-      <c r="W28" s="4" t="n"/>
-      <c r="X28" s="4" t="n"/>
-      <c r="Y28" s="4" t="n"/>
-      <c r="Z28" s="4" t="n"/>
-      <c r="AA28" s="4" t="n"/>
-      <c r="AB28" s="4" t="n"/>
-      <c r="AC28" s="4" t="n"/>
-      <c r="AD28" s="4" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="4" t="n"/>
-      <c r="B29" s="4" t="n"/>
-      <c r="C29" s="4" t="n"/>
-      <c r="D29" s="4" t="n"/>
-      <c r="E29" s="4" t="n"/>
-      <c r="F29" s="4" t="n"/>
-      <c r="G29" s="4" t="n"/>
-      <c r="H29" s="4" t="n"/>
-      <c r="I29" s="4" t="n"/>
-      <c r="J29" s="4" t="n"/>
-      <c r="K29" s="4" t="n"/>
-      <c r="L29" s="4" t="n"/>
-      <c r="M29" s="4" t="n"/>
-      <c r="N29" s="4" t="n"/>
-      <c r="O29" s="4" t="n"/>
-      <c r="P29" s="4" t="n"/>
-      <c r="Q29" s="4" t="n"/>
-      <c r="R29" s="4" t="n"/>
-      <c r="S29" s="4" t="n"/>
-      <c r="T29" s="4" t="n"/>
-      <c r="U29" s="4" t="n"/>
-      <c r="V29" s="4" t="n"/>
-      <c r="W29" s="4" t="n"/>
-      <c r="X29" s="4" t="n"/>
-      <c r="Y29" s="4" t="n"/>
-      <c r="Z29" s="4" t="n"/>
-      <c r="AA29" s="4" t="n"/>
-      <c r="AB29" s="4" t="n"/>
-      <c r="AC29" s="4" t="n"/>
-      <c r="AD29" s="4" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="4" t="n"/>
-      <c r="D30" s="4" t="n"/>
-      <c r="E30" s="4" t="n"/>
-      <c r="F30" s="4" t="n"/>
-      <c r="G30" s="4" t="n"/>
-      <c r="H30" s="4" t="n"/>
-      <c r="I30" s="4" t="n"/>
-      <c r="J30" s="4" t="n"/>
-      <c r="K30" s="4" t="n"/>
-      <c r="L30" s="4" t="n"/>
-      <c r="M30" s="4" t="n"/>
-      <c r="N30" s="4" t="n"/>
-      <c r="O30" s="4" t="n"/>
-      <c r="P30" s="4" t="n"/>
-      <c r="Q30" s="4" t="n"/>
-      <c r="R30" s="4" t="n"/>
-      <c r="S30" s="4" t="n"/>
-      <c r="T30" s="4" t="n"/>
-      <c r="U30" s="4" t="n"/>
-      <c r="V30" s="4" t="n"/>
-      <c r="W30" s="4" t="n"/>
-      <c r="X30" s="4" t="n"/>
-      <c r="Y30" s="4" t="n"/>
-      <c r="Z30" s="4" t="n"/>
-      <c r="AA30" s="4" t="n"/>
-      <c r="AB30" s="4" t="n"/>
-      <c r="AC30" s="4" t="n"/>
-      <c r="AD30" s="4" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="n"/>
-      <c r="B31" s="4" t="n"/>
-      <c r="C31" s="4" t="n"/>
-      <c r="D31" s="4" t="n"/>
-      <c r="E31" s="4" t="n"/>
-      <c r="F31" s="4" t="n"/>
-      <c r="G31" s="4" t="n"/>
-      <c r="H31" s="4" t="n"/>
-      <c r="I31" s="4" t="n"/>
-      <c r="J31" s="4" t="n"/>
-      <c r="K31" s="4" t="n"/>
-      <c r="L31" s="4" t="n"/>
-      <c r="M31" s="4" t="n"/>
-      <c r="N31" s="4" t="n"/>
-      <c r="O31" s="4" t="n"/>
-      <c r="P31" s="4" t="n"/>
-      <c r="Q31" s="4" t="n"/>
-      <c r="R31" s="4" t="n"/>
-      <c r="S31" s="4" t="n"/>
-      <c r="T31" s="4" t="n"/>
-      <c r="U31" s="4" t="n"/>
-      <c r="V31" s="4" t="n"/>
-      <c r="W31" s="4" t="n"/>
-      <c r="X31" s="4" t="n"/>
-      <c r="Y31" s="4" t="n"/>
-      <c r="Z31" s="4" t="n"/>
-      <c r="AA31" s="4" t="n"/>
-      <c r="AB31" s="4" t="n"/>
-      <c r="AC31" s="4" t="n"/>
-      <c r="AD31" s="4" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="n"/>
-      <c r="B32" s="4" t="n"/>
-      <c r="C32" s="4" t="n"/>
-      <c r="D32" s="4" t="n"/>
-      <c r="E32" s="4" t="n"/>
-      <c r="F32" s="4" t="n"/>
-      <c r="G32" s="4" t="n"/>
-      <c r="H32" s="4" t="n"/>
-      <c r="I32" s="4" t="n"/>
-      <c r="J32" s="4" t="n"/>
-      <c r="K32" s="4" t="n"/>
-      <c r="L32" s="4" t="n"/>
-      <c r="M32" s="4" t="n"/>
-      <c r="N32" s="4" t="n"/>
-      <c r="O32" s="4" t="n"/>
-      <c r="P32" s="4" t="n"/>
-      <c r="Q32" s="4" t="n"/>
-      <c r="R32" s="4" t="n"/>
-      <c r="S32" s="4" t="n"/>
-      <c r="T32" s="4" t="n"/>
-      <c r="U32" s="4" t="n"/>
-      <c r="V32" s="4" t="n"/>
-      <c r="W32" s="4" t="n"/>
-      <c r="X32" s="4" t="n"/>
-      <c r="Y32" s="4" t="n"/>
-      <c r="Z32" s="4" t="n"/>
-      <c r="AA32" s="4" t="n"/>
-      <c r="AB32" s="4" t="n"/>
-      <c r="AC32" s="4" t="n"/>
-      <c r="AD32" s="4" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="n"/>
-      <c r="B33" s="4" t="n"/>
-      <c r="C33" s="4" t="n"/>
-      <c r="D33" s="4" t="n"/>
-      <c r="E33" s="4" t="n"/>
-      <c r="F33" s="4" t="n"/>
-      <c r="G33" s="4" t="n"/>
-      <c r="H33" s="4" t="n"/>
-      <c r="I33" s="4" t="n"/>
-      <c r="J33" s="4" t="n"/>
-      <c r="K33" s="4" t="n"/>
-      <c r="L33" s="4" t="n"/>
-      <c r="M33" s="4" t="n"/>
-      <c r="N33" s="4" t="n"/>
-      <c r="O33" s="4" t="n"/>
-      <c r="P33" s="4" t="n"/>
-      <c r="Q33" s="4" t="n"/>
-      <c r="R33" s="4" t="n"/>
-      <c r="S33" s="4" t="n"/>
-      <c r="T33" s="4" t="n"/>
-      <c r="U33" s="4" t="n"/>
-      <c r="V33" s="4" t="n"/>
-      <c r="W33" s="4" t="n"/>
-      <c r="X33" s="4" t="n"/>
-      <c r="Y33" s="4" t="n"/>
-      <c r="Z33" s="4" t="n"/>
-      <c r="AA33" s="4" t="n"/>
-      <c r="AB33" s="4" t="n"/>
-      <c r="AC33" s="4" t="n"/>
-      <c r="AD33" s="4" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="4" t="n"/>
-      <c r="C34" s="4" t="n"/>
-      <c r="D34" s="4" t="n"/>
-      <c r="E34" s="4" t="n"/>
-      <c r="F34" s="4" t="n"/>
-      <c r="G34" s="4" t="n"/>
-      <c r="H34" s="4" t="n"/>
-      <c r="I34" s="4" t="n"/>
-      <c r="J34" s="4" t="n"/>
-      <c r="K34" s="4" t="n"/>
-      <c r="L34" s="4" t="n"/>
-      <c r="M34" s="4" t="n"/>
-      <c r="N34" s="4" t="n"/>
-      <c r="O34" s="4" t="n"/>
-      <c r="P34" s="4" t="n"/>
-      <c r="Q34" s="4" t="n"/>
-      <c r="R34" s="4" t="n"/>
-      <c r="S34" s="4" t="n"/>
-      <c r="T34" s="4" t="n"/>
-      <c r="U34" s="4" t="n"/>
-      <c r="V34" s="4" t="n"/>
-      <c r="W34" s="4" t="n"/>
-      <c r="X34" s="4" t="n"/>
-      <c r="Y34" s="4" t="n"/>
-      <c r="Z34" s="4" t="n"/>
-      <c r="AA34" s="4" t="n"/>
-      <c r="AB34" s="4" t="n"/>
-      <c r="AC34" s="4" t="n"/>
-      <c r="AD34" s="4" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="n"/>
-      <c r="B35" s="4" t="n"/>
-      <c r="C35" s="4" t="n"/>
-      <c r="D35" s="4" t="n"/>
-      <c r="E35" s="4" t="n"/>
-      <c r="F35" s="4" t="n"/>
-      <c r="G35" s="4" t="n"/>
-      <c r="H35" s="4" t="n"/>
-      <c r="I35" s="4" t="n"/>
-      <c r="J35" s="4" t="n"/>
-      <c r="K35" s="4" t="n"/>
-      <c r="L35" s="4" t="n"/>
-      <c r="M35" s="4" t="n"/>
-      <c r="N35" s="4" t="n"/>
-      <c r="O35" s="4" t="n"/>
-      <c r="P35" s="4" t="n"/>
-      <c r="Q35" s="4" t="n"/>
-      <c r="R35" s="4" t="n"/>
-      <c r="S35" s="4" t="n"/>
-      <c r="T35" s="4" t="n"/>
-      <c r="U35" s="4" t="n"/>
-      <c r="V35" s="4" t="n"/>
-      <c r="W35" s="4" t="n"/>
-      <c r="X35" s="4" t="n"/>
-      <c r="Y35" s="4" t="n"/>
-      <c r="Z35" s="4" t="n"/>
-      <c r="AA35" s="4" t="n"/>
-      <c r="AB35" s="4" t="n"/>
-      <c r="AC35" s="4" t="n"/>
-      <c r="AD35" s="4" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="n"/>
-      <c r="B36" s="4" t="n"/>
-      <c r="C36" s="4" t="n"/>
-      <c r="D36" s="4" t="n"/>
-      <c r="E36" s="4" t="n"/>
-      <c r="F36" s="4" t="n"/>
-      <c r="G36" s="4" t="n"/>
-      <c r="H36" s="4" t="n"/>
-      <c r="I36" s="4" t="n"/>
-      <c r="J36" s="4" t="n"/>
-      <c r="K36" s="4" t="n"/>
-      <c r="L36" s="4" t="n"/>
-      <c r="M36" s="4" t="n"/>
-      <c r="N36" s="4" t="n"/>
-      <c r="O36" s="4" t="n"/>
-      <c r="P36" s="4" t="n"/>
-      <c r="Q36" s="4" t="n"/>
-      <c r="R36" s="4" t="n"/>
-      <c r="S36" s="4" t="n"/>
-      <c r="T36" s="4" t="n"/>
-      <c r="U36" s="4" t="n"/>
-      <c r="V36" s="4" t="n"/>
-      <c r="W36" s="4" t="n"/>
-      <c r="X36" s="4" t="n"/>
-      <c r="Y36" s="4" t="n"/>
-      <c r="Z36" s="4" t="n"/>
-      <c r="AA36" s="4" t="n"/>
-      <c r="AB36" s="4" t="n"/>
-      <c r="AC36" s="4" t="n"/>
-      <c r="AD36" s="4" t="n"/>
-    </row>
-  </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/excel_sheets/Geospatial_metadata.xlsx
+++ b/excel_sheets/Geospatial_metadata.xlsx
@@ -504,7 +504,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>geospatial type metadata version 0.1.0</t>
+          <t>metadata_type: geospatial, metadata_type_version: 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>

--- a/excel_sheets/Geospatial_metadata.xlsx
+++ b/excel_sheets/Geospatial_metadata.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD36"/>
+  <dimension ref="A1:AD86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1673,6 +1673,1606 @@
       <c r="AC36" s="4" t="n"/>
       <c r="AD36" s="4" t="n"/>
     </row>
+    <row r="37">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="n"/>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="4" t="n"/>
+      <c r="H37" s="4" t="n"/>
+      <c r="I37" s="4" t="n"/>
+      <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="n"/>
+      <c r="O37" s="4" t="n"/>
+      <c r="P37" s="4" t="n"/>
+      <c r="Q37" s="4" t="n"/>
+      <c r="R37" s="4" t="n"/>
+      <c r="S37" s="4" t="n"/>
+      <c r="T37" s="4" t="n"/>
+      <c r="U37" s="4" t="n"/>
+      <c r="V37" s="4" t="n"/>
+      <c r="W37" s="4" t="n"/>
+      <c r="X37" s="4" t="n"/>
+      <c r="Y37" s="4" t="n"/>
+      <c r="Z37" s="4" t="n"/>
+      <c r="AA37" s="4" t="n"/>
+      <c r="AB37" s="4" t="n"/>
+      <c r="AC37" s="4" t="n"/>
+      <c r="AD37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="n"/>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="4" t="n"/>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
+      <c r="O38" s="4" t="n"/>
+      <c r="P38" s="4" t="n"/>
+      <c r="Q38" s="4" t="n"/>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="n"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+      <c r="V38" s="4" t="n"/>
+      <c r="W38" s="4" t="n"/>
+      <c r="X38" s="4" t="n"/>
+      <c r="Y38" s="4" t="n"/>
+      <c r="Z38" s="4" t="n"/>
+      <c r="AA38" s="4" t="n"/>
+      <c r="AB38" s="4" t="n"/>
+      <c r="AC38" s="4" t="n"/>
+      <c r="AD38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n"/>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+      <c r="AB40" s="4" t="n"/>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="n"/>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
+      <c r="AB42" s="4" t="n"/>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="4" t="n"/>
+      <c r="P43" s="4" t="n"/>
+      <c r="Q43" s="4" t="n"/>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="4" t="n"/>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="4" t="n"/>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
+      <c r="AB43" s="4" t="n"/>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="4" t="n"/>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+      <c r="H45" s="4" t="n"/>
+      <c r="I45" s="4" t="n"/>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="n"/>
+      <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
+      <c r="O46" s="4" t="n"/>
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
+      <c r="P47" s="4" t="n"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+      <c r="AB48" s="4" t="n"/>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
+      <c r="P51" s="4" t="n"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
+      <c r="AB51" s="4" t="n"/>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="n"/>
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="n"/>
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="n"/>
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="n"/>
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="4" t="n"/>
+      <c r="Y56" s="4" t="n"/>
+      <c r="Z56" s="4" t="n"/>
+      <c r="AA56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AC56" s="4" t="n"/>
+      <c r="AD56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="n"/>
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="4" t="n"/>
+      <c r="Y57" s="4" t="n"/>
+      <c r="Z57" s="4" t="n"/>
+      <c r="AA57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AC57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="n"/>
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="4" t="n"/>
+      <c r="Y58" s="4" t="n"/>
+      <c r="Z58" s="4" t="n"/>
+      <c r="AA58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AC58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="n"/>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="4" t="n"/>
+      <c r="Y59" s="4" t="n"/>
+      <c r="Z59" s="4" t="n"/>
+      <c r="AA59" s="4" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AC59" s="4" t="n"/>
+      <c r="AD59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
+      <c r="P60" s="4" t="n"/>
+      <c r="Q60" s="4" t="n"/>
+      <c r="R60" s="4" t="n"/>
+      <c r="S60" s="4" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="4" t="n"/>
+      <c r="V60" s="4" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="4" t="n"/>
+      <c r="Y60" s="4" t="n"/>
+      <c r="Z60" s="4" t="n"/>
+      <c r="AA60" s="4" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AC60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+      <c r="H61" s="4" t="n"/>
+      <c r="I61" s="4" t="n"/>
+      <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
+      <c r="O61" s="4" t="n"/>
+      <c r="P61" s="4" t="n"/>
+      <c r="Q61" s="4" t="n"/>
+      <c r="R61" s="4" t="n"/>
+      <c r="S61" s="4" t="n"/>
+      <c r="T61" s="4" t="n"/>
+      <c r="U61" s="4" t="n"/>
+      <c r="V61" s="4" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="4" t="n"/>
+      <c r="Y61" s="4" t="n"/>
+      <c r="Z61" s="4" t="n"/>
+      <c r="AA61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AC61" s="4" t="n"/>
+      <c r="AD61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+      <c r="H62" s="4" t="n"/>
+      <c r="I62" s="4" t="n"/>
+      <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
+      <c r="O62" s="4" t="n"/>
+      <c r="P62" s="4" t="n"/>
+      <c r="Q62" s="4" t="n"/>
+      <c r="R62" s="4" t="n"/>
+      <c r="S62" s="4" t="n"/>
+      <c r="T62" s="4" t="n"/>
+      <c r="U62" s="4" t="n"/>
+      <c r="V62" s="4" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="4" t="n"/>
+      <c r="Y62" s="4" t="n"/>
+      <c r="Z62" s="4" t="n"/>
+      <c r="AA62" s="4" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AC62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+      <c r="H63" s="4" t="n"/>
+      <c r="I63" s="4" t="n"/>
+      <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
+      <c r="O63" s="4" t="n"/>
+      <c r="P63" s="4" t="n"/>
+      <c r="Q63" s="4" t="n"/>
+      <c r="R63" s="4" t="n"/>
+      <c r="S63" s="4" t="n"/>
+      <c r="T63" s="4" t="n"/>
+      <c r="U63" s="4" t="n"/>
+      <c r="V63" s="4" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="4" t="n"/>
+      <c r="Y63" s="4" t="n"/>
+      <c r="Z63" s="4" t="n"/>
+      <c r="AA63" s="4" t="n"/>
+      <c r="AB63" s="4" t="n"/>
+      <c r="AC63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+      <c r="H64" s="4" t="n"/>
+      <c r="I64" s="4" t="n"/>
+      <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
+      <c r="O64" s="4" t="n"/>
+      <c r="P64" s="4" t="n"/>
+      <c r="Q64" s="4" t="n"/>
+      <c r="R64" s="4" t="n"/>
+      <c r="S64" s="4" t="n"/>
+      <c r="T64" s="4" t="n"/>
+      <c r="U64" s="4" t="n"/>
+      <c r="V64" s="4" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="4" t="n"/>
+      <c r="Y64" s="4" t="n"/>
+      <c r="Z64" s="4" t="n"/>
+      <c r="AA64" s="4" t="n"/>
+      <c r="AB64" s="4" t="n"/>
+      <c r="AC64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+      <c r="H65" s="4" t="n"/>
+      <c r="I65" s="4" t="n"/>
+      <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
+      <c r="O65" s="4" t="n"/>
+      <c r="P65" s="4" t="n"/>
+      <c r="Q65" s="4" t="n"/>
+      <c r="R65" s="4" t="n"/>
+      <c r="S65" s="4" t="n"/>
+      <c r="T65" s="4" t="n"/>
+      <c r="U65" s="4" t="n"/>
+      <c r="V65" s="4" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="4" t="n"/>
+      <c r="Y65" s="4" t="n"/>
+      <c r="Z65" s="4" t="n"/>
+      <c r="AA65" s="4" t="n"/>
+      <c r="AB65" s="4" t="n"/>
+      <c r="AC65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="4" t="n"/>
+      <c r="I66" s="4" t="n"/>
+      <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
+      <c r="O66" s="4" t="n"/>
+      <c r="P66" s="4" t="n"/>
+      <c r="Q66" s="4" t="n"/>
+      <c r="R66" s="4" t="n"/>
+      <c r="S66" s="4" t="n"/>
+      <c r="T66" s="4" t="n"/>
+      <c r="U66" s="4" t="n"/>
+      <c r="V66" s="4" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="4" t="n"/>
+      <c r="Y66" s="4" t="n"/>
+      <c r="Z66" s="4" t="n"/>
+      <c r="AA66" s="4" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AC66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="4" t="n"/>
+      <c r="I67" s="4" t="n"/>
+      <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
+      <c r="O67" s="4" t="n"/>
+      <c r="P67" s="4" t="n"/>
+      <c r="Q67" s="4" t="n"/>
+      <c r="R67" s="4" t="n"/>
+      <c r="S67" s="4" t="n"/>
+      <c r="T67" s="4" t="n"/>
+      <c r="U67" s="4" t="n"/>
+      <c r="V67" s="4" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="4" t="n"/>
+      <c r="Y67" s="4" t="n"/>
+      <c r="Z67" s="4" t="n"/>
+      <c r="AA67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AC67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="4" t="n"/>
+      <c r="I68" s="4" t="n"/>
+      <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
+      <c r="O68" s="4" t="n"/>
+      <c r="P68" s="4" t="n"/>
+      <c r="Q68" s="4" t="n"/>
+      <c r="R68" s="4" t="n"/>
+      <c r="S68" s="4" t="n"/>
+      <c r="T68" s="4" t="n"/>
+      <c r="U68" s="4" t="n"/>
+      <c r="V68" s="4" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="4" t="n"/>
+      <c r="Y68" s="4" t="n"/>
+      <c r="Z68" s="4" t="n"/>
+      <c r="AA68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AC68" s="4" t="n"/>
+      <c r="AD68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="4" t="n"/>
+      <c r="I69" s="4" t="n"/>
+      <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
+      <c r="O69" s="4" t="n"/>
+      <c r="P69" s="4" t="n"/>
+      <c r="Q69" s="4" t="n"/>
+      <c r="R69" s="4" t="n"/>
+      <c r="S69" s="4" t="n"/>
+      <c r="T69" s="4" t="n"/>
+      <c r="U69" s="4" t="n"/>
+      <c r="V69" s="4" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="4" t="n"/>
+      <c r="Y69" s="4" t="n"/>
+      <c r="Z69" s="4" t="n"/>
+      <c r="AA69" s="4" t="n"/>
+      <c r="AB69" s="4" t="n"/>
+      <c r="AC69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="4" t="n"/>
+      <c r="I70" s="4" t="n"/>
+      <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
+      <c r="O70" s="4" t="n"/>
+      <c r="P70" s="4" t="n"/>
+      <c r="Q70" s="4" t="n"/>
+      <c r="R70" s="4" t="n"/>
+      <c r="S70" s="4" t="n"/>
+      <c r="T70" s="4" t="n"/>
+      <c r="U70" s="4" t="n"/>
+      <c r="V70" s="4" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="4" t="n"/>
+      <c r="Y70" s="4" t="n"/>
+      <c r="Z70" s="4" t="n"/>
+      <c r="AA70" s="4" t="n"/>
+      <c r="AB70" s="4" t="n"/>
+      <c r="AC70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="4" t="n"/>
+      <c r="I71" s="4" t="n"/>
+      <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
+      <c r="O71" s="4" t="n"/>
+      <c r="P71" s="4" t="n"/>
+      <c r="Q71" s="4" t="n"/>
+      <c r="R71" s="4" t="n"/>
+      <c r="S71" s="4" t="n"/>
+      <c r="T71" s="4" t="n"/>
+      <c r="U71" s="4" t="n"/>
+      <c r="V71" s="4" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="4" t="n"/>
+      <c r="Y71" s="4" t="n"/>
+      <c r="Z71" s="4" t="n"/>
+      <c r="AA71" s="4" t="n"/>
+      <c r="AB71" s="4" t="n"/>
+      <c r="AC71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
+      <c r="T72" s="4" t="n"/>
+      <c r="U72" s="4" t="n"/>
+      <c r="V72" s="4" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="4" t="n"/>
+      <c r="Y72" s="4" t="n"/>
+      <c r="Z72" s="4" t="n"/>
+      <c r="AA72" s="4" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AC72" s="4" t="n"/>
+      <c r="AD72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="4" t="n"/>
+      <c r="I73" s="4" t="n"/>
+      <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
+      <c r="O73" s="4" t="n"/>
+      <c r="P73" s="4" t="n"/>
+      <c r="Q73" s="4" t="n"/>
+      <c r="R73" s="4" t="n"/>
+      <c r="S73" s="4" t="n"/>
+      <c r="T73" s="4" t="n"/>
+      <c r="U73" s="4" t="n"/>
+      <c r="V73" s="4" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="4" t="n"/>
+      <c r="Y73" s="4" t="n"/>
+      <c r="Z73" s="4" t="n"/>
+      <c r="AA73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AC73" s="4" t="n"/>
+      <c r="AD73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="4" t="n"/>
+      <c r="I74" s="4" t="n"/>
+      <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
+      <c r="O74" s="4" t="n"/>
+      <c r="P74" s="4" t="n"/>
+      <c r="Q74" s="4" t="n"/>
+      <c r="R74" s="4" t="n"/>
+      <c r="S74" s="4" t="n"/>
+      <c r="T74" s="4" t="n"/>
+      <c r="U74" s="4" t="n"/>
+      <c r="V74" s="4" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="4" t="n"/>
+      <c r="Y74" s="4" t="n"/>
+      <c r="Z74" s="4" t="n"/>
+      <c r="AA74" s="4" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AC74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="4" t="n"/>
+      <c r="I75" s="4" t="n"/>
+      <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
+      <c r="O75" s="4" t="n"/>
+      <c r="P75" s="4" t="n"/>
+      <c r="Q75" s="4" t="n"/>
+      <c r="R75" s="4" t="n"/>
+      <c r="S75" s="4" t="n"/>
+      <c r="T75" s="4" t="n"/>
+      <c r="U75" s="4" t="n"/>
+      <c r="V75" s="4" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="4" t="n"/>
+      <c r="Y75" s="4" t="n"/>
+      <c r="Z75" s="4" t="n"/>
+      <c r="AA75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AC75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="4" t="n"/>
+      <c r="I76" s="4" t="n"/>
+      <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
+      <c r="O76" s="4" t="n"/>
+      <c r="P76" s="4" t="n"/>
+      <c r="Q76" s="4" t="n"/>
+      <c r="R76" s="4" t="n"/>
+      <c r="S76" s="4" t="n"/>
+      <c r="T76" s="4" t="n"/>
+      <c r="U76" s="4" t="n"/>
+      <c r="V76" s="4" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="4" t="n"/>
+      <c r="Y76" s="4" t="n"/>
+      <c r="Z76" s="4" t="n"/>
+      <c r="AA76" s="4" t="n"/>
+      <c r="AB76" s="4" t="n"/>
+      <c r="AC76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="n"/>
+      <c r="Q77" s="4" t="n"/>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="4" t="n"/>
+      <c r="Y77" s="4" t="n"/>
+      <c r="Z77" s="4" t="n"/>
+      <c r="AA77" s="4" t="n"/>
+      <c r="AB77" s="4" t="n"/>
+      <c r="AC77" s="4" t="n"/>
+      <c r="AD77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="n"/>
+      <c r="Q78" s="4" t="n"/>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="4" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="Z78" s="4" t="n"/>
+      <c r="AA78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AC78" s="4" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="n"/>
+      <c r="Q79" s="4" t="n"/>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="4" t="n"/>
+      <c r="Y79" s="4" t="n"/>
+      <c r="Z79" s="4" t="n"/>
+      <c r="AA79" s="4" t="n"/>
+      <c r="AB79" s="4" t="n"/>
+      <c r="AC79" s="4" t="n"/>
+      <c r="AD79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="n"/>
+      <c r="Q80" s="4" t="n"/>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="4" t="n"/>
+      <c r="Y80" s="4" t="n"/>
+      <c r="Z80" s="4" t="n"/>
+      <c r="AA80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AC80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="4" t="n"/>
+      <c r="I81" s="4" t="n"/>
+      <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
+      <c r="O81" s="4" t="n"/>
+      <c r="P81" s="4" t="n"/>
+      <c r="Q81" s="4" t="n"/>
+      <c r="R81" s="4" t="n"/>
+      <c r="S81" s="4" t="n"/>
+      <c r="T81" s="4" t="n"/>
+      <c r="U81" s="4" t="n"/>
+      <c r="V81" s="4" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="4" t="n"/>
+      <c r="Y81" s="4" t="n"/>
+      <c r="Z81" s="4" t="n"/>
+      <c r="AA81" s="4" t="n"/>
+      <c r="AB81" s="4" t="n"/>
+      <c r="AC81" s="4" t="n"/>
+      <c r="AD81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="4" t="n"/>
+      <c r="I82" s="4" t="n"/>
+      <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
+      <c r="O82" s="4" t="n"/>
+      <c r="P82" s="4" t="n"/>
+      <c r="Q82" s="4" t="n"/>
+      <c r="R82" s="4" t="n"/>
+      <c r="S82" s="4" t="n"/>
+      <c r="T82" s="4" t="n"/>
+      <c r="U82" s="4" t="n"/>
+      <c r="V82" s="4" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="4" t="n"/>
+      <c r="Y82" s="4" t="n"/>
+      <c r="Z82" s="4" t="n"/>
+      <c r="AA82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AC82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="4" t="n"/>
+      <c r="I83" s="4" t="n"/>
+      <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
+      <c r="O83" s="4" t="n"/>
+      <c r="P83" s="4" t="n"/>
+      <c r="Q83" s="4" t="n"/>
+      <c r="R83" s="4" t="n"/>
+      <c r="S83" s="4" t="n"/>
+      <c r="T83" s="4" t="n"/>
+      <c r="U83" s="4" t="n"/>
+      <c r="V83" s="4" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="4" t="n"/>
+      <c r="Y83" s="4" t="n"/>
+      <c r="Z83" s="4" t="n"/>
+      <c r="AA83" s="4" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AC83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+      <c r="T84" s="4" t="n"/>
+      <c r="U84" s="4" t="n"/>
+      <c r="V84" s="4" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="4" t="n"/>
+      <c r="Y84" s="4" t="n"/>
+      <c r="Z84" s="4" t="n"/>
+      <c r="AA84" s="4" t="n"/>
+      <c r="AB84" s="4" t="n"/>
+      <c r="AC84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="n"/>
+      <c r="D85" s="4" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
+      <c r="G85" s="4" t="n"/>
+      <c r="H85" s="4" t="n"/>
+      <c r="I85" s="4" t="n"/>
+      <c r="J85" s="4" t="n"/>
+      <c r="K85" s="4" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="4" t="n"/>
+      <c r="N85" s="4" t="n"/>
+      <c r="O85" s="4" t="n"/>
+      <c r="P85" s="4" t="n"/>
+      <c r="Q85" s="4" t="n"/>
+      <c r="R85" s="4" t="n"/>
+      <c r="S85" s="4" t="n"/>
+      <c r="T85" s="4" t="n"/>
+      <c r="U85" s="4" t="n"/>
+      <c r="V85" s="4" t="n"/>
+      <c r="W85" s="4" t="n"/>
+      <c r="X85" s="4" t="n"/>
+      <c r="Y85" s="4" t="n"/>
+      <c r="Z85" s="4" t="n"/>
+      <c r="AA85" s="4" t="n"/>
+      <c r="AB85" s="4" t="n"/>
+      <c r="AC85" s="4" t="n"/>
+      <c r="AD85" s="4" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="n"/>
+      <c r="D86" s="4" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="4" t="n"/>
+      <c r="G86" s="4" t="n"/>
+      <c r="H86" s="4" t="n"/>
+      <c r="I86" s="4" t="n"/>
+      <c r="J86" s="4" t="n"/>
+      <c r="K86" s="4" t="n"/>
+      <c r="L86" s="4" t="n"/>
+      <c r="M86" s="4" t="n"/>
+      <c r="N86" s="4" t="n"/>
+      <c r="O86" s="4" t="n"/>
+      <c r="P86" s="4" t="n"/>
+      <c r="Q86" s="4" t="n"/>
+      <c r="R86" s="4" t="n"/>
+      <c r="S86" s="4" t="n"/>
+      <c r="T86" s="4" t="n"/>
+      <c r="U86" s="4" t="n"/>
+      <c r="V86" s="4" t="n"/>
+      <c r="W86" s="4" t="n"/>
+      <c r="X86" s="4" t="n"/>
+      <c r="Y86" s="4" t="n"/>
+      <c r="Z86" s="4" t="n"/>
+      <c r="AA86" s="4" t="n"/>
+      <c r="AB86" s="4" t="n"/>
+      <c r="AC86" s="4" t="n"/>
+      <c r="AD86" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1685,7 +3285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3113,6 +4713,1606 @@
       <c r="AC43" s="4" t="n"/>
       <c r="AD43" s="4" t="n"/>
     </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="4" t="n"/>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+      <c r="H45" s="4" t="n"/>
+      <c r="I45" s="4" t="n"/>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="n"/>
+      <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
+      <c r="O46" s="4" t="n"/>
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
+      <c r="P47" s="4" t="n"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+      <c r="AB48" s="4" t="n"/>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
+      <c r="P51" s="4" t="n"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
+      <c r="AB51" s="4" t="n"/>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="n"/>
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="n"/>
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="n"/>
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="n"/>
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="4" t="n"/>
+      <c r="Y56" s="4" t="n"/>
+      <c r="Z56" s="4" t="n"/>
+      <c r="AA56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AC56" s="4" t="n"/>
+      <c r="AD56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="n"/>
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="4" t="n"/>
+      <c r="Y57" s="4" t="n"/>
+      <c r="Z57" s="4" t="n"/>
+      <c r="AA57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AC57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="n"/>
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="4" t="n"/>
+      <c r="Y58" s="4" t="n"/>
+      <c r="Z58" s="4" t="n"/>
+      <c r="AA58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AC58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="n"/>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="4" t="n"/>
+      <c r="Y59" s="4" t="n"/>
+      <c r="Z59" s="4" t="n"/>
+      <c r="AA59" s="4" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AC59" s="4" t="n"/>
+      <c r="AD59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
+      <c r="P60" s="4" t="n"/>
+      <c r="Q60" s="4" t="n"/>
+      <c r="R60" s="4" t="n"/>
+      <c r="S60" s="4" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="4" t="n"/>
+      <c r="V60" s="4" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="4" t="n"/>
+      <c r="Y60" s="4" t="n"/>
+      <c r="Z60" s="4" t="n"/>
+      <c r="AA60" s="4" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AC60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+      <c r="H61" s="4" t="n"/>
+      <c r="I61" s="4" t="n"/>
+      <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
+      <c r="O61" s="4" t="n"/>
+      <c r="P61" s="4" t="n"/>
+      <c r="Q61" s="4" t="n"/>
+      <c r="R61" s="4" t="n"/>
+      <c r="S61" s="4" t="n"/>
+      <c r="T61" s="4" t="n"/>
+      <c r="U61" s="4" t="n"/>
+      <c r="V61" s="4" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="4" t="n"/>
+      <c r="Y61" s="4" t="n"/>
+      <c r="Z61" s="4" t="n"/>
+      <c r="AA61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AC61" s="4" t="n"/>
+      <c r="AD61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+      <c r="H62" s="4" t="n"/>
+      <c r="I62" s="4" t="n"/>
+      <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
+      <c r="O62" s="4" t="n"/>
+      <c r="P62" s="4" t="n"/>
+      <c r="Q62" s="4" t="n"/>
+      <c r="R62" s="4" t="n"/>
+      <c r="S62" s="4" t="n"/>
+      <c r="T62" s="4" t="n"/>
+      <c r="U62" s="4" t="n"/>
+      <c r="V62" s="4" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="4" t="n"/>
+      <c r="Y62" s="4" t="n"/>
+      <c r="Z62" s="4" t="n"/>
+      <c r="AA62" s="4" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AC62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+      <c r="H63" s="4" t="n"/>
+      <c r="I63" s="4" t="n"/>
+      <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
+      <c r="O63" s="4" t="n"/>
+      <c r="P63" s="4" t="n"/>
+      <c r="Q63" s="4" t="n"/>
+      <c r="R63" s="4" t="n"/>
+      <c r="S63" s="4" t="n"/>
+      <c r="T63" s="4" t="n"/>
+      <c r="U63" s="4" t="n"/>
+      <c r="V63" s="4" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="4" t="n"/>
+      <c r="Y63" s="4" t="n"/>
+      <c r="Z63" s="4" t="n"/>
+      <c r="AA63" s="4" t="n"/>
+      <c r="AB63" s="4" t="n"/>
+      <c r="AC63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+      <c r="H64" s="4" t="n"/>
+      <c r="I64" s="4" t="n"/>
+      <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
+      <c r="O64" s="4" t="n"/>
+      <c r="P64" s="4" t="n"/>
+      <c r="Q64" s="4" t="n"/>
+      <c r="R64" s="4" t="n"/>
+      <c r="S64" s="4" t="n"/>
+      <c r="T64" s="4" t="n"/>
+      <c r="U64" s="4" t="n"/>
+      <c r="V64" s="4" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="4" t="n"/>
+      <c r="Y64" s="4" t="n"/>
+      <c r="Z64" s="4" t="n"/>
+      <c r="AA64" s="4" t="n"/>
+      <c r="AB64" s="4" t="n"/>
+      <c r="AC64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+      <c r="H65" s="4" t="n"/>
+      <c r="I65" s="4" t="n"/>
+      <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
+      <c r="O65" s="4" t="n"/>
+      <c r="P65" s="4" t="n"/>
+      <c r="Q65" s="4" t="n"/>
+      <c r="R65" s="4" t="n"/>
+      <c r="S65" s="4" t="n"/>
+      <c r="T65" s="4" t="n"/>
+      <c r="U65" s="4" t="n"/>
+      <c r="V65" s="4" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="4" t="n"/>
+      <c r="Y65" s="4" t="n"/>
+      <c r="Z65" s="4" t="n"/>
+      <c r="AA65" s="4" t="n"/>
+      <c r="AB65" s="4" t="n"/>
+      <c r="AC65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="4" t="n"/>
+      <c r="I66" s="4" t="n"/>
+      <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
+      <c r="O66" s="4" t="n"/>
+      <c r="P66" s="4" t="n"/>
+      <c r="Q66" s="4" t="n"/>
+      <c r="R66" s="4" t="n"/>
+      <c r="S66" s="4" t="n"/>
+      <c r="T66" s="4" t="n"/>
+      <c r="U66" s="4" t="n"/>
+      <c r="V66" s="4" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="4" t="n"/>
+      <c r="Y66" s="4" t="n"/>
+      <c r="Z66" s="4" t="n"/>
+      <c r="AA66" s="4" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AC66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="4" t="n"/>
+      <c r="I67" s="4" t="n"/>
+      <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
+      <c r="O67" s="4" t="n"/>
+      <c r="P67" s="4" t="n"/>
+      <c r="Q67" s="4" t="n"/>
+      <c r="R67" s="4" t="n"/>
+      <c r="S67" s="4" t="n"/>
+      <c r="T67" s="4" t="n"/>
+      <c r="U67" s="4" t="n"/>
+      <c r="V67" s="4" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="4" t="n"/>
+      <c r="Y67" s="4" t="n"/>
+      <c r="Z67" s="4" t="n"/>
+      <c r="AA67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AC67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="4" t="n"/>
+      <c r="I68" s="4" t="n"/>
+      <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
+      <c r="O68" s="4" t="n"/>
+      <c r="P68" s="4" t="n"/>
+      <c r="Q68" s="4" t="n"/>
+      <c r="R68" s="4" t="n"/>
+      <c r="S68" s="4" t="n"/>
+      <c r="T68" s="4" t="n"/>
+      <c r="U68" s="4" t="n"/>
+      <c r="V68" s="4" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="4" t="n"/>
+      <c r="Y68" s="4" t="n"/>
+      <c r="Z68" s="4" t="n"/>
+      <c r="AA68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AC68" s="4" t="n"/>
+      <c r="AD68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="4" t="n"/>
+      <c r="I69" s="4" t="n"/>
+      <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
+      <c r="O69" s="4" t="n"/>
+      <c r="P69" s="4" t="n"/>
+      <c r="Q69" s="4" t="n"/>
+      <c r="R69" s="4" t="n"/>
+      <c r="S69" s="4" t="n"/>
+      <c r="T69" s="4" t="n"/>
+      <c r="U69" s="4" t="n"/>
+      <c r="V69" s="4" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="4" t="n"/>
+      <c r="Y69" s="4" t="n"/>
+      <c r="Z69" s="4" t="n"/>
+      <c r="AA69" s="4" t="n"/>
+      <c r="AB69" s="4" t="n"/>
+      <c r="AC69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="4" t="n"/>
+      <c r="I70" s="4" t="n"/>
+      <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
+      <c r="O70" s="4" t="n"/>
+      <c r="P70" s="4" t="n"/>
+      <c r="Q70" s="4" t="n"/>
+      <c r="R70" s="4" t="n"/>
+      <c r="S70" s="4" t="n"/>
+      <c r="T70" s="4" t="n"/>
+      <c r="U70" s="4" t="n"/>
+      <c r="V70" s="4" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="4" t="n"/>
+      <c r="Y70" s="4" t="n"/>
+      <c r="Z70" s="4" t="n"/>
+      <c r="AA70" s="4" t="n"/>
+      <c r="AB70" s="4" t="n"/>
+      <c r="AC70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="4" t="n"/>
+      <c r="I71" s="4" t="n"/>
+      <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
+      <c r="O71" s="4" t="n"/>
+      <c r="P71" s="4" t="n"/>
+      <c r="Q71" s="4" t="n"/>
+      <c r="R71" s="4" t="n"/>
+      <c r="S71" s="4" t="n"/>
+      <c r="T71" s="4" t="n"/>
+      <c r="U71" s="4" t="n"/>
+      <c r="V71" s="4" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="4" t="n"/>
+      <c r="Y71" s="4" t="n"/>
+      <c r="Z71" s="4" t="n"/>
+      <c r="AA71" s="4" t="n"/>
+      <c r="AB71" s="4" t="n"/>
+      <c r="AC71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
+      <c r="T72" s="4" t="n"/>
+      <c r="U72" s="4" t="n"/>
+      <c r="V72" s="4" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="4" t="n"/>
+      <c r="Y72" s="4" t="n"/>
+      <c r="Z72" s="4" t="n"/>
+      <c r="AA72" s="4" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AC72" s="4" t="n"/>
+      <c r="AD72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="4" t="n"/>
+      <c r="I73" s="4" t="n"/>
+      <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
+      <c r="O73" s="4" t="n"/>
+      <c r="P73" s="4" t="n"/>
+      <c r="Q73" s="4" t="n"/>
+      <c r="R73" s="4" t="n"/>
+      <c r="S73" s="4" t="n"/>
+      <c r="T73" s="4" t="n"/>
+      <c r="U73" s="4" t="n"/>
+      <c r="V73" s="4" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="4" t="n"/>
+      <c r="Y73" s="4" t="n"/>
+      <c r="Z73" s="4" t="n"/>
+      <c r="AA73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AC73" s="4" t="n"/>
+      <c r="AD73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="4" t="n"/>
+      <c r="I74" s="4" t="n"/>
+      <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
+      <c r="O74" s="4" t="n"/>
+      <c r="P74" s="4" t="n"/>
+      <c r="Q74" s="4" t="n"/>
+      <c r="R74" s="4" t="n"/>
+      <c r="S74" s="4" t="n"/>
+      <c r="T74" s="4" t="n"/>
+      <c r="U74" s="4" t="n"/>
+      <c r="V74" s="4" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="4" t="n"/>
+      <c r="Y74" s="4" t="n"/>
+      <c r="Z74" s="4" t="n"/>
+      <c r="AA74" s="4" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AC74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="4" t="n"/>
+      <c r="I75" s="4" t="n"/>
+      <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
+      <c r="O75" s="4" t="n"/>
+      <c r="P75" s="4" t="n"/>
+      <c r="Q75" s="4" t="n"/>
+      <c r="R75" s="4" t="n"/>
+      <c r="S75" s="4" t="n"/>
+      <c r="T75" s="4" t="n"/>
+      <c r="U75" s="4" t="n"/>
+      <c r="V75" s="4" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="4" t="n"/>
+      <c r="Y75" s="4" t="n"/>
+      <c r="Z75" s="4" t="n"/>
+      <c r="AA75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AC75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="4" t="n"/>
+      <c r="I76" s="4" t="n"/>
+      <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
+      <c r="O76" s="4" t="n"/>
+      <c r="P76" s="4" t="n"/>
+      <c r="Q76" s="4" t="n"/>
+      <c r="R76" s="4" t="n"/>
+      <c r="S76" s="4" t="n"/>
+      <c r="T76" s="4" t="n"/>
+      <c r="U76" s="4" t="n"/>
+      <c r="V76" s="4" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="4" t="n"/>
+      <c r="Y76" s="4" t="n"/>
+      <c r="Z76" s="4" t="n"/>
+      <c r="AA76" s="4" t="n"/>
+      <c r="AB76" s="4" t="n"/>
+      <c r="AC76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="n"/>
+      <c r="Q77" s="4" t="n"/>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="4" t="n"/>
+      <c r="Y77" s="4" t="n"/>
+      <c r="Z77" s="4" t="n"/>
+      <c r="AA77" s="4" t="n"/>
+      <c r="AB77" s="4" t="n"/>
+      <c r="AC77" s="4" t="n"/>
+      <c r="AD77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="n"/>
+      <c r="Q78" s="4" t="n"/>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="4" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="Z78" s="4" t="n"/>
+      <c r="AA78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AC78" s="4" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="n"/>
+      <c r="Q79" s="4" t="n"/>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="4" t="n"/>
+      <c r="Y79" s="4" t="n"/>
+      <c r="Z79" s="4" t="n"/>
+      <c r="AA79" s="4" t="n"/>
+      <c r="AB79" s="4" t="n"/>
+      <c r="AC79" s="4" t="n"/>
+      <c r="AD79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="n"/>
+      <c r="Q80" s="4" t="n"/>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="4" t="n"/>
+      <c r="Y80" s="4" t="n"/>
+      <c r="Z80" s="4" t="n"/>
+      <c r="AA80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AC80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="4" t="n"/>
+      <c r="I81" s="4" t="n"/>
+      <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
+      <c r="O81" s="4" t="n"/>
+      <c r="P81" s="4" t="n"/>
+      <c r="Q81" s="4" t="n"/>
+      <c r="R81" s="4" t="n"/>
+      <c r="S81" s="4" t="n"/>
+      <c r="T81" s="4" t="n"/>
+      <c r="U81" s="4" t="n"/>
+      <c r="V81" s="4" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="4" t="n"/>
+      <c r="Y81" s="4" t="n"/>
+      <c r="Z81" s="4" t="n"/>
+      <c r="AA81" s="4" t="n"/>
+      <c r="AB81" s="4" t="n"/>
+      <c r="AC81" s="4" t="n"/>
+      <c r="AD81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="4" t="n"/>
+      <c r="I82" s="4" t="n"/>
+      <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
+      <c r="O82" s="4" t="n"/>
+      <c r="P82" s="4" t="n"/>
+      <c r="Q82" s="4" t="n"/>
+      <c r="R82" s="4" t="n"/>
+      <c r="S82" s="4" t="n"/>
+      <c r="T82" s="4" t="n"/>
+      <c r="U82" s="4" t="n"/>
+      <c r="V82" s="4" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="4" t="n"/>
+      <c r="Y82" s="4" t="n"/>
+      <c r="Z82" s="4" t="n"/>
+      <c r="AA82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AC82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="4" t="n"/>
+      <c r="I83" s="4" t="n"/>
+      <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
+      <c r="O83" s="4" t="n"/>
+      <c r="P83" s="4" t="n"/>
+      <c r="Q83" s="4" t="n"/>
+      <c r="R83" s="4" t="n"/>
+      <c r="S83" s="4" t="n"/>
+      <c r="T83" s="4" t="n"/>
+      <c r="U83" s="4" t="n"/>
+      <c r="V83" s="4" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="4" t="n"/>
+      <c r="Y83" s="4" t="n"/>
+      <c r="Z83" s="4" t="n"/>
+      <c r="AA83" s="4" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AC83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+      <c r="T84" s="4" t="n"/>
+      <c r="U84" s="4" t="n"/>
+      <c r="V84" s="4" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="4" t="n"/>
+      <c r="Y84" s="4" t="n"/>
+      <c r="Z84" s="4" t="n"/>
+      <c r="AA84" s="4" t="n"/>
+      <c r="AB84" s="4" t="n"/>
+      <c r="AC84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="n"/>
+      <c r="D85" s="4" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
+      <c r="G85" s="4" t="n"/>
+      <c r="H85" s="4" t="n"/>
+      <c r="I85" s="4" t="n"/>
+      <c r="J85" s="4" t="n"/>
+      <c r="K85" s="4" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="4" t="n"/>
+      <c r="N85" s="4" t="n"/>
+      <c r="O85" s="4" t="n"/>
+      <c r="P85" s="4" t="n"/>
+      <c r="Q85" s="4" t="n"/>
+      <c r="R85" s="4" t="n"/>
+      <c r="S85" s="4" t="n"/>
+      <c r="T85" s="4" t="n"/>
+      <c r="U85" s="4" t="n"/>
+      <c r="V85" s="4" t="n"/>
+      <c r="W85" s="4" t="n"/>
+      <c r="X85" s="4" t="n"/>
+      <c r="Y85" s="4" t="n"/>
+      <c r="Z85" s="4" t="n"/>
+      <c r="AA85" s="4" t="n"/>
+      <c r="AB85" s="4" t="n"/>
+      <c r="AC85" s="4" t="n"/>
+      <c r="AD85" s="4" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="n"/>
+      <c r="D86" s="4" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="4" t="n"/>
+      <c r="G86" s="4" t="n"/>
+      <c r="H86" s="4" t="n"/>
+      <c r="I86" s="4" t="n"/>
+      <c r="J86" s="4" t="n"/>
+      <c r="K86" s="4" t="n"/>
+      <c r="L86" s="4" t="n"/>
+      <c r="M86" s="4" t="n"/>
+      <c r="N86" s="4" t="n"/>
+      <c r="O86" s="4" t="n"/>
+      <c r="P86" s="4" t="n"/>
+      <c r="Q86" s="4" t="n"/>
+      <c r="R86" s="4" t="n"/>
+      <c r="S86" s="4" t="n"/>
+      <c r="T86" s="4" t="n"/>
+      <c r="U86" s="4" t="n"/>
+      <c r="V86" s="4" t="n"/>
+      <c r="W86" s="4" t="n"/>
+      <c r="X86" s="4" t="n"/>
+      <c r="Y86" s="4" t="n"/>
+      <c r="Z86" s="4" t="n"/>
+      <c r="AA86" s="4" t="n"/>
+      <c r="AB86" s="4" t="n"/>
+      <c r="AC86" s="4" t="n"/>
+      <c r="AD86" s="4" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n"/>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="4" t="n"/>
+      <c r="D87" s="4" t="n"/>
+      <c r="E87" s="4" t="n"/>
+      <c r="F87" s="4" t="n"/>
+      <c r="G87" s="4" t="n"/>
+      <c r="H87" s="4" t="n"/>
+      <c r="I87" s="4" t="n"/>
+      <c r="J87" s="4" t="n"/>
+      <c r="K87" s="4" t="n"/>
+      <c r="L87" s="4" t="n"/>
+      <c r="M87" s="4" t="n"/>
+      <c r="N87" s="4" t="n"/>
+      <c r="O87" s="4" t="n"/>
+      <c r="P87" s="4" t="n"/>
+      <c r="Q87" s="4" t="n"/>
+      <c r="R87" s="4" t="n"/>
+      <c r="S87" s="4" t="n"/>
+      <c r="T87" s="4" t="n"/>
+      <c r="U87" s="4" t="n"/>
+      <c r="V87" s="4" t="n"/>
+      <c r="W87" s="4" t="n"/>
+      <c r="X87" s="4" t="n"/>
+      <c r="Y87" s="4" t="n"/>
+      <c r="Z87" s="4" t="n"/>
+      <c r="AA87" s="4" t="n"/>
+      <c r="AB87" s="4" t="n"/>
+      <c r="AC87" s="4" t="n"/>
+      <c r="AD87" s="4" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n"/>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="4" t="n"/>
+      <c r="D88" s="4" t="n"/>
+      <c r="E88" s="4" t="n"/>
+      <c r="F88" s="4" t="n"/>
+      <c r="G88" s="4" t="n"/>
+      <c r="H88" s="4" t="n"/>
+      <c r="I88" s="4" t="n"/>
+      <c r="J88" s="4" t="n"/>
+      <c r="K88" s="4" t="n"/>
+      <c r="L88" s="4" t="n"/>
+      <c r="M88" s="4" t="n"/>
+      <c r="N88" s="4" t="n"/>
+      <c r="O88" s="4" t="n"/>
+      <c r="P88" s="4" t="n"/>
+      <c r="Q88" s="4" t="n"/>
+      <c r="R88" s="4" t="n"/>
+      <c r="S88" s="4" t="n"/>
+      <c r="T88" s="4" t="n"/>
+      <c r="U88" s="4" t="n"/>
+      <c r="V88" s="4" t="n"/>
+      <c r="W88" s="4" t="n"/>
+      <c r="X88" s="4" t="n"/>
+      <c r="Y88" s="4" t="n"/>
+      <c r="Z88" s="4" t="n"/>
+      <c r="AA88" s="4" t="n"/>
+      <c r="AB88" s="4" t="n"/>
+      <c r="AC88" s="4" t="n"/>
+      <c r="AD88" s="4" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="n"/>
+      <c r="B89" s="4" t="n"/>
+      <c r="C89" s="4" t="n"/>
+      <c r="D89" s="4" t="n"/>
+      <c r="E89" s="4" t="n"/>
+      <c r="F89" s="4" t="n"/>
+      <c r="G89" s="4" t="n"/>
+      <c r="H89" s="4" t="n"/>
+      <c r="I89" s="4" t="n"/>
+      <c r="J89" s="4" t="n"/>
+      <c r="K89" s="4" t="n"/>
+      <c r="L89" s="4" t="n"/>
+      <c r="M89" s="4" t="n"/>
+      <c r="N89" s="4" t="n"/>
+      <c r="O89" s="4" t="n"/>
+      <c r="P89" s="4" t="n"/>
+      <c r="Q89" s="4" t="n"/>
+      <c r="R89" s="4" t="n"/>
+      <c r="S89" s="4" t="n"/>
+      <c r="T89" s="4" t="n"/>
+      <c r="U89" s="4" t="n"/>
+      <c r="V89" s="4" t="n"/>
+      <c r="W89" s="4" t="n"/>
+      <c r="X89" s="4" t="n"/>
+      <c r="Y89" s="4" t="n"/>
+      <c r="Z89" s="4" t="n"/>
+      <c r="AA89" s="4" t="n"/>
+      <c r="AB89" s="4" t="n"/>
+      <c r="AC89" s="4" t="n"/>
+      <c r="AD89" s="4" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="n"/>
+      <c r="B90" s="4" t="n"/>
+      <c r="C90" s="4" t="n"/>
+      <c r="D90" s="4" t="n"/>
+      <c r="E90" s="4" t="n"/>
+      <c r="F90" s="4" t="n"/>
+      <c r="G90" s="4" t="n"/>
+      <c r="H90" s="4" t="n"/>
+      <c r="I90" s="4" t="n"/>
+      <c r="J90" s="4" t="n"/>
+      <c r="K90" s="4" t="n"/>
+      <c r="L90" s="4" t="n"/>
+      <c r="M90" s="4" t="n"/>
+      <c r="N90" s="4" t="n"/>
+      <c r="O90" s="4" t="n"/>
+      <c r="P90" s="4" t="n"/>
+      <c r="Q90" s="4" t="n"/>
+      <c r="R90" s="4" t="n"/>
+      <c r="S90" s="4" t="n"/>
+      <c r="T90" s="4" t="n"/>
+      <c r="U90" s="4" t="n"/>
+      <c r="V90" s="4" t="n"/>
+      <c r="W90" s="4" t="n"/>
+      <c r="X90" s="4" t="n"/>
+      <c r="Y90" s="4" t="n"/>
+      <c r="Z90" s="4" t="n"/>
+      <c r="AA90" s="4" t="n"/>
+      <c r="AB90" s="4" t="n"/>
+      <c r="AC90" s="4" t="n"/>
+      <c r="AD90" s="4" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="n"/>
+      <c r="B91" s="4" t="n"/>
+      <c r="C91" s="4" t="n"/>
+      <c r="D91" s="4" t="n"/>
+      <c r="E91" s="4" t="n"/>
+      <c r="F91" s="4" t="n"/>
+      <c r="G91" s="4" t="n"/>
+      <c r="H91" s="4" t="n"/>
+      <c r="I91" s="4" t="n"/>
+      <c r="J91" s="4" t="n"/>
+      <c r="K91" s="4" t="n"/>
+      <c r="L91" s="4" t="n"/>
+      <c r="M91" s="4" t="n"/>
+      <c r="N91" s="4" t="n"/>
+      <c r="O91" s="4" t="n"/>
+      <c r="P91" s="4" t="n"/>
+      <c r="Q91" s="4" t="n"/>
+      <c r="R91" s="4" t="n"/>
+      <c r="S91" s="4" t="n"/>
+      <c r="T91" s="4" t="n"/>
+      <c r="U91" s="4" t="n"/>
+      <c r="V91" s="4" t="n"/>
+      <c r="W91" s="4" t="n"/>
+      <c r="X91" s="4" t="n"/>
+      <c r="Y91" s="4" t="n"/>
+      <c r="Z91" s="4" t="n"/>
+      <c r="AA91" s="4" t="n"/>
+      <c r="AB91" s="4" t="n"/>
+      <c r="AC91" s="4" t="n"/>
+      <c r="AD91" s="4" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="n"/>
+      <c r="B92" s="4" t="n"/>
+      <c r="C92" s="4" t="n"/>
+      <c r="D92" s="4" t="n"/>
+      <c r="E92" s="4" t="n"/>
+      <c r="F92" s="4" t="n"/>
+      <c r="G92" s="4" t="n"/>
+      <c r="H92" s="4" t="n"/>
+      <c r="I92" s="4" t="n"/>
+      <c r="J92" s="4" t="n"/>
+      <c r="K92" s="4" t="n"/>
+      <c r="L92" s="4" t="n"/>
+      <c r="M92" s="4" t="n"/>
+      <c r="N92" s="4" t="n"/>
+      <c r="O92" s="4" t="n"/>
+      <c r="P92" s="4" t="n"/>
+      <c r="Q92" s="4" t="n"/>
+      <c r="R92" s="4" t="n"/>
+      <c r="S92" s="4" t="n"/>
+      <c r="T92" s="4" t="n"/>
+      <c r="U92" s="4" t="n"/>
+      <c r="V92" s="4" t="n"/>
+      <c r="W92" s="4" t="n"/>
+      <c r="X92" s="4" t="n"/>
+      <c r="Y92" s="4" t="n"/>
+      <c r="Z92" s="4" t="n"/>
+      <c r="AA92" s="4" t="n"/>
+      <c r="AB92" s="4" t="n"/>
+      <c r="AC92" s="4" t="n"/>
+      <c r="AD92" s="4" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="n"/>
+      <c r="B93" s="4" t="n"/>
+      <c r="C93" s="4" t="n"/>
+      <c r="D93" s="4" t="n"/>
+      <c r="E93" s="4" t="n"/>
+      <c r="F93" s="4" t="n"/>
+      <c r="G93" s="4" t="n"/>
+      <c r="H93" s="4" t="n"/>
+      <c r="I93" s="4" t="n"/>
+      <c r="J93" s="4" t="n"/>
+      <c r="K93" s="4" t="n"/>
+      <c r="L93" s="4" t="n"/>
+      <c r="M93" s="4" t="n"/>
+      <c r="N93" s="4" t="n"/>
+      <c r="O93" s="4" t="n"/>
+      <c r="P93" s="4" t="n"/>
+      <c r="Q93" s="4" t="n"/>
+      <c r="R93" s="4" t="n"/>
+      <c r="S93" s="4" t="n"/>
+      <c r="T93" s="4" t="n"/>
+      <c r="U93" s="4" t="n"/>
+      <c r="V93" s="4" t="n"/>
+      <c r="W93" s="4" t="n"/>
+      <c r="X93" s="4" t="n"/>
+      <c r="Y93" s="4" t="n"/>
+      <c r="Z93" s="4" t="n"/>
+      <c r="AA93" s="4" t="n"/>
+      <c r="AB93" s="4" t="n"/>
+      <c r="AC93" s="4" t="n"/>
+      <c r="AD93" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3125,7 +6325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD430"/>
+  <dimension ref="A1:AD480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4208,7 +7408,7 @@
       <c r="C30" s="7" t="n"/>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="E30" s="6" t="n"/>
@@ -5525,7 +8725,7 @@
       <c r="D64" s="7" t="n"/>
       <c r="E64" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="F64" s="5" t="n">
@@ -6332,7 +9532,7 @@
       <c r="E84" s="7" t="n"/>
       <c r="F84" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="G84" s="6" t="n"/>
@@ -6933,7 +10133,7 @@
       <c r="B99" s="7" t="n"/>
       <c r="C99" s="5" t="inlineStr">
         <is>
-          <t>FormatDistributor</t>
+          <t>formatDistributor</t>
         </is>
       </c>
       <c r="D99" s="5" t="inlineStr">
@@ -7288,7 +10488,7 @@
       <c r="E108" s="7" t="n"/>
       <c r="F108" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="G108" s="6" t="n"/>
@@ -8211,7 +11411,7 @@
       </c>
       <c r="G130" s="6" t="inlineStr">
         <is>
-          <t>[{"individualName": null, "organisationName": null, "positionName": null, "contactInfo": {"phone": {"voice": null, "facsimile": null}, "address": {"deliveryPoint": null, "city": null, "postalCode": null, "country": null, "elctronicMailAddress": null}, "onlineResource": {"linkage": null, "name": null, "description": null, "protocol": null, "function": null}}, "role": null}]</t>
+          <t>[{"individualName": null, "organisationName": null, "positionName": null, "contactInfo": {"phone": {"voice": null, "facsimile": null}, "address": {"deliveryPoint": null, "city": null, "postalCode": null, "country": null, "electronicMailAddress": null}, "onlineResource": {"linkage": null, "name": null, "description": null, "protocol": null, "function": null}}, "role": null}]</t>
         </is>
       </c>
       <c r="H130" s="6" t="n"/>
@@ -9330,7 +12530,7 @@
       <c r="E157" s="7" t="n"/>
       <c r="F157" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="G157" s="6" t="n"/>
@@ -13477,7 +16677,7 @@
       <c r="B259" s="7" t="n"/>
       <c r="C259" s="5" t="inlineStr">
         <is>
-          <t>FormatDistributor</t>
+          <t>formatDistributor</t>
         </is>
       </c>
       <c r="D259" s="5" t="inlineStr">
@@ -13832,7 +17032,7 @@
       <c r="E268" s="7" t="n"/>
       <c r="F268" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="G268" s="6" t="n"/>
@@ -14503,7 +17703,7 @@
       <c r="D285" s="7" t="n"/>
       <c r="E285" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="F285" s="5" t="n">
@@ -16203,7 +19403,7 @@
       <c r="D328" s="7" t="n"/>
       <c r="E328" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="F328" s="6" t="n"/>
@@ -16781,7 +19981,7 @@
       </c>
       <c r="E343" s="6" t="inlineStr">
         <is>
-          <t>[{"individualName": null, "organisationName": null, "positionName": null, "contactInfo": {"phone": {"voice": null, "facsimile": null}, "address": {"deliveryPoint": null, "city": null, "postalCode": null, "country": null, "elctronicMailAddress": null}, "onlineResource": {"linkage": null, "name": null, "description": null, "protocol": null, "function": null}}, "role": null}]</t>
+          <t>[{"individualName": null, "organisationName": null, "positionName": null, "contactInfo": {"phone": {"voice": null, "facsimile": null}, "address": {"deliveryPoint": null, "city": null, "postalCode": null, "country": null, "electronicMailAddress": null}, "onlineResource": {"linkage": null, "name": null, "description": null, "protocol": null, "function": null}}, "role": null}]</t>
         </is>
       </c>
       <c r="F343" s="6" t="n"/>
@@ -17436,7 +20636,7 @@
       </c>
       <c r="D360" s="6" t="inlineStr">
         <is>
-          <t>[{"individualName": null, "organisationName": null, "positionName": null, "contactInfo": {"phone": {"voice": null, "facsimile": null}, "address": {"deliveryPoint": null, "city": null, "postalCode": null, "country": null, "elctronicMailAddress": null}, "onlineResource": {"linkage": null, "name": null, "description": null, "protocol": null, "function": null}}, "role": null}]</t>
+          <t>[{"individualName": null, "organisationName": null, "positionName": null, "contactInfo": {"phone": {"voice": null, "facsimile": null}, "address": {"deliveryPoint": null, "city": null, "postalCode": null, "country": null, "electronicMailAddress": null}, "onlineResource": {"linkage": null, "name": null, "description": null, "protocol": null, "function": null}}, "role": null}]</t>
         </is>
       </c>
       <c r="E360" s="6" t="n"/>
@@ -18745,7 +21945,7 @@
       <c r="D393" s="7" t="n"/>
       <c r="E393" s="5" t="inlineStr">
         <is>
-          <t>elctronicMailAddress</t>
+          <t>electronicMailAddress</t>
         </is>
       </c>
       <c r="F393" s="6" t="n"/>
@@ -19990,6 +23190,1606 @@
       <c r="AC430" s="4" t="n"/>
       <c r="AD430" s="4" t="n"/>
     </row>
+    <row r="431">
+      <c r="A431" s="4" t="n"/>
+      <c r="B431" s="4" t="n"/>
+      <c r="C431" s="4" t="n"/>
+      <c r="D431" s="4" t="n"/>
+      <c r="E431" s="4" t="n"/>
+      <c r="F431" s="4" t="n"/>
+      <c r="G431" s="4" t="n"/>
+      <c r="H431" s="4" t="n"/>
+      <c r="I431" s="4" t="n"/>
+      <c r="J431" s="4" t="n"/>
+      <c r="K431" s="4" t="n"/>
+      <c r="L431" s="4" t="n"/>
+      <c r="M431" s="4" t="n"/>
+      <c r="N431" s="4" t="n"/>
+      <c r="O431" s="4" t="n"/>
+      <c r="P431" s="4" t="n"/>
+      <c r="Q431" s="4" t="n"/>
+      <c r="R431" s="4" t="n"/>
+      <c r="S431" s="4" t="n"/>
+      <c r="T431" s="4" t="n"/>
+      <c r="U431" s="4" t="n"/>
+      <c r="V431" s="4" t="n"/>
+      <c r="W431" s="4" t="n"/>
+      <c r="X431" s="4" t="n"/>
+      <c r="Y431" s="4" t="n"/>
+      <c r="Z431" s="4" t="n"/>
+      <c r="AA431" s="4" t="n"/>
+      <c r="AB431" s="4" t="n"/>
+      <c r="AC431" s="4" t="n"/>
+      <c r="AD431" s="4" t="n"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="4" t="n"/>
+      <c r="B432" s="4" t="n"/>
+      <c r="C432" s="4" t="n"/>
+      <c r="D432" s="4" t="n"/>
+      <c r="E432" s="4" t="n"/>
+      <c r="F432" s="4" t="n"/>
+      <c r="G432" s="4" t="n"/>
+      <c r="H432" s="4" t="n"/>
+      <c r="I432" s="4" t="n"/>
+      <c r="J432" s="4" t="n"/>
+      <c r="K432" s="4" t="n"/>
+      <c r="L432" s="4" t="n"/>
+      <c r="M432" s="4" t="n"/>
+      <c r="N432" s="4" t="n"/>
+      <c r="O432" s="4" t="n"/>
+      <c r="P432" s="4" t="n"/>
+      <c r="Q432" s="4" t="n"/>
+      <c r="R432" s="4" t="n"/>
+      <c r="S432" s="4" t="n"/>
+      <c r="T432" s="4" t="n"/>
+      <c r="U432" s="4" t="n"/>
+      <c r="V432" s="4" t="n"/>
+      <c r="W432" s="4" t="n"/>
+      <c r="X432" s="4" t="n"/>
+      <c r="Y432" s="4" t="n"/>
+      <c r="Z432" s="4" t="n"/>
+      <c r="AA432" s="4" t="n"/>
+      <c r="AB432" s="4" t="n"/>
+      <c r="AC432" s="4" t="n"/>
+      <c r="AD432" s="4" t="n"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="4" t="n"/>
+      <c r="B433" s="4" t="n"/>
+      <c r="C433" s="4" t="n"/>
+      <c r="D433" s="4" t="n"/>
+      <c r="E433" s="4" t="n"/>
+      <c r="F433" s="4" t="n"/>
+      <c r="G433" s="4" t="n"/>
+      <c r="H433" s="4" t="n"/>
+      <c r="I433" s="4" t="n"/>
+      <c r="J433" s="4" t="n"/>
+      <c r="K433" s="4" t="n"/>
+      <c r="L433" s="4" t="n"/>
+      <c r="M433" s="4" t="n"/>
+      <c r="N433" s="4" t="n"/>
+      <c r="O433" s="4" t="n"/>
+      <c r="P433" s="4" t="n"/>
+      <c r="Q433" s="4" t="n"/>
+      <c r="R433" s="4" t="n"/>
+      <c r="S433" s="4" t="n"/>
+      <c r="T433" s="4" t="n"/>
+      <c r="U433" s="4" t="n"/>
+      <c r="V433" s="4" t="n"/>
+      <c r="W433" s="4" t="n"/>
+      <c r="X433" s="4" t="n"/>
+      <c r="Y433" s="4" t="n"/>
+      <c r="Z433" s="4" t="n"/>
+      <c r="AA433" s="4" t="n"/>
+      <c r="AB433" s="4" t="n"/>
+      <c r="AC433" s="4" t="n"/>
+      <c r="AD433" s="4" t="n"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="4" t="n"/>
+      <c r="B434" s="4" t="n"/>
+      <c r="C434" s="4" t="n"/>
+      <c r="D434" s="4" t="n"/>
+      <c r="E434" s="4" t="n"/>
+      <c r="F434" s="4" t="n"/>
+      <c r="G434" s="4" t="n"/>
+      <c r="H434" s="4" t="n"/>
+      <c r="I434" s="4" t="n"/>
+      <c r="J434" s="4" t="n"/>
+      <c r="K434" s="4" t="n"/>
+      <c r="L434" s="4" t="n"/>
+      <c r="M434" s="4" t="n"/>
+      <c r="N434" s="4" t="n"/>
+      <c r="O434" s="4" t="n"/>
+      <c r="P434" s="4" t="n"/>
+      <c r="Q434" s="4" t="n"/>
+      <c r="R434" s="4" t="n"/>
+      <c r="S434" s="4" t="n"/>
+      <c r="T434" s="4" t="n"/>
+      <c r="U434" s="4" t="n"/>
+      <c r="V434" s="4" t="n"/>
+      <c r="W434" s="4" t="n"/>
+      <c r="X434" s="4" t="n"/>
+      <c r="Y434" s="4" t="n"/>
+      <c r="Z434" s="4" t="n"/>
+      <c r="AA434" s="4" t="n"/>
+      <c r="AB434" s="4" t="n"/>
+      <c r="AC434" s="4" t="n"/>
+      <c r="AD434" s="4" t="n"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="4" t="n"/>
+      <c r="B435" s="4" t="n"/>
+      <c r="C435" s="4" t="n"/>
+      <c r="D435" s="4" t="n"/>
+      <c r="E435" s="4" t="n"/>
+      <c r="F435" s="4" t="n"/>
+      <c r="G435" s="4" t="n"/>
+      <c r="H435" s="4" t="n"/>
+      <c r="I435" s="4" t="n"/>
+      <c r="J435" s="4" t="n"/>
+      <c r="K435" s="4" t="n"/>
+      <c r="L435" s="4" t="n"/>
+      <c r="M435" s="4" t="n"/>
+      <c r="N435" s="4" t="n"/>
+      <c r="O435" s="4" t="n"/>
+      <c r="P435" s="4" t="n"/>
+      <c r="Q435" s="4" t="n"/>
+      <c r="R435" s="4" t="n"/>
+      <c r="S435" s="4" t="n"/>
+      <c r="T435" s="4" t="n"/>
+      <c r="U435" s="4" t="n"/>
+      <c r="V435" s="4" t="n"/>
+      <c r="W435" s="4" t="n"/>
+      <c r="X435" s="4" t="n"/>
+      <c r="Y435" s="4" t="n"/>
+      <c r="Z435" s="4" t="n"/>
+      <c r="AA435" s="4" t="n"/>
+      <c r="AB435" s="4" t="n"/>
+      <c r="AC435" s="4" t="n"/>
+      <c r="AD435" s="4" t="n"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="4" t="n"/>
+      <c r="B436" s="4" t="n"/>
+      <c r="C436" s="4" t="n"/>
+      <c r="D436" s="4" t="n"/>
+      <c r="E436" s="4" t="n"/>
+      <c r="F436" s="4" t="n"/>
+      <c r="G436" s="4" t="n"/>
+      <c r="H436" s="4" t="n"/>
+      <c r="I436" s="4" t="n"/>
+      <c r="J436" s="4" t="n"/>
+      <c r="K436" s="4" t="n"/>
+      <c r="L436" s="4" t="n"/>
+      <c r="M436" s="4" t="n"/>
+      <c r="N436" s="4" t="n"/>
+      <c r="O436" s="4" t="n"/>
+      <c r="P436" s="4" t="n"/>
+      <c r="Q436" s="4" t="n"/>
+      <c r="R436" s="4" t="n"/>
+      <c r="S436" s="4" t="n"/>
+      <c r="T436" s="4" t="n"/>
+      <c r="U436" s="4" t="n"/>
+      <c r="V436" s="4" t="n"/>
+      <c r="W436" s="4" t="n"/>
+      <c r="X436" s="4" t="n"/>
+      <c r="Y436" s="4" t="n"/>
+      <c r="Z436" s="4" t="n"/>
+      <c r="AA436" s="4" t="n"/>
+      <c r="AB436" s="4" t="n"/>
+      <c r="AC436" s="4" t="n"/>
+      <c r="AD436" s="4" t="n"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="4" t="n"/>
+      <c r="B437" s="4" t="n"/>
+      <c r="C437" s="4" t="n"/>
+      <c r="D437" s="4" t="n"/>
+      <c r="E437" s="4" t="n"/>
+      <c r="F437" s="4" t="n"/>
+      <c r="G437" s="4" t="n"/>
+      <c r="H437" s="4" t="n"/>
+      <c r="I437" s="4" t="n"/>
+      <c r="J437" s="4" t="n"/>
+      <c r="K437" s="4" t="n"/>
+      <c r="L437" s="4" t="n"/>
+      <c r="M437" s="4" t="n"/>
+      <c r="N437" s="4" t="n"/>
+      <c r="O437" s="4" t="n"/>
+      <c r="P437" s="4" t="n"/>
+      <c r="Q437" s="4" t="n"/>
+      <c r="R437" s="4" t="n"/>
+      <c r="S437" s="4" t="n"/>
+      <c r="T437" s="4" t="n"/>
+      <c r="U437" s="4" t="n"/>
+      <c r="V437" s="4" t="n"/>
+      <c r="W437" s="4" t="n"/>
+      <c r="X437" s="4" t="n"/>
+      <c r="Y437" s="4" t="n"/>
+      <c r="Z437" s="4" t="n"/>
+      <c r="AA437" s="4" t="n"/>
+      <c r="AB437" s="4" t="n"/>
+      <c r="AC437" s="4" t="n"/>
+      <c r="AD437" s="4" t="n"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="4" t="n"/>
+      <c r="B438" s="4" t="n"/>
+      <c r="C438" s="4" t="n"/>
+      <c r="D438" s="4" t="n"/>
+      <c r="E438" s="4" t="n"/>
+      <c r="F438" s="4" t="n"/>
+      <c r="G438" s="4" t="n"/>
+      <c r="H438" s="4" t="n"/>
+      <c r="I438" s="4" t="n"/>
+      <c r="J438" s="4" t="n"/>
+      <c r="K438" s="4" t="n"/>
+      <c r="L438" s="4" t="n"/>
+      <c r="M438" s="4" t="n"/>
+      <c r="N438" s="4" t="n"/>
+      <c r="O438" s="4" t="n"/>
+      <c r="P438" s="4" t="n"/>
+      <c r="Q438" s="4" t="n"/>
+      <c r="R438" s="4" t="n"/>
+      <c r="S438" s="4" t="n"/>
+      <c r="T438" s="4" t="n"/>
+      <c r="U438" s="4" t="n"/>
+      <c r="V438" s="4" t="n"/>
+      <c r="W438" s="4" t="n"/>
+      <c r="X438" s="4" t="n"/>
+      <c r="Y438" s="4" t="n"/>
+      <c r="Z438" s="4" t="n"/>
+      <c r="AA438" s="4" t="n"/>
+      <c r="AB438" s="4" t="n"/>
+      <c r="AC438" s="4" t="n"/>
+      <c r="AD438" s="4" t="n"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="4" t="n"/>
+      <c r="B439" s="4" t="n"/>
+      <c r="C439" s="4" t="n"/>
+      <c r="D439" s="4" t="n"/>
+      <c r="E439" s="4" t="n"/>
+      <c r="F439" s="4" t="n"/>
+      <c r="G439" s="4" t="n"/>
+      <c r="H439" s="4" t="n"/>
+      <c r="I439" s="4" t="n"/>
+      <c r="J439" s="4" t="n"/>
+      <c r="K439" s="4" t="n"/>
+      <c r="L439" s="4" t="n"/>
+      <c r="M439" s="4" t="n"/>
+      <c r="N439" s="4" t="n"/>
+      <c r="O439" s="4" t="n"/>
+      <c r="P439" s="4" t="n"/>
+      <c r="Q439" s="4" t="n"/>
+      <c r="R439" s="4" t="n"/>
+      <c r="S439" s="4" t="n"/>
+      <c r="T439" s="4" t="n"/>
+      <c r="U439" s="4" t="n"/>
+      <c r="V439" s="4" t="n"/>
+      <c r="W439" s="4" t="n"/>
+      <c r="X439" s="4" t="n"/>
+      <c r="Y439" s="4" t="n"/>
+      <c r="Z439" s="4" t="n"/>
+      <c r="AA439" s="4" t="n"/>
+      <c r="AB439" s="4" t="n"/>
+      <c r="AC439" s="4" t="n"/>
+      <c r="AD439" s="4" t="n"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="4" t="n"/>
+      <c r="B440" s="4" t="n"/>
+      <c r="C440" s="4" t="n"/>
+      <c r="D440" s="4" t="n"/>
+      <c r="E440" s="4" t="n"/>
+      <c r="F440" s="4" t="n"/>
+      <c r="G440" s="4" t="n"/>
+      <c r="H440" s="4" t="n"/>
+      <c r="I440" s="4" t="n"/>
+      <c r="J440" s="4" t="n"/>
+      <c r="K440" s="4" t="n"/>
+      <c r="L440" s="4" t="n"/>
+      <c r="M440" s="4" t="n"/>
+      <c r="N440" s="4" t="n"/>
+      <c r="O440" s="4" t="n"/>
+      <c r="P440" s="4" t="n"/>
+      <c r="Q440" s="4" t="n"/>
+      <c r="R440" s="4" t="n"/>
+      <c r="S440" s="4" t="n"/>
+      <c r="T440" s="4" t="n"/>
+      <c r="U440" s="4" t="n"/>
+      <c r="V440" s="4" t="n"/>
+      <c r="W440" s="4" t="n"/>
+      <c r="X440" s="4" t="n"/>
+      <c r="Y440" s="4" t="n"/>
+      <c r="Z440" s="4" t="n"/>
+      <c r="AA440" s="4" t="n"/>
+      <c r="AB440" s="4" t="n"/>
+      <c r="AC440" s="4" t="n"/>
+      <c r="AD440" s="4" t="n"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="4" t="n"/>
+      <c r="B441" s="4" t="n"/>
+      <c r="C441" s="4" t="n"/>
+      <c r="D441" s="4" t="n"/>
+      <c r="E441" s="4" t="n"/>
+      <c r="F441" s="4" t="n"/>
+      <c r="G441" s="4" t="n"/>
+      <c r="H441" s="4" t="n"/>
+      <c r="I441" s="4" t="n"/>
+      <c r="J441" s="4" t="n"/>
+      <c r="K441" s="4" t="n"/>
+      <c r="L441" s="4" t="n"/>
+      <c r="M441" s="4" t="n"/>
+      <c r="N441" s="4" t="n"/>
+      <c r="O441" s="4" t="n"/>
+      <c r="P441" s="4" t="n"/>
+      <c r="Q441" s="4" t="n"/>
+      <c r="R441" s="4" t="n"/>
+      <c r="S441" s="4" t="n"/>
+      <c r="T441" s="4" t="n"/>
+      <c r="U441" s="4" t="n"/>
+      <c r="V441" s="4" t="n"/>
+      <c r="W441" s="4" t="n"/>
+      <c r="X441" s="4" t="n"/>
+      <c r="Y441" s="4" t="n"/>
+      <c r="Z441" s="4" t="n"/>
+      <c r="AA441" s="4" t="n"/>
+      <c r="AB441" s="4" t="n"/>
+      <c r="AC441" s="4" t="n"/>
+      <c r="AD441" s="4" t="n"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="4" t="n"/>
+      <c r="B442" s="4" t="n"/>
+      <c r="C442" s="4" t="n"/>
+      <c r="D442" s="4" t="n"/>
+      <c r="E442" s="4" t="n"/>
+      <c r="F442" s="4" t="n"/>
+      <c r="G442" s="4" t="n"/>
+      <c r="H442" s="4" t="n"/>
+      <c r="I442" s="4" t="n"/>
+      <c r="J442" s="4" t="n"/>
+      <c r="K442" s="4" t="n"/>
+      <c r="L442" s="4" t="n"/>
+      <c r="M442" s="4" t="n"/>
+      <c r="N442" s="4" t="n"/>
+      <c r="O442" s="4" t="n"/>
+      <c r="P442" s="4" t="n"/>
+      <c r="Q442" s="4" t="n"/>
+      <c r="R442" s="4" t="n"/>
+      <c r="S442" s="4" t="n"/>
+      <c r="T442" s="4" t="n"/>
+      <c r="U442" s="4" t="n"/>
+      <c r="V442" s="4" t="n"/>
+      <c r="W442" s="4" t="n"/>
+      <c r="X442" s="4" t="n"/>
+      <c r="Y442" s="4" t="n"/>
+      <c r="Z442" s="4" t="n"/>
+      <c r="AA442" s="4" t="n"/>
+      <c r="AB442" s="4" t="n"/>
+      <c r="AC442" s="4" t="n"/>
+      <c r="AD442" s="4" t="n"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="4" t="n"/>
+      <c r="B443" s="4" t="n"/>
+      <c r="C443" s="4" t="n"/>
+      <c r="D443" s="4" t="n"/>
+      <c r="E443" s="4" t="n"/>
+      <c r="F443" s="4" t="n"/>
+      <c r="G443" s="4" t="n"/>
+      <c r="H443" s="4" t="n"/>
+      <c r="I443" s="4" t="n"/>
+      <c r="J443" s="4" t="n"/>
+      <c r="K443" s="4" t="n"/>
+      <c r="L443" s="4" t="n"/>
+      <c r="M443" s="4" t="n"/>
+      <c r="N443" s="4" t="n"/>
+      <c r="O443" s="4" t="n"/>
+      <c r="P443" s="4" t="n"/>
+      <c r="Q443" s="4" t="n"/>
+      <c r="R443" s="4" t="n"/>
+      <c r="S443" s="4" t="n"/>
+      <c r="T443" s="4" t="n"/>
+      <c r="U443" s="4" t="n"/>
+      <c r="V443" s="4" t="n"/>
+      <c r="W443" s="4" t="n"/>
+      <c r="X443" s="4" t="n"/>
+      <c r="Y443" s="4" t="n"/>
+      <c r="Z443" s="4" t="n"/>
+      <c r="AA443" s="4" t="n"/>
+      <c r="AB443" s="4" t="n"/>
+      <c r="AC443" s="4" t="n"/>
+      <c r="AD443" s="4" t="n"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="4" t="n"/>
+      <c r="B444" s="4" t="n"/>
+      <c r="C444" s="4" t="n"/>
+      <c r="D444" s="4" t="n"/>
+      <c r="E444" s="4" t="n"/>
+      <c r="F444" s="4" t="n"/>
+      <c r="G444" s="4" t="n"/>
+      <c r="H444" s="4" t="n"/>
+      <c r="I444" s="4" t="n"/>
+      <c r="J444" s="4" t="n"/>
+      <c r="K444" s="4" t="n"/>
+      <c r="L444" s="4" t="n"/>
+      <c r="M444" s="4" t="n"/>
+      <c r="N444" s="4" t="n"/>
+      <c r="O444" s="4" t="n"/>
+      <c r="P444" s="4" t="n"/>
+      <c r="Q444" s="4" t="n"/>
+      <c r="R444" s="4" t="n"/>
+      <c r="S444" s="4" t="n"/>
+      <c r="T444" s="4" t="n"/>
+      <c r="U444" s="4" t="n"/>
+      <c r="V444" s="4" t="n"/>
+      <c r="W444" s="4" t="n"/>
+      <c r="X444" s="4" t="n"/>
+      <c r="Y444" s="4" t="n"/>
+      <c r="Z444" s="4" t="n"/>
+      <c r="AA444" s="4" t="n"/>
+      <c r="AB444" s="4" t="n"/>
+      <c r="AC444" s="4" t="n"/>
+      <c r="AD444" s="4" t="n"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="4" t="n"/>
+      <c r="B445" s="4" t="n"/>
+      <c r="C445" s="4" t="n"/>
+      <c r="D445" s="4" t="n"/>
+      <c r="E445" s="4" t="n"/>
+      <c r="F445" s="4" t="n"/>
+      <c r="G445" s="4" t="n"/>
+      <c r="H445" s="4" t="n"/>
+      <c r="I445" s="4" t="n"/>
+      <c r="J445" s="4" t="n"/>
+      <c r="K445" s="4" t="n"/>
+      <c r="L445" s="4" t="n"/>
+      <c r="M445" s="4" t="n"/>
+      <c r="N445" s="4" t="n"/>
+      <c r="O445" s="4" t="n"/>
+      <c r="P445" s="4" t="n"/>
+      <c r="Q445" s="4" t="n"/>
+      <c r="R445" s="4" t="n"/>
+      <c r="S445" s="4" t="n"/>
+      <c r="T445" s="4" t="n"/>
+      <c r="U445" s="4" t="n"/>
+      <c r="V445" s="4" t="n"/>
+      <c r="W445" s="4" t="n"/>
+      <c r="X445" s="4" t="n"/>
+      <c r="Y445" s="4" t="n"/>
+      <c r="Z445" s="4" t="n"/>
+      <c r="AA445" s="4" t="n"/>
+      <c r="AB445" s="4" t="n"/>
+      <c r="AC445" s="4" t="n"/>
+      <c r="AD445" s="4" t="n"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="4" t="n"/>
+      <c r="B446" s="4" t="n"/>
+      <c r="C446" s="4" t="n"/>
+      <c r="D446" s="4" t="n"/>
+      <c r="E446" s="4" t="n"/>
+      <c r="F446" s="4" t="n"/>
+      <c r="G446" s="4" t="n"/>
+      <c r="H446" s="4" t="n"/>
+      <c r="I446" s="4" t="n"/>
+      <c r="J446" s="4" t="n"/>
+      <c r="K446" s="4" t="n"/>
+      <c r="L446" s="4" t="n"/>
+      <c r="M446" s="4" t="n"/>
+      <c r="N446" s="4" t="n"/>
+      <c r="O446" s="4" t="n"/>
+      <c r="P446" s="4" t="n"/>
+      <c r="Q446" s="4" t="n"/>
+      <c r="R446" s="4" t="n"/>
+      <c r="S446" s="4" t="n"/>
+      <c r="T446" s="4" t="n"/>
+      <c r="U446" s="4" t="n"/>
+      <c r="V446" s="4" t="n"/>
+      <c r="W446" s="4" t="n"/>
+      <c r="X446" s="4" t="n"/>
+      <c r="Y446" s="4" t="n"/>
+      <c r="Z446" s="4" t="n"/>
+      <c r="AA446" s="4" t="n"/>
+      <c r="AB446" s="4" t="n"/>
+      <c r="AC446" s="4" t="n"/>
+      <c r="AD446" s="4" t="n"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="4" t="n"/>
+      <c r="B447" s="4" t="n"/>
+      <c r="C447" s="4" t="n"/>
+      <c r="D447" s="4" t="n"/>
+      <c r="E447" s="4" t="n"/>
+      <c r="F447" s="4" t="n"/>
+      <c r="G447" s="4" t="n"/>
+      <c r="H447" s="4" t="n"/>
+      <c r="I447" s="4" t="n"/>
+      <c r="J447" s="4" t="n"/>
+      <c r="K447" s="4" t="n"/>
+      <c r="L447" s="4" t="n"/>
+      <c r="M447" s="4" t="n"/>
+      <c r="N447" s="4" t="n"/>
+      <c r="O447" s="4" t="n"/>
+      <c r="P447" s="4" t="n"/>
+      <c r="Q447" s="4" t="n"/>
+      <c r="R447" s="4" t="n"/>
+      <c r="S447" s="4" t="n"/>
+      <c r="T447" s="4" t="n"/>
+      <c r="U447" s="4" t="n"/>
+      <c r="V447" s="4" t="n"/>
+      <c r="W447" s="4" t="n"/>
+      <c r="X447" s="4" t="n"/>
+      <c r="Y447" s="4" t="n"/>
+      <c r="Z447" s="4" t="n"/>
+      <c r="AA447" s="4" t="n"/>
+      <c r="AB447" s="4" t="n"/>
+      <c r="AC447" s="4" t="n"/>
+      <c r="AD447" s="4" t="n"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="4" t="n"/>
+      <c r="B448" s="4" t="n"/>
+      <c r="C448" s="4" t="n"/>
+      <c r="D448" s="4" t="n"/>
+      <c r="E448" s="4" t="n"/>
+      <c r="F448" s="4" t="n"/>
+      <c r="G448" s="4" t="n"/>
+      <c r="H448" s="4" t="n"/>
+      <c r="I448" s="4" t="n"/>
+      <c r="J448" s="4" t="n"/>
+      <c r="K448" s="4" t="n"/>
+      <c r="L448" s="4" t="n"/>
+      <c r="M448" s="4" t="n"/>
+      <c r="N448" s="4" t="n"/>
+      <c r="O448" s="4" t="n"/>
+      <c r="P448" s="4" t="n"/>
+      <c r="Q448" s="4" t="n"/>
+      <c r="R448" s="4" t="n"/>
+      <c r="S448" s="4" t="n"/>
+      <c r="T448" s="4" t="n"/>
+      <c r="U448" s="4" t="n"/>
+      <c r="V448" s="4" t="n"/>
+      <c r="W448" s="4" t="n"/>
+      <c r="X448" s="4" t="n"/>
+      <c r="Y448" s="4" t="n"/>
+      <c r="Z448" s="4" t="n"/>
+      <c r="AA448" s="4" t="n"/>
+      <c r="AB448" s="4" t="n"/>
+      <c r="AC448" s="4" t="n"/>
+      <c r="AD448" s="4" t="n"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="4" t="n"/>
+      <c r="B449" s="4" t="n"/>
+      <c r="C449" s="4" t="n"/>
+      <c r="D449" s="4" t="n"/>
+      <c r="E449" s="4" t="n"/>
+      <c r="F449" s="4" t="n"/>
+      <c r="G449" s="4" t="n"/>
+      <c r="H449" s="4" t="n"/>
+      <c r="I449" s="4" t="n"/>
+      <c r="J449" s="4" t="n"/>
+      <c r="K449" s="4" t="n"/>
+      <c r="L449" s="4" t="n"/>
+      <c r="M449" s="4" t="n"/>
+      <c r="N449" s="4" t="n"/>
+      <c r="O449" s="4" t="n"/>
+      <c r="P449" s="4" t="n"/>
+      <c r="Q449" s="4" t="n"/>
+      <c r="R449" s="4" t="n"/>
+      <c r="S449" s="4" t="n"/>
+      <c r="T449" s="4" t="n"/>
+      <c r="U449" s="4" t="n"/>
+      <c r="V449" s="4" t="n"/>
+      <c r="W449" s="4" t="n"/>
+      <c r="X449" s="4" t="n"/>
+      <c r="Y449" s="4" t="n"/>
+      <c r="Z449" s="4" t="n"/>
+      <c r="AA449" s="4" t="n"/>
+      <c r="AB449" s="4" t="n"/>
+      <c r="AC449" s="4" t="n"/>
+      <c r="AD449" s="4" t="n"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="4" t="n"/>
+      <c r="B450" s="4" t="n"/>
+      <c r="C450" s="4" t="n"/>
+      <c r="D450" s="4" t="n"/>
+      <c r="E450" s="4" t="n"/>
+      <c r="F450" s="4" t="n"/>
+      <c r="G450" s="4" t="n"/>
+      <c r="H450" s="4" t="n"/>
+      <c r="I450" s="4" t="n"/>
+      <c r="J450" s="4" t="n"/>
+      <c r="K450" s="4" t="n"/>
+      <c r="L450" s="4" t="n"/>
+      <c r="M450" s="4" t="n"/>
+      <c r="N450" s="4" t="n"/>
+      <c r="O450" s="4" t="n"/>
+      <c r="P450" s="4" t="n"/>
+      <c r="Q450" s="4" t="n"/>
+      <c r="R450" s="4" t="n"/>
+      <c r="S450" s="4" t="n"/>
+      <c r="T450" s="4" t="n"/>
+      <c r="U450" s="4" t="n"/>
+      <c r="V450" s="4" t="n"/>
+      <c r="W450" s="4" t="n"/>
+      <c r="X450" s="4" t="n"/>
+      <c r="Y450" s="4" t="n"/>
+      <c r="Z450" s="4" t="n"/>
+      <c r="AA450" s="4" t="n"/>
+      <c r="AB450" s="4" t="n"/>
+      <c r="AC450" s="4" t="n"/>
+      <c r="AD450" s="4" t="n"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="4" t="n"/>
+      <c r="B451" s="4" t="n"/>
+      <c r="C451" s="4" t="n"/>
+      <c r="D451" s="4" t="n"/>
+      <c r="E451" s="4" t="n"/>
+      <c r="F451" s="4" t="n"/>
+      <c r="G451" s="4" t="n"/>
+      <c r="H451" s="4" t="n"/>
+      <c r="I451" s="4" t="n"/>
+      <c r="J451" s="4" t="n"/>
+      <c r="K451" s="4" t="n"/>
+      <c r="L451" s="4" t="n"/>
+      <c r="M451" s="4" t="n"/>
+      <c r="N451" s="4" t="n"/>
+      <c r="O451" s="4" t="n"/>
+      <c r="P451" s="4" t="n"/>
+      <c r="Q451" s="4" t="n"/>
+      <c r="R451" s="4" t="n"/>
+      <c r="S451" s="4" t="n"/>
+      <c r="T451" s="4" t="n"/>
+      <c r="U451" s="4" t="n"/>
+      <c r="V451" s="4" t="n"/>
+      <c r="W451" s="4" t="n"/>
+      <c r="X451" s="4" t="n"/>
+      <c r="Y451" s="4" t="n"/>
+      <c r="Z451" s="4" t="n"/>
+      <c r="AA451" s="4" t="n"/>
+      <c r="AB451" s="4" t="n"/>
+      <c r="AC451" s="4" t="n"/>
+      <c r="AD451" s="4" t="n"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="4" t="n"/>
+      <c r="B452" s="4" t="n"/>
+      <c r="C452" s="4" t="n"/>
+      <c r="D452" s="4" t="n"/>
+      <c r="E452" s="4" t="n"/>
+      <c r="F452" s="4" t="n"/>
+      <c r="G452" s="4" t="n"/>
+      <c r="H452" s="4" t="n"/>
+      <c r="I452" s="4" t="n"/>
+      <c r="J452" s="4" t="n"/>
+      <c r="K452" s="4" t="n"/>
+      <c r="L452" s="4" t="n"/>
+      <c r="M452" s="4" t="n"/>
+      <c r="N452" s="4" t="n"/>
+      <c r="O452" s="4" t="n"/>
+      <c r="P452" s="4" t="n"/>
+      <c r="Q452" s="4" t="n"/>
+      <c r="R452" s="4" t="n"/>
+      <c r="S452" s="4" t="n"/>
+      <c r="T452" s="4" t="n"/>
+      <c r="U452" s="4" t="n"/>
+      <c r="V452" s="4" t="n"/>
+      <c r="W452" s="4" t="n"/>
+      <c r="X452" s="4" t="n"/>
+      <c r="Y452" s="4" t="n"/>
+      <c r="Z452" s="4" t="n"/>
+      <c r="AA452" s="4" t="n"/>
+      <c r="AB452" s="4" t="n"/>
+      <c r="AC452" s="4" t="n"/>
+      <c r="AD452" s="4" t="n"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="4" t="n"/>
+      <c r="B453" s="4" t="n"/>
+      <c r="C453" s="4" t="n"/>
+      <c r="D453" s="4" t="n"/>
+      <c r="E453" s="4" t="n"/>
+      <c r="F453" s="4" t="n"/>
+      <c r="G453" s="4" t="n"/>
+      <c r="H453" s="4" t="n"/>
+      <c r="I453" s="4" t="n"/>
+      <c r="J453" s="4" t="n"/>
+      <c r="K453" s="4" t="n"/>
+      <c r="L453" s="4" t="n"/>
+      <c r="M453" s="4" t="n"/>
+      <c r="N453" s="4" t="n"/>
+      <c r="O453" s="4" t="n"/>
+      <c r="P453" s="4" t="n"/>
+      <c r="Q453" s="4" t="n"/>
+      <c r="R453" s="4" t="n"/>
+      <c r="S453" s="4" t="n"/>
+      <c r="T453" s="4" t="n"/>
+      <c r="U453" s="4" t="n"/>
+      <c r="V453" s="4" t="n"/>
+      <c r="W453" s="4" t="n"/>
+      <c r="X453" s="4" t="n"/>
+      <c r="Y453" s="4" t="n"/>
+      <c r="Z453" s="4" t="n"/>
+      <c r="AA453" s="4" t="n"/>
+      <c r="AB453" s="4" t="n"/>
+      <c r="AC453" s="4" t="n"/>
+      <c r="AD453" s="4" t="n"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="4" t="n"/>
+      <c r="B454" s="4" t="n"/>
+      <c r="C454" s="4" t="n"/>
+      <c r="D454" s="4" t="n"/>
+      <c r="E454" s="4" t="n"/>
+      <c r="F454" s="4" t="n"/>
+      <c r="G454" s="4" t="n"/>
+      <c r="H454" s="4" t="n"/>
+      <c r="I454" s="4" t="n"/>
+      <c r="J454" s="4" t="n"/>
+      <c r="K454" s="4" t="n"/>
+      <c r="L454" s="4" t="n"/>
+      <c r="M454" s="4" t="n"/>
+      <c r="N454" s="4" t="n"/>
+      <c r="O454" s="4" t="n"/>
+      <c r="P454" s="4" t="n"/>
+      <c r="Q454" s="4" t="n"/>
+      <c r="R454" s="4" t="n"/>
+      <c r="S454" s="4" t="n"/>
+      <c r="T454" s="4" t="n"/>
+      <c r="U454" s="4" t="n"/>
+      <c r="V454" s="4" t="n"/>
+      <c r="W454" s="4" t="n"/>
+      <c r="X454" s="4" t="n"/>
+      <c r="Y454" s="4" t="n"/>
+      <c r="Z454" s="4" t="n"/>
+      <c r="AA454" s="4" t="n"/>
+      <c r="AB454" s="4" t="n"/>
+      <c r="AC454" s="4" t="n"/>
+      <c r="AD454" s="4" t="n"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="4" t="n"/>
+      <c r="B455" s="4" t="n"/>
+      <c r="C455" s="4" t="n"/>
+      <c r="D455" s="4" t="n"/>
+      <c r="E455" s="4" t="n"/>
+      <c r="F455" s="4" t="n"/>
+      <c r="G455" s="4" t="n"/>
+      <c r="H455" s="4" t="n"/>
+      <c r="I455" s="4" t="n"/>
+      <c r="J455" s="4" t="n"/>
+      <c r="K455" s="4" t="n"/>
+      <c r="L455" s="4" t="n"/>
+      <c r="M455" s="4" t="n"/>
+      <c r="N455" s="4" t="n"/>
+      <c r="O455" s="4" t="n"/>
+      <c r="P455" s="4" t="n"/>
+      <c r="Q455" s="4" t="n"/>
+      <c r="R455" s="4" t="n"/>
+      <c r="S455" s="4" t="n"/>
+      <c r="T455" s="4" t="n"/>
+      <c r="U455" s="4" t="n"/>
+      <c r="V455" s="4" t="n"/>
+      <c r="W455" s="4" t="n"/>
+      <c r="X455" s="4" t="n"/>
+      <c r="Y455" s="4" t="n"/>
+      <c r="Z455" s="4" t="n"/>
+      <c r="AA455" s="4" t="n"/>
+      <c r="AB455" s="4" t="n"/>
+      <c r="AC455" s="4" t="n"/>
+      <c r="AD455" s="4" t="n"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="4" t="n"/>
+      <c r="B456" s="4" t="n"/>
+      <c r="C456" s="4" t="n"/>
+      <c r="D456" s="4" t="n"/>
+      <c r="E456" s="4" t="n"/>
+      <c r="F456" s="4" t="n"/>
+      <c r="G456" s="4" t="n"/>
+      <c r="H456" s="4" t="n"/>
+      <c r="I456" s="4" t="n"/>
+      <c r="J456" s="4" t="n"/>
+      <c r="K456" s="4" t="n"/>
+      <c r="L456" s="4" t="n"/>
+      <c r="M456" s="4" t="n"/>
+      <c r="N456" s="4" t="n"/>
+      <c r="O456" s="4" t="n"/>
+      <c r="P456" s="4" t="n"/>
+      <c r="Q456" s="4" t="n"/>
+      <c r="R456" s="4" t="n"/>
+      <c r="S456" s="4" t="n"/>
+      <c r="T456" s="4" t="n"/>
+      <c r="U456" s="4" t="n"/>
+      <c r="V456" s="4" t="n"/>
+      <c r="W456" s="4" t="n"/>
+      <c r="X456" s="4" t="n"/>
+      <c r="Y456" s="4" t="n"/>
+      <c r="Z456" s="4" t="n"/>
+      <c r="AA456" s="4" t="n"/>
+      <c r="AB456" s="4" t="n"/>
+      <c r="AC456" s="4" t="n"/>
+      <c r="AD456" s="4" t="n"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="4" t="n"/>
+      <c r="B457" s="4" t="n"/>
+      <c r="C457" s="4" t="n"/>
+      <c r="D457" s="4" t="n"/>
+      <c r="E457" s="4" t="n"/>
+      <c r="F457" s="4" t="n"/>
+      <c r="G457" s="4" t="n"/>
+      <c r="H457" s="4" t="n"/>
+      <c r="I457" s="4" t="n"/>
+      <c r="J457" s="4" t="n"/>
+      <c r="K457" s="4" t="n"/>
+      <c r="L457" s="4" t="n"/>
+      <c r="M457" s="4" t="n"/>
+      <c r="N457" s="4" t="n"/>
+      <c r="O457" s="4" t="n"/>
+      <c r="P457" s="4" t="n"/>
+      <c r="Q457" s="4" t="n"/>
+      <c r="R457" s="4" t="n"/>
+      <c r="S457" s="4" t="n"/>
+      <c r="T457" s="4" t="n"/>
+      <c r="U457" s="4" t="n"/>
+      <c r="V457" s="4" t="n"/>
+      <c r="W457" s="4" t="n"/>
+      <c r="X457" s="4" t="n"/>
+      <c r="Y457" s="4" t="n"/>
+      <c r="Z457" s="4" t="n"/>
+      <c r="AA457" s="4" t="n"/>
+      <c r="AB457" s="4" t="n"/>
+      <c r="AC457" s="4" t="n"/>
+      <c r="AD457" s="4" t="n"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="4" t="n"/>
+      <c r="B458" s="4" t="n"/>
+      <c r="C458" s="4" t="n"/>
+      <c r="D458" s="4" t="n"/>
+      <c r="E458" s="4" t="n"/>
+      <c r="F458" s="4" t="n"/>
+      <c r="G458" s="4" t="n"/>
+      <c r="H458" s="4" t="n"/>
+      <c r="I458" s="4" t="n"/>
+      <c r="J458" s="4" t="n"/>
+      <c r="K458" s="4" t="n"/>
+      <c r="L458" s="4" t="n"/>
+      <c r="M458" s="4" t="n"/>
+      <c r="N458" s="4" t="n"/>
+      <c r="O458" s="4" t="n"/>
+      <c r="P458" s="4" t="n"/>
+      <c r="Q458" s="4" t="n"/>
+      <c r="R458" s="4" t="n"/>
+      <c r="S458" s="4" t="n"/>
+      <c r="T458" s="4" t="n"/>
+      <c r="U458" s="4" t="n"/>
+      <c r="V458" s="4" t="n"/>
+      <c r="W458" s="4" t="n"/>
+      <c r="X458" s="4" t="n"/>
+      <c r="Y458" s="4" t="n"/>
+      <c r="Z458" s="4" t="n"/>
+      <c r="AA458" s="4" t="n"/>
+      <c r="AB458" s="4" t="n"/>
+      <c r="AC458" s="4" t="n"/>
+      <c r="AD458" s="4" t="n"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="4" t="n"/>
+      <c r="B459" s="4" t="n"/>
+      <c r="C459" s="4" t="n"/>
+      <c r="D459" s="4" t="n"/>
+      <c r="E459" s="4" t="n"/>
+      <c r="F459" s="4" t="n"/>
+      <c r="G459" s="4" t="n"/>
+      <c r="H459" s="4" t="n"/>
+      <c r="I459" s="4" t="n"/>
+      <c r="J459" s="4" t="n"/>
+      <c r="K459" s="4" t="n"/>
+      <c r="L459" s="4" t="n"/>
+      <c r="M459" s="4" t="n"/>
+      <c r="N459" s="4" t="n"/>
+      <c r="O459" s="4" t="n"/>
+      <c r="P459" s="4" t="n"/>
+      <c r="Q459" s="4" t="n"/>
+      <c r="R459" s="4" t="n"/>
+      <c r="S459" s="4" t="n"/>
+      <c r="T459" s="4" t="n"/>
+      <c r="U459" s="4" t="n"/>
+      <c r="V459" s="4" t="n"/>
+      <c r="W459" s="4" t="n"/>
+      <c r="X459" s="4" t="n"/>
+      <c r="Y459" s="4" t="n"/>
+      <c r="Z459" s="4" t="n"/>
+      <c r="AA459" s="4" t="n"/>
+      <c r="AB459" s="4" t="n"/>
+      <c r="AC459" s="4" t="n"/>
+      <c r="AD459" s="4" t="n"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="4" t="n"/>
+      <c r="B460" s="4" t="n"/>
+      <c r="C460" s="4" t="n"/>
+      <c r="D460" s="4" t="n"/>
+      <c r="E460" s="4" t="n"/>
+      <c r="F460" s="4" t="n"/>
+      <c r="G460" s="4" t="n"/>
+      <c r="H460" s="4" t="n"/>
+      <c r="I460" s="4" t="n"/>
+      <c r="J460" s="4" t="n"/>
+      <c r="K460" s="4" t="n"/>
+      <c r="L460" s="4" t="n"/>
+      <c r="M460" s="4" t="n"/>
+      <c r="N460" s="4" t="n"/>
+      <c r="O460" s="4" t="n"/>
+      <c r="P460" s="4" t="n"/>
+      <c r="Q460" s="4" t="n"/>
+      <c r="R460" s="4" t="n"/>
+      <c r="S460" s="4" t="n"/>
+      <c r="T460" s="4" t="n"/>
+      <c r="U460" s="4" t="n"/>
+      <c r="V460" s="4" t="n"/>
+      <c r="W460" s="4" t="n"/>
+      <c r="X460" s="4" t="n"/>
+      <c r="Y460" s="4" t="n"/>
+      <c r="Z460" s="4" t="n"/>
+      <c r="AA460" s="4" t="n"/>
+      <c r="AB460" s="4" t="n"/>
+      <c r="AC460" s="4" t="n"/>
+      <c r="AD460" s="4" t="n"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="4" t="n"/>
+      <c r="B461" s="4" t="n"/>
+      <c r="C461" s="4" t="n"/>
+      <c r="D461" s="4" t="n"/>
+      <c r="E461" s="4" t="n"/>
+      <c r="F461" s="4" t="n"/>
+      <c r="G461" s="4" t="n"/>
+      <c r="H461" s="4" t="n"/>
+      <c r="I461" s="4" t="n"/>
+      <c r="J461" s="4" t="n"/>
+      <c r="K461" s="4" t="n"/>
+      <c r="L461" s="4" t="n"/>
+      <c r="M461" s="4" t="n"/>
+      <c r="N461" s="4" t="n"/>
+      <c r="O461" s="4" t="n"/>
+      <c r="P461" s="4" t="n"/>
+      <c r="Q461" s="4" t="n"/>
+      <c r="R461" s="4" t="n"/>
+      <c r="S461" s="4" t="n"/>
+      <c r="T461" s="4" t="n"/>
+      <c r="U461" s="4" t="n"/>
+      <c r="V461" s="4" t="n"/>
+      <c r="W461" s="4" t="n"/>
+      <c r="X461" s="4" t="n"/>
+      <c r="Y461" s="4" t="n"/>
+      <c r="Z461" s="4" t="n"/>
+      <c r="AA461" s="4" t="n"/>
+      <c r="AB461" s="4" t="n"/>
+      <c r="AC461" s="4" t="n"/>
+      <c r="AD461" s="4" t="n"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="4" t="n"/>
+      <c r="B462" s="4" t="n"/>
+      <c r="C462" s="4" t="n"/>
+      <c r="D462" s="4" t="n"/>
+      <c r="E462" s="4" t="n"/>
+      <c r="F462" s="4" t="n"/>
+      <c r="G462" s="4" t="n"/>
+      <c r="H462" s="4" t="n"/>
+      <c r="I462" s="4" t="n"/>
+      <c r="J462" s="4" t="n"/>
+      <c r="K462" s="4" t="n"/>
+      <c r="L462" s="4" t="n"/>
+      <c r="M462" s="4" t="n"/>
+      <c r="N462" s="4" t="n"/>
+      <c r="O462" s="4" t="n"/>
+      <c r="P462" s="4" t="n"/>
+      <c r="Q462" s="4" t="n"/>
+      <c r="R462" s="4" t="n"/>
+      <c r="S462" s="4" t="n"/>
+      <c r="T462" s="4" t="n"/>
+      <c r="U462" s="4" t="n"/>
+      <c r="V462" s="4" t="n"/>
+      <c r="W462" s="4" t="n"/>
+      <c r="X462" s="4" t="n"/>
+      <c r="Y462" s="4" t="n"/>
+      <c r="Z462" s="4" t="n"/>
+      <c r="AA462" s="4" t="n"/>
+      <c r="AB462" s="4" t="n"/>
+      <c r="AC462" s="4" t="n"/>
+      <c r="AD462" s="4" t="n"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="4" t="n"/>
+      <c r="B463" s="4" t="n"/>
+      <c r="C463" s="4" t="n"/>
+      <c r="D463" s="4" t="n"/>
+      <c r="E463" s="4" t="n"/>
+      <c r="F463" s="4" t="n"/>
+      <c r="G463" s="4" t="n"/>
+      <c r="H463" s="4" t="n"/>
+      <c r="I463" s="4" t="n"/>
+      <c r="J463" s="4" t="n"/>
+      <c r="K463" s="4" t="n"/>
+      <c r="L463" s="4" t="n"/>
+      <c r="M463" s="4" t="n"/>
+      <c r="N463" s="4" t="n"/>
+      <c r="O463" s="4" t="n"/>
+      <c r="P463" s="4" t="n"/>
+      <c r="Q463" s="4" t="n"/>
+      <c r="R463" s="4" t="n"/>
+      <c r="S463" s="4" t="n"/>
+      <c r="T463" s="4" t="n"/>
+      <c r="U463" s="4" t="n"/>
+      <c r="V463" s="4" t="n"/>
+      <c r="W463" s="4" t="n"/>
+      <c r="X463" s="4" t="n"/>
+      <c r="Y463" s="4" t="n"/>
+      <c r="Z463" s="4" t="n"/>
+      <c r="AA463" s="4" t="n"/>
+      <c r="AB463" s="4" t="n"/>
+      <c r="AC463" s="4" t="n"/>
+      <c r="AD463" s="4" t="n"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="4" t="n"/>
+      <c r="B464" s="4" t="n"/>
+      <c r="C464" s="4" t="n"/>
+      <c r="D464" s="4" t="n"/>
+      <c r="E464" s="4" t="n"/>
+      <c r="F464" s="4" t="n"/>
+      <c r="G464" s="4" t="n"/>
+      <c r="H464" s="4" t="n"/>
+      <c r="I464" s="4" t="n"/>
+      <c r="J464" s="4" t="n"/>
+      <c r="K464" s="4" t="n"/>
+      <c r="L464" s="4" t="n"/>
+      <c r="M464" s="4" t="n"/>
+      <c r="N464" s="4" t="n"/>
+      <c r="O464" s="4" t="n"/>
+      <c r="P464" s="4" t="n"/>
+      <c r="Q464" s="4" t="n"/>
+      <c r="R464" s="4" t="n"/>
+      <c r="S464" s="4" t="n"/>
+      <c r="T464" s="4" t="n"/>
+      <c r="U464" s="4" t="n"/>
+      <c r="V464" s="4" t="n"/>
+      <c r="W464" s="4" t="n"/>
+      <c r="X464" s="4" t="n"/>
+      <c r="Y464" s="4" t="n"/>
+      <c r="Z464" s="4" t="n"/>
+      <c r="AA464" s="4" t="n"/>
+      <c r="AB464" s="4" t="n"/>
+      <c r="AC464" s="4" t="n"/>
+      <c r="AD464" s="4" t="n"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="4" t="n"/>
+      <c r="B465" s="4" t="n"/>
+      <c r="C465" s="4" t="n"/>
+      <c r="D465" s="4" t="n"/>
+      <c r="E465" s="4" t="n"/>
+      <c r="F465" s="4" t="n"/>
+      <c r="G465" s="4" t="n"/>
+      <c r="H465" s="4" t="n"/>
+      <c r="I465" s="4" t="n"/>
+      <c r="J465" s="4" t="n"/>
+      <c r="K465" s="4" t="n"/>
+      <c r="L465" s="4" t="n"/>
+      <c r="M465" s="4" t="n"/>
+      <c r="N465" s="4" t="n"/>
+      <c r="O465" s="4" t="n"/>
+      <c r="P465" s="4" t="n"/>
+      <c r="Q465" s="4" t="n"/>
+      <c r="R465" s="4" t="n"/>
+      <c r="S465" s="4" t="n"/>
+      <c r="T465" s="4" t="n"/>
+      <c r="U465" s="4" t="n"/>
+      <c r="V465" s="4" t="n"/>
+      <c r="W465" s="4" t="n"/>
+      <c r="X465" s="4" t="n"/>
+      <c r="Y465" s="4" t="n"/>
+      <c r="Z465" s="4" t="n"/>
+      <c r="AA465" s="4" t="n"/>
+      <c r="AB465" s="4" t="n"/>
+      <c r="AC465" s="4" t="n"/>
+      <c r="AD465" s="4" t="n"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="4" t="n"/>
+      <c r="B466" s="4" t="n"/>
+      <c r="C466" s="4" t="n"/>
+      <c r="D466" s="4" t="n"/>
+      <c r="E466" s="4" t="n"/>
+      <c r="F466" s="4" t="n"/>
+      <c r="G466" s="4" t="n"/>
+      <c r="H466" s="4" t="n"/>
+      <c r="I466" s="4" t="n"/>
+      <c r="J466" s="4" t="n"/>
+      <c r="K466" s="4" t="n"/>
+      <c r="L466" s="4" t="n"/>
+      <c r="M466" s="4" t="n"/>
+      <c r="N466" s="4" t="n"/>
+      <c r="O466" s="4" t="n"/>
+      <c r="P466" s="4" t="n"/>
+      <c r="Q466" s="4" t="n"/>
+      <c r="R466" s="4" t="n"/>
+      <c r="S466" s="4" t="n"/>
+      <c r="T466" s="4" t="n"/>
+      <c r="U466" s="4" t="n"/>
+      <c r="V466" s="4" t="n"/>
+      <c r="W466" s="4" t="n"/>
+      <c r="X466" s="4" t="n"/>
+      <c r="Y466" s="4" t="n"/>
+      <c r="Z466" s="4" t="n"/>
+      <c r="AA466" s="4" t="n"/>
+      <c r="AB466" s="4" t="n"/>
+      <c r="AC466" s="4" t="n"/>
+      <c r="AD466" s="4" t="n"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="4" t="n"/>
+      <c r="B467" s="4" t="n"/>
+      <c r="C467" s="4" t="n"/>
+      <c r="D467" s="4" t="n"/>
+      <c r="E467" s="4" t="n"/>
+      <c r="F467" s="4" t="n"/>
+      <c r="G467" s="4" t="n"/>
+      <c r="H467" s="4" t="n"/>
+      <c r="I467" s="4" t="n"/>
+      <c r="J467" s="4" t="n"/>
+      <c r="K467" s="4" t="n"/>
+      <c r="L467" s="4" t="n"/>
+      <c r="M467" s="4" t="n"/>
+      <c r="N467" s="4" t="n"/>
+      <c r="O467" s="4" t="n"/>
+      <c r="P467" s="4" t="n"/>
+      <c r="Q467" s="4" t="n"/>
+      <c r="R467" s="4" t="n"/>
+      <c r="S467" s="4" t="n"/>
+      <c r="T467" s="4" t="n"/>
+      <c r="U467" s="4" t="n"/>
+      <c r="V467" s="4" t="n"/>
+      <c r="W467" s="4" t="n"/>
+      <c r="X467" s="4" t="n"/>
+      <c r="Y467" s="4" t="n"/>
+      <c r="Z467" s="4" t="n"/>
+      <c r="AA467" s="4" t="n"/>
+      <c r="AB467" s="4" t="n"/>
+      <c r="AC467" s="4" t="n"/>
+      <c r="AD467" s="4" t="n"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="4" t="n"/>
+      <c r="B468" s="4" t="n"/>
+      <c r="C468" s="4" t="n"/>
+      <c r="D468" s="4" t="n"/>
+      <c r="E468" s="4" t="n"/>
+      <c r="F468" s="4" t="n"/>
+      <c r="G468" s="4" t="n"/>
+      <c r="H468" s="4" t="n"/>
+      <c r="I468" s="4" t="n"/>
+      <c r="J468" s="4" t="n"/>
+      <c r="K468" s="4" t="n"/>
+      <c r="L468" s="4" t="n"/>
+      <c r="M468" s="4" t="n"/>
+      <c r="N468" s="4" t="n"/>
+      <c r="O468" s="4" t="n"/>
+      <c r="P468" s="4" t="n"/>
+      <c r="Q468" s="4" t="n"/>
+      <c r="R468" s="4" t="n"/>
+      <c r="S468" s="4" t="n"/>
+      <c r="T468" s="4" t="n"/>
+      <c r="U468" s="4" t="n"/>
+      <c r="V468" s="4" t="n"/>
+      <c r="W468" s="4" t="n"/>
+      <c r="X468" s="4" t="n"/>
+      <c r="Y468" s="4" t="n"/>
+      <c r="Z468" s="4" t="n"/>
+      <c r="AA468" s="4" t="n"/>
+      <c r="AB468" s="4" t="n"/>
+      <c r="AC468" s="4" t="n"/>
+      <c r="AD468" s="4" t="n"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="4" t="n"/>
+      <c r="B469" s="4" t="n"/>
+      <c r="C469" s="4" t="n"/>
+      <c r="D469" s="4" t="n"/>
+      <c r="E469" s="4" t="n"/>
+      <c r="F469" s="4" t="n"/>
+      <c r="G469" s="4" t="n"/>
+      <c r="H469" s="4" t="n"/>
+      <c r="I469" s="4" t="n"/>
+      <c r="J469" s="4" t="n"/>
+      <c r="K469" s="4" t="n"/>
+      <c r="L469" s="4" t="n"/>
+      <c r="M469" s="4" t="n"/>
+      <c r="N469" s="4" t="n"/>
+      <c r="O469" s="4" t="n"/>
+      <c r="P469" s="4" t="n"/>
+      <c r="Q469" s="4" t="n"/>
+      <c r="R469" s="4" t="n"/>
+      <c r="S469" s="4" t="n"/>
+      <c r="T469" s="4" t="n"/>
+      <c r="U469" s="4" t="n"/>
+      <c r="V469" s="4" t="n"/>
+      <c r="W469" s="4" t="n"/>
+      <c r="X469" s="4" t="n"/>
+      <c r="Y469" s="4" t="n"/>
+      <c r="Z469" s="4" t="n"/>
+      <c r="AA469" s="4" t="n"/>
+      <c r="AB469" s="4" t="n"/>
+      <c r="AC469" s="4" t="n"/>
+      <c r="AD469" s="4" t="n"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="4" t="n"/>
+      <c r="B470" s="4" t="n"/>
+      <c r="C470" s="4" t="n"/>
+      <c r="D470" s="4" t="n"/>
+      <c r="E470" s="4" t="n"/>
+      <c r="F470" s="4" t="n"/>
+      <c r="G470" s="4" t="n"/>
+      <c r="H470" s="4" t="n"/>
+      <c r="I470" s="4" t="n"/>
+      <c r="J470" s="4" t="n"/>
+      <c r="K470" s="4" t="n"/>
+      <c r="L470" s="4" t="n"/>
+      <c r="M470" s="4" t="n"/>
+      <c r="N470" s="4" t="n"/>
+      <c r="O470" s="4" t="n"/>
+      <c r="P470" s="4" t="n"/>
+      <c r="Q470" s="4" t="n"/>
+      <c r="R470" s="4" t="n"/>
+      <c r="S470" s="4" t="n"/>
+      <c r="T470" s="4" t="n"/>
+      <c r="U470" s="4" t="n"/>
+      <c r="V470" s="4" t="n"/>
+      <c r="W470" s="4" t="n"/>
+      <c r="X470" s="4" t="n"/>
+      <c r="Y470" s="4" t="n"/>
+      <c r="Z470" s="4" t="n"/>
+      <c r="AA470" s="4" t="n"/>
+      <c r="AB470" s="4" t="n"/>
+      <c r="AC470" s="4" t="n"/>
+      <c r="AD470" s="4" t="n"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="4" t="n"/>
+      <c r="B471" s="4" t="n"/>
+      <c r="C471" s="4" t="n"/>
+      <c r="D471" s="4" t="n"/>
+      <c r="E471" s="4" t="n"/>
+      <c r="F471" s="4" t="n"/>
+      <c r="G471" s="4" t="n"/>
+      <c r="H471" s="4" t="n"/>
+      <c r="I471" s="4" t="n"/>
+      <c r="J471" s="4" t="n"/>
+      <c r="K471" s="4" t="n"/>
+      <c r="L471" s="4" t="n"/>
+      <c r="M471" s="4" t="n"/>
+      <c r="N471" s="4" t="n"/>
+      <c r="O471" s="4" t="n"/>
+      <c r="P471" s="4" t="n"/>
+      <c r="Q471" s="4" t="n"/>
+      <c r="R471" s="4" t="n"/>
+      <c r="S471" s="4" t="n"/>
+      <c r="T471" s="4" t="n"/>
+      <c r="U471" s="4" t="n"/>
+      <c r="V471" s="4" t="n"/>
+      <c r="W471" s="4" t="n"/>
+      <c r="X471" s="4" t="n"/>
+      <c r="Y471" s="4" t="n"/>
+      <c r="Z471" s="4" t="n"/>
+      <c r="AA471" s="4" t="n"/>
+      <c r="AB471" s="4" t="n"/>
+      <c r="AC471" s="4" t="n"/>
+      <c r="AD471" s="4" t="n"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="4" t="n"/>
+      <c r="B472" s="4" t="n"/>
+      <c r="C472" s="4" t="n"/>
+      <c r="D472" s="4" t="n"/>
+      <c r="E472" s="4" t="n"/>
+      <c r="F472" s="4" t="n"/>
+      <c r="G472" s="4" t="n"/>
+      <c r="H472" s="4" t="n"/>
+      <c r="I472" s="4" t="n"/>
+      <c r="J472" s="4" t="n"/>
+      <c r="K472" s="4" t="n"/>
+      <c r="L472" s="4" t="n"/>
+      <c r="M472" s="4" t="n"/>
+      <c r="N472" s="4" t="n"/>
+      <c r="O472" s="4" t="n"/>
+      <c r="P472" s="4" t="n"/>
+      <c r="Q472" s="4" t="n"/>
+      <c r="R472" s="4" t="n"/>
+      <c r="S472" s="4" t="n"/>
+      <c r="T472" s="4" t="n"/>
+      <c r="U472" s="4" t="n"/>
+      <c r="V472" s="4" t="n"/>
+      <c r="W472" s="4" t="n"/>
+      <c r="X472" s="4" t="n"/>
+      <c r="Y472" s="4" t="n"/>
+      <c r="Z472" s="4" t="n"/>
+      <c r="AA472" s="4" t="n"/>
+      <c r="AB472" s="4" t="n"/>
+      <c r="AC472" s="4" t="n"/>
+      <c r="AD472" s="4" t="n"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="4" t="n"/>
+      <c r="B473" s="4" t="n"/>
+      <c r="C473" s="4" t="n"/>
+      <c r="D473" s="4" t="n"/>
+      <c r="E473" s="4" t="n"/>
+      <c r="F473" s="4" t="n"/>
+      <c r="G473" s="4" t="n"/>
+      <c r="H473" s="4" t="n"/>
+      <c r="I473" s="4" t="n"/>
+      <c r="J473" s="4" t="n"/>
+      <c r="K473" s="4" t="n"/>
+      <c r="L473" s="4" t="n"/>
+      <c r="M473" s="4" t="n"/>
+      <c r="N473" s="4" t="n"/>
+      <c r="O473" s="4" t="n"/>
+      <c r="P473" s="4" t="n"/>
+      <c r="Q473" s="4" t="n"/>
+      <c r="R473" s="4" t="n"/>
+      <c r="S473" s="4" t="n"/>
+      <c r="T473" s="4" t="n"/>
+      <c r="U473" s="4" t="n"/>
+      <c r="V473" s="4" t="n"/>
+      <c r="W473" s="4" t="n"/>
+      <c r="X473" s="4" t="n"/>
+      <c r="Y473" s="4" t="n"/>
+      <c r="Z473" s="4" t="n"/>
+      <c r="AA473" s="4" t="n"/>
+      <c r="AB473" s="4" t="n"/>
+      <c r="AC473" s="4" t="n"/>
+      <c r="AD473" s="4" t="n"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="4" t="n"/>
+      <c r="B474" s="4" t="n"/>
+      <c r="C474" s="4" t="n"/>
+      <c r="D474" s="4" t="n"/>
+      <c r="E474" s="4" t="n"/>
+      <c r="F474" s="4" t="n"/>
+      <c r="G474" s="4" t="n"/>
+      <c r="H474" s="4" t="n"/>
+      <c r="I474" s="4" t="n"/>
+      <c r="J474" s="4" t="n"/>
+      <c r="K474" s="4" t="n"/>
+      <c r="L474" s="4" t="n"/>
+      <c r="M474" s="4" t="n"/>
+      <c r="N474" s="4" t="n"/>
+      <c r="O474" s="4" t="n"/>
+      <c r="P474" s="4" t="n"/>
+      <c r="Q474" s="4" t="n"/>
+      <c r="R474" s="4" t="n"/>
+      <c r="S474" s="4" t="n"/>
+      <c r="T474" s="4" t="n"/>
+      <c r="U474" s="4" t="n"/>
+      <c r="V474" s="4" t="n"/>
+      <c r="W474" s="4" t="n"/>
+      <c r="X474" s="4" t="n"/>
+      <c r="Y474" s="4" t="n"/>
+      <c r="Z474" s="4" t="n"/>
+      <c r="AA474" s="4" t="n"/>
+      <c r="AB474" s="4" t="n"/>
+      <c r="AC474" s="4" t="n"/>
+      <c r="AD474" s="4" t="n"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="4" t="n"/>
+      <c r="B475" s="4" t="n"/>
+      <c r="C475" s="4" t="n"/>
+      <c r="D475" s="4" t="n"/>
+      <c r="E475" s="4" t="n"/>
+      <c r="F475" s="4" t="n"/>
+      <c r="G475" s="4" t="n"/>
+      <c r="H475" s="4" t="n"/>
+      <c r="I475" s="4" t="n"/>
+      <c r="J475" s="4" t="n"/>
+      <c r="K475" s="4" t="n"/>
+      <c r="L475" s="4" t="n"/>
+      <c r="M475" s="4" t="n"/>
+      <c r="N475" s="4" t="n"/>
+      <c r="O475" s="4" t="n"/>
+      <c r="P475" s="4" t="n"/>
+      <c r="Q475" s="4" t="n"/>
+      <c r="R475" s="4" t="n"/>
+      <c r="S475" s="4" t="n"/>
+      <c r="T475" s="4" t="n"/>
+      <c r="U475" s="4" t="n"/>
+      <c r="V475" s="4" t="n"/>
+      <c r="W475" s="4" t="n"/>
+      <c r="X475" s="4" t="n"/>
+      <c r="Y475" s="4" t="n"/>
+      <c r="Z475" s="4" t="n"/>
+      <c r="AA475" s="4" t="n"/>
+      <c r="AB475" s="4" t="n"/>
+      <c r="AC475" s="4" t="n"/>
+      <c r="AD475" s="4" t="n"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="4" t="n"/>
+      <c r="B476" s="4" t="n"/>
+      <c r="C476" s="4" t="n"/>
+      <c r="D476" s="4" t="n"/>
+      <c r="E476" s="4" t="n"/>
+      <c r="F476" s="4" t="n"/>
+      <c r="G476" s="4" t="n"/>
+      <c r="H476" s="4" t="n"/>
+      <c r="I476" s="4" t="n"/>
+      <c r="J476" s="4" t="n"/>
+      <c r="K476" s="4" t="n"/>
+      <c r="L476" s="4" t="n"/>
+      <c r="M476" s="4" t="n"/>
+      <c r="N476" s="4" t="n"/>
+      <c r="O476" s="4" t="n"/>
+      <c r="P476" s="4" t="n"/>
+      <c r="Q476" s="4" t="n"/>
+      <c r="R476" s="4" t="n"/>
+      <c r="S476" s="4" t="n"/>
+      <c r="T476" s="4" t="n"/>
+      <c r="U476" s="4" t="n"/>
+      <c r="V476" s="4" t="n"/>
+      <c r="W476" s="4" t="n"/>
+      <c r="X476" s="4" t="n"/>
+      <c r="Y476" s="4" t="n"/>
+      <c r="Z476" s="4" t="n"/>
+      <c r="AA476" s="4" t="n"/>
+      <c r="AB476" s="4" t="n"/>
+      <c r="AC476" s="4" t="n"/>
+      <c r="AD476" s="4" t="n"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="4" t="n"/>
+      <c r="B477" s="4" t="n"/>
+      <c r="C477" s="4" t="n"/>
+      <c r="D477" s="4" t="n"/>
+      <c r="E477" s="4" t="n"/>
+      <c r="F477" s="4" t="n"/>
+      <c r="G477" s="4" t="n"/>
+      <c r="H477" s="4" t="n"/>
+      <c r="I477" s="4" t="n"/>
+      <c r="J477" s="4" t="n"/>
+      <c r="K477" s="4" t="n"/>
+      <c r="L477" s="4" t="n"/>
+      <c r="M477" s="4" t="n"/>
+      <c r="N477" s="4" t="n"/>
+      <c r="O477" s="4" t="n"/>
+      <c r="P477" s="4" t="n"/>
+      <c r="Q477" s="4" t="n"/>
+      <c r="R477" s="4" t="n"/>
+      <c r="S477" s="4" t="n"/>
+      <c r="T477" s="4" t="n"/>
+      <c r="U477" s="4" t="n"/>
+      <c r="V477" s="4" t="n"/>
+      <c r="W477" s="4" t="n"/>
+      <c r="X477" s="4" t="n"/>
+      <c r="Y477" s="4" t="n"/>
+      <c r="Z477" s="4" t="n"/>
+      <c r="AA477" s="4" t="n"/>
+      <c r="AB477" s="4" t="n"/>
+      <c r="AC477" s="4" t="n"/>
+      <c r="AD477" s="4" t="n"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="4" t="n"/>
+      <c r="B478" s="4" t="n"/>
+      <c r="C478" s="4" t="n"/>
+      <c r="D478" s="4" t="n"/>
+      <c r="E478" s="4" t="n"/>
+      <c r="F478" s="4" t="n"/>
+      <c r="G478" s="4" t="n"/>
+      <c r="H478" s="4" t="n"/>
+      <c r="I478" s="4" t="n"/>
+      <c r="J478" s="4" t="n"/>
+      <c r="K478" s="4" t="n"/>
+      <c r="L478" s="4" t="n"/>
+      <c r="M478" s="4" t="n"/>
+      <c r="N478" s="4" t="n"/>
+      <c r="O478" s="4" t="n"/>
+      <c r="P478" s="4" t="n"/>
+      <c r="Q478" s="4" t="n"/>
+      <c r="R478" s="4" t="n"/>
+      <c r="S478" s="4" t="n"/>
+      <c r="T478" s="4" t="n"/>
+      <c r="U478" s="4" t="n"/>
+      <c r="V478" s="4" t="n"/>
+      <c r="W478" s="4" t="n"/>
+      <c r="X478" s="4" t="n"/>
+      <c r="Y478" s="4" t="n"/>
+      <c r="Z478" s="4" t="n"/>
+      <c r="AA478" s="4" t="n"/>
+      <c r="AB478" s="4" t="n"/>
+      <c r="AC478" s="4" t="n"/>
+      <c r="AD478" s="4" t="n"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="4" t="n"/>
+      <c r="B479" s="4" t="n"/>
+      <c r="C479" s="4" t="n"/>
+      <c r="D479" s="4" t="n"/>
+      <c r="E479" s="4" t="n"/>
+      <c r="F479" s="4" t="n"/>
+      <c r="G479" s="4" t="n"/>
+      <c r="H479" s="4" t="n"/>
+      <c r="I479" s="4" t="n"/>
+      <c r="J479" s="4" t="n"/>
+      <c r="K479" s="4" t="n"/>
+      <c r="L479" s="4" t="n"/>
+      <c r="M479" s="4" t="n"/>
+      <c r="N479" s="4" t="n"/>
+      <c r="O479" s="4" t="n"/>
+      <c r="P479" s="4" t="n"/>
+      <c r="Q479" s="4" t="n"/>
+      <c r="R479" s="4" t="n"/>
+      <c r="S479" s="4" t="n"/>
+      <c r="T479" s="4" t="n"/>
+      <c r="U479" s="4" t="n"/>
+      <c r="V479" s="4" t="n"/>
+      <c r="W479" s="4" t="n"/>
+      <c r="X479" s="4" t="n"/>
+      <c r="Y479" s="4" t="n"/>
+      <c r="Z479" s="4" t="n"/>
+      <c r="AA479" s="4" t="n"/>
+      <c r="AB479" s="4" t="n"/>
+      <c r="AC479" s="4" t="n"/>
+      <c r="AD479" s="4" t="n"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="4" t="n"/>
+      <c r="B480" s="4" t="n"/>
+      <c r="C480" s="4" t="n"/>
+      <c r="D480" s="4" t="n"/>
+      <c r="E480" s="4" t="n"/>
+      <c r="F480" s="4" t="n"/>
+      <c r="G480" s="4" t="n"/>
+      <c r="H480" s="4" t="n"/>
+      <c r="I480" s="4" t="n"/>
+      <c r="J480" s="4" t="n"/>
+      <c r="K480" s="4" t="n"/>
+      <c r="L480" s="4" t="n"/>
+      <c r="M480" s="4" t="n"/>
+      <c r="N480" s="4" t="n"/>
+      <c r="O480" s="4" t="n"/>
+      <c r="P480" s="4" t="n"/>
+      <c r="Q480" s="4" t="n"/>
+      <c r="R480" s="4" t="n"/>
+      <c r="S480" s="4" t="n"/>
+      <c r="T480" s="4" t="n"/>
+      <c r="U480" s="4" t="n"/>
+      <c r="V480" s="4" t="n"/>
+      <c r="W480" s="4" t="n"/>
+      <c r="X480" s="4" t="n"/>
+      <c r="Y480" s="4" t="n"/>
+      <c r="Z480" s="4" t="n"/>
+      <c r="AA480" s="4" t="n"/>
+      <c r="AB480" s="4" t="n"/>
+      <c r="AC480" s="4" t="n"/>
+      <c r="AD480" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20002,7 +24802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AD88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21263,6 +26063,1606 @@
       <c r="AC38" s="4" t="n"/>
       <c r="AD38" s="4" t="n"/>
     </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n"/>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+      <c r="AB40" s="4" t="n"/>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="n"/>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
+      <c r="AB42" s="4" t="n"/>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="4" t="n"/>
+      <c r="P43" s="4" t="n"/>
+      <c r="Q43" s="4" t="n"/>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="4" t="n"/>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="4" t="n"/>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
+      <c r="AB43" s="4" t="n"/>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="4" t="n"/>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+      <c r="H45" s="4" t="n"/>
+      <c r="I45" s="4" t="n"/>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="n"/>
+      <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
+      <c r="O46" s="4" t="n"/>
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
+      <c r="P47" s="4" t="n"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+      <c r="AB48" s="4" t="n"/>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
+      <c r="P51" s="4" t="n"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
+      <c r="AB51" s="4" t="n"/>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="n"/>
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="n"/>
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="n"/>
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="n"/>
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="4" t="n"/>
+      <c r="Y56" s="4" t="n"/>
+      <c r="Z56" s="4" t="n"/>
+      <c r="AA56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AC56" s="4" t="n"/>
+      <c r="AD56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="n"/>
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="4" t="n"/>
+      <c r="Y57" s="4" t="n"/>
+      <c r="Z57" s="4" t="n"/>
+      <c r="AA57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AC57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="n"/>
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="4" t="n"/>
+      <c r="Y58" s="4" t="n"/>
+      <c r="Z58" s="4" t="n"/>
+      <c r="AA58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AC58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="n"/>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="4" t="n"/>
+      <c r="Y59" s="4" t="n"/>
+      <c r="Z59" s="4" t="n"/>
+      <c r="AA59" s="4" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AC59" s="4" t="n"/>
+      <c r="AD59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
+      <c r="P60" s="4" t="n"/>
+      <c r="Q60" s="4" t="n"/>
+      <c r="R60" s="4" t="n"/>
+      <c r="S60" s="4" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="4" t="n"/>
+      <c r="V60" s="4" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="4" t="n"/>
+      <c r="Y60" s="4" t="n"/>
+      <c r="Z60" s="4" t="n"/>
+      <c r="AA60" s="4" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AC60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+      <c r="H61" s="4" t="n"/>
+      <c r="I61" s="4" t="n"/>
+      <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
+      <c r="O61" s="4" t="n"/>
+      <c r="P61" s="4" t="n"/>
+      <c r="Q61" s="4" t="n"/>
+      <c r="R61" s="4" t="n"/>
+      <c r="S61" s="4" t="n"/>
+      <c r="T61" s="4" t="n"/>
+      <c r="U61" s="4" t="n"/>
+      <c r="V61" s="4" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="4" t="n"/>
+      <c r="Y61" s="4" t="n"/>
+      <c r="Z61" s="4" t="n"/>
+      <c r="AA61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AC61" s="4" t="n"/>
+      <c r="AD61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+      <c r="H62" s="4" t="n"/>
+      <c r="I62" s="4" t="n"/>
+      <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
+      <c r="O62" s="4" t="n"/>
+      <c r="P62" s="4" t="n"/>
+      <c r="Q62" s="4" t="n"/>
+      <c r="R62" s="4" t="n"/>
+      <c r="S62" s="4" t="n"/>
+      <c r="T62" s="4" t="n"/>
+      <c r="U62" s="4" t="n"/>
+      <c r="V62" s="4" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="4" t="n"/>
+      <c r="Y62" s="4" t="n"/>
+      <c r="Z62" s="4" t="n"/>
+      <c r="AA62" s="4" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AC62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+      <c r="H63" s="4" t="n"/>
+      <c r="I63" s="4" t="n"/>
+      <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
+      <c r="O63" s="4" t="n"/>
+      <c r="P63" s="4" t="n"/>
+      <c r="Q63" s="4" t="n"/>
+      <c r="R63" s="4" t="n"/>
+      <c r="S63" s="4" t="n"/>
+      <c r="T63" s="4" t="n"/>
+      <c r="U63" s="4" t="n"/>
+      <c r="V63" s="4" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="4" t="n"/>
+      <c r="Y63" s="4" t="n"/>
+      <c r="Z63" s="4" t="n"/>
+      <c r="AA63" s="4" t="n"/>
+      <c r="AB63" s="4" t="n"/>
+      <c r="AC63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+      <c r="H64" s="4" t="n"/>
+      <c r="I64" s="4" t="n"/>
+      <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
+      <c r="O64" s="4" t="n"/>
+      <c r="P64" s="4" t="n"/>
+      <c r="Q64" s="4" t="n"/>
+      <c r="R64" s="4" t="n"/>
+      <c r="S64" s="4" t="n"/>
+      <c r="T64" s="4" t="n"/>
+      <c r="U64" s="4" t="n"/>
+      <c r="V64" s="4" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="4" t="n"/>
+      <c r="Y64" s="4" t="n"/>
+      <c r="Z64" s="4" t="n"/>
+      <c r="AA64" s="4" t="n"/>
+      <c r="AB64" s="4" t="n"/>
+      <c r="AC64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+      <c r="H65" s="4" t="n"/>
+      <c r="I65" s="4" t="n"/>
+      <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
+      <c r="O65" s="4" t="n"/>
+      <c r="P65" s="4" t="n"/>
+      <c r="Q65" s="4" t="n"/>
+      <c r="R65" s="4" t="n"/>
+      <c r="S65" s="4" t="n"/>
+      <c r="T65" s="4" t="n"/>
+      <c r="U65" s="4" t="n"/>
+      <c r="V65" s="4" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="4" t="n"/>
+      <c r="Y65" s="4" t="n"/>
+      <c r="Z65" s="4" t="n"/>
+      <c r="AA65" s="4" t="n"/>
+      <c r="AB65" s="4" t="n"/>
+      <c r="AC65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="4" t="n"/>
+      <c r="I66" s="4" t="n"/>
+      <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
+      <c r="O66" s="4" t="n"/>
+      <c r="P66" s="4" t="n"/>
+      <c r="Q66" s="4" t="n"/>
+      <c r="R66" s="4" t="n"/>
+      <c r="S66" s="4" t="n"/>
+      <c r="T66" s="4" t="n"/>
+      <c r="U66" s="4" t="n"/>
+      <c r="V66" s="4" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="4" t="n"/>
+      <c r="Y66" s="4" t="n"/>
+      <c r="Z66" s="4" t="n"/>
+      <c r="AA66" s="4" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AC66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="4" t="n"/>
+      <c r="I67" s="4" t="n"/>
+      <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
+      <c r="O67" s="4" t="n"/>
+      <c r="P67" s="4" t="n"/>
+      <c r="Q67" s="4" t="n"/>
+      <c r="R67" s="4" t="n"/>
+      <c r="S67" s="4" t="n"/>
+      <c r="T67" s="4" t="n"/>
+      <c r="U67" s="4" t="n"/>
+      <c r="V67" s="4" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="4" t="n"/>
+      <c r="Y67" s="4" t="n"/>
+      <c r="Z67" s="4" t="n"/>
+      <c r="AA67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AC67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="4" t="n"/>
+      <c r="I68" s="4" t="n"/>
+      <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
+      <c r="O68" s="4" t="n"/>
+      <c r="P68" s="4" t="n"/>
+      <c r="Q68" s="4" t="n"/>
+      <c r="R68" s="4" t="n"/>
+      <c r="S68" s="4" t="n"/>
+      <c r="T68" s="4" t="n"/>
+      <c r="U68" s="4" t="n"/>
+      <c r="V68" s="4" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="4" t="n"/>
+      <c r="Y68" s="4" t="n"/>
+      <c r="Z68" s="4" t="n"/>
+      <c r="AA68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AC68" s="4" t="n"/>
+      <c r="AD68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="4" t="n"/>
+      <c r="I69" s="4" t="n"/>
+      <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
+      <c r="O69" s="4" t="n"/>
+      <c r="P69" s="4" t="n"/>
+      <c r="Q69" s="4" t="n"/>
+      <c r="R69" s="4" t="n"/>
+      <c r="S69" s="4" t="n"/>
+      <c r="T69" s="4" t="n"/>
+      <c r="U69" s="4" t="n"/>
+      <c r="V69" s="4" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="4" t="n"/>
+      <c r="Y69" s="4" t="n"/>
+      <c r="Z69" s="4" t="n"/>
+      <c r="AA69" s="4" t="n"/>
+      <c r="AB69" s="4" t="n"/>
+      <c r="AC69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="4" t="n"/>
+      <c r="I70" s="4" t="n"/>
+      <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
+      <c r="O70" s="4" t="n"/>
+      <c r="P70" s="4" t="n"/>
+      <c r="Q70" s="4" t="n"/>
+      <c r="R70" s="4" t="n"/>
+      <c r="S70" s="4" t="n"/>
+      <c r="T70" s="4" t="n"/>
+      <c r="U70" s="4" t="n"/>
+      <c r="V70" s="4" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="4" t="n"/>
+      <c r="Y70" s="4" t="n"/>
+      <c r="Z70" s="4" t="n"/>
+      <c r="AA70" s="4" t="n"/>
+      <c r="AB70" s="4" t="n"/>
+      <c r="AC70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="4" t="n"/>
+      <c r="I71" s="4" t="n"/>
+      <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
+      <c r="O71" s="4" t="n"/>
+      <c r="P71" s="4" t="n"/>
+      <c r="Q71" s="4" t="n"/>
+      <c r="R71" s="4" t="n"/>
+      <c r="S71" s="4" t="n"/>
+      <c r="T71" s="4" t="n"/>
+      <c r="U71" s="4" t="n"/>
+      <c r="V71" s="4" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="4" t="n"/>
+      <c r="Y71" s="4" t="n"/>
+      <c r="Z71" s="4" t="n"/>
+      <c r="AA71" s="4" t="n"/>
+      <c r="AB71" s="4" t="n"/>
+      <c r="AC71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
+      <c r="T72" s="4" t="n"/>
+      <c r="U72" s="4" t="n"/>
+      <c r="V72" s="4" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="4" t="n"/>
+      <c r="Y72" s="4" t="n"/>
+      <c r="Z72" s="4" t="n"/>
+      <c r="AA72" s="4" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AC72" s="4" t="n"/>
+      <c r="AD72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="4" t="n"/>
+      <c r="I73" s="4" t="n"/>
+      <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
+      <c r="O73" s="4" t="n"/>
+      <c r="P73" s="4" t="n"/>
+      <c r="Q73" s="4" t="n"/>
+      <c r="R73" s="4" t="n"/>
+      <c r="S73" s="4" t="n"/>
+      <c r="T73" s="4" t="n"/>
+      <c r="U73" s="4" t="n"/>
+      <c r="V73" s="4" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="4" t="n"/>
+      <c r="Y73" s="4" t="n"/>
+      <c r="Z73" s="4" t="n"/>
+      <c r="AA73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AC73" s="4" t="n"/>
+      <c r="AD73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="4" t="n"/>
+      <c r="I74" s="4" t="n"/>
+      <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
+      <c r="O74" s="4" t="n"/>
+      <c r="P74" s="4" t="n"/>
+      <c r="Q74" s="4" t="n"/>
+      <c r="R74" s="4" t="n"/>
+      <c r="S74" s="4" t="n"/>
+      <c r="T74" s="4" t="n"/>
+      <c r="U74" s="4" t="n"/>
+      <c r="V74" s="4" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="4" t="n"/>
+      <c r="Y74" s="4" t="n"/>
+      <c r="Z74" s="4" t="n"/>
+      <c r="AA74" s="4" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AC74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="4" t="n"/>
+      <c r="I75" s="4" t="n"/>
+      <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
+      <c r="O75" s="4" t="n"/>
+      <c r="P75" s="4" t="n"/>
+      <c r="Q75" s="4" t="n"/>
+      <c r="R75" s="4" t="n"/>
+      <c r="S75" s="4" t="n"/>
+      <c r="T75" s="4" t="n"/>
+      <c r="U75" s="4" t="n"/>
+      <c r="V75" s="4" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="4" t="n"/>
+      <c r="Y75" s="4" t="n"/>
+      <c r="Z75" s="4" t="n"/>
+      <c r="AA75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AC75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="4" t="n"/>
+      <c r="I76" s="4" t="n"/>
+      <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
+      <c r="O76" s="4" t="n"/>
+      <c r="P76" s="4" t="n"/>
+      <c r="Q76" s="4" t="n"/>
+      <c r="R76" s="4" t="n"/>
+      <c r="S76" s="4" t="n"/>
+      <c r="T76" s="4" t="n"/>
+      <c r="U76" s="4" t="n"/>
+      <c r="V76" s="4" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="4" t="n"/>
+      <c r="Y76" s="4" t="n"/>
+      <c r="Z76" s="4" t="n"/>
+      <c r="AA76" s="4" t="n"/>
+      <c r="AB76" s="4" t="n"/>
+      <c r="AC76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="n"/>
+      <c r="Q77" s="4" t="n"/>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="4" t="n"/>
+      <c r="Y77" s="4" t="n"/>
+      <c r="Z77" s="4" t="n"/>
+      <c r="AA77" s="4" t="n"/>
+      <c r="AB77" s="4" t="n"/>
+      <c r="AC77" s="4" t="n"/>
+      <c r="AD77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="n"/>
+      <c r="Q78" s="4" t="n"/>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="4" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="Z78" s="4" t="n"/>
+      <c r="AA78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AC78" s="4" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="n"/>
+      <c r="Q79" s="4" t="n"/>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="4" t="n"/>
+      <c r="Y79" s="4" t="n"/>
+      <c r="Z79" s="4" t="n"/>
+      <c r="AA79" s="4" t="n"/>
+      <c r="AB79" s="4" t="n"/>
+      <c r="AC79" s="4" t="n"/>
+      <c r="AD79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="n"/>
+      <c r="Q80" s="4" t="n"/>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="4" t="n"/>
+      <c r="Y80" s="4" t="n"/>
+      <c r="Z80" s="4" t="n"/>
+      <c r="AA80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AC80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="4" t="n"/>
+      <c r="I81" s="4" t="n"/>
+      <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
+      <c r="O81" s="4" t="n"/>
+      <c r="P81" s="4" t="n"/>
+      <c r="Q81" s="4" t="n"/>
+      <c r="R81" s="4" t="n"/>
+      <c r="S81" s="4" t="n"/>
+      <c r="T81" s="4" t="n"/>
+      <c r="U81" s="4" t="n"/>
+      <c r="V81" s="4" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="4" t="n"/>
+      <c r="Y81" s="4" t="n"/>
+      <c r="Z81" s="4" t="n"/>
+      <c r="AA81" s="4" t="n"/>
+      <c r="AB81" s="4" t="n"/>
+      <c r="AC81" s="4" t="n"/>
+      <c r="AD81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="4" t="n"/>
+      <c r="I82" s="4" t="n"/>
+      <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
+      <c r="O82" s="4" t="n"/>
+      <c r="P82" s="4" t="n"/>
+      <c r="Q82" s="4" t="n"/>
+      <c r="R82" s="4" t="n"/>
+      <c r="S82" s="4" t="n"/>
+      <c r="T82" s="4" t="n"/>
+      <c r="U82" s="4" t="n"/>
+      <c r="V82" s="4" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="4" t="n"/>
+      <c r="Y82" s="4" t="n"/>
+      <c r="Z82" s="4" t="n"/>
+      <c r="AA82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AC82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="4" t="n"/>
+      <c r="I83" s="4" t="n"/>
+      <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
+      <c r="O83" s="4" t="n"/>
+      <c r="P83" s="4" t="n"/>
+      <c r="Q83" s="4" t="n"/>
+      <c r="R83" s="4" t="n"/>
+      <c r="S83" s="4" t="n"/>
+      <c r="T83" s="4" t="n"/>
+      <c r="U83" s="4" t="n"/>
+      <c r="V83" s="4" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="4" t="n"/>
+      <c r="Y83" s="4" t="n"/>
+      <c r="Z83" s="4" t="n"/>
+      <c r="AA83" s="4" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AC83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+      <c r="T84" s="4" t="n"/>
+      <c r="U84" s="4" t="n"/>
+      <c r="V84" s="4" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="4" t="n"/>
+      <c r="Y84" s="4" t="n"/>
+      <c r="Z84" s="4" t="n"/>
+      <c r="AA84" s="4" t="n"/>
+      <c r="AB84" s="4" t="n"/>
+      <c r="AC84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="n"/>
+      <c r="B85" s="4" t="n"/>
+      <c r="C85" s="4" t="n"/>
+      <c r="D85" s="4" t="n"/>
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
+      <c r="G85" s="4" t="n"/>
+      <c r="H85" s="4" t="n"/>
+      <c r="I85" s="4" t="n"/>
+      <c r="J85" s="4" t="n"/>
+      <c r="K85" s="4" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="4" t="n"/>
+      <c r="N85" s="4" t="n"/>
+      <c r="O85" s="4" t="n"/>
+      <c r="P85" s="4" t="n"/>
+      <c r="Q85" s="4" t="n"/>
+      <c r="R85" s="4" t="n"/>
+      <c r="S85" s="4" t="n"/>
+      <c r="T85" s="4" t="n"/>
+      <c r="U85" s="4" t="n"/>
+      <c r="V85" s="4" t="n"/>
+      <c r="W85" s="4" t="n"/>
+      <c r="X85" s="4" t="n"/>
+      <c r="Y85" s="4" t="n"/>
+      <c r="Z85" s="4" t="n"/>
+      <c r="AA85" s="4" t="n"/>
+      <c r="AB85" s="4" t="n"/>
+      <c r="AC85" s="4" t="n"/>
+      <c r="AD85" s="4" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="n"/>
+      <c r="B86" s="4" t="n"/>
+      <c r="C86" s="4" t="n"/>
+      <c r="D86" s="4" t="n"/>
+      <c r="E86" s="4" t="n"/>
+      <c r="F86" s="4" t="n"/>
+      <c r="G86" s="4" t="n"/>
+      <c r="H86" s="4" t="n"/>
+      <c r="I86" s="4" t="n"/>
+      <c r="J86" s="4" t="n"/>
+      <c r="K86" s="4" t="n"/>
+      <c r="L86" s="4" t="n"/>
+      <c r="M86" s="4" t="n"/>
+      <c r="N86" s="4" t="n"/>
+      <c r="O86" s="4" t="n"/>
+      <c r="P86" s="4" t="n"/>
+      <c r="Q86" s="4" t="n"/>
+      <c r="R86" s="4" t="n"/>
+      <c r="S86" s="4" t="n"/>
+      <c r="T86" s="4" t="n"/>
+      <c r="U86" s="4" t="n"/>
+      <c r="V86" s="4" t="n"/>
+      <c r="W86" s="4" t="n"/>
+      <c r="X86" s="4" t="n"/>
+      <c r="Y86" s="4" t="n"/>
+      <c r="Z86" s="4" t="n"/>
+      <c r="AA86" s="4" t="n"/>
+      <c r="AB86" s="4" t="n"/>
+      <c r="AC86" s="4" t="n"/>
+      <c r="AD86" s="4" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="n"/>
+      <c r="B87" s="4" t="n"/>
+      <c r="C87" s="4" t="n"/>
+      <c r="D87" s="4" t="n"/>
+      <c r="E87" s="4" t="n"/>
+      <c r="F87" s="4" t="n"/>
+      <c r="G87" s="4" t="n"/>
+      <c r="H87" s="4" t="n"/>
+      <c r="I87" s="4" t="n"/>
+      <c r="J87" s="4" t="n"/>
+      <c r="K87" s="4" t="n"/>
+      <c r="L87" s="4" t="n"/>
+      <c r="M87" s="4" t="n"/>
+      <c r="N87" s="4" t="n"/>
+      <c r="O87" s="4" t="n"/>
+      <c r="P87" s="4" t="n"/>
+      <c r="Q87" s="4" t="n"/>
+      <c r="R87" s="4" t="n"/>
+      <c r="S87" s="4" t="n"/>
+      <c r="T87" s="4" t="n"/>
+      <c r="U87" s="4" t="n"/>
+      <c r="V87" s="4" t="n"/>
+      <c r="W87" s="4" t="n"/>
+      <c r="X87" s="4" t="n"/>
+      <c r="Y87" s="4" t="n"/>
+      <c r="Z87" s="4" t="n"/>
+      <c r="AA87" s="4" t="n"/>
+      <c r="AB87" s="4" t="n"/>
+      <c r="AC87" s="4" t="n"/>
+      <c r="AD87" s="4" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="n"/>
+      <c r="B88" s="4" t="n"/>
+      <c r="C88" s="4" t="n"/>
+      <c r="D88" s="4" t="n"/>
+      <c r="E88" s="4" t="n"/>
+      <c r="F88" s="4" t="n"/>
+      <c r="G88" s="4" t="n"/>
+      <c r="H88" s="4" t="n"/>
+      <c r="I88" s="4" t="n"/>
+      <c r="J88" s="4" t="n"/>
+      <c r="K88" s="4" t="n"/>
+      <c r="L88" s="4" t="n"/>
+      <c r="M88" s="4" t="n"/>
+      <c r="N88" s="4" t="n"/>
+      <c r="O88" s="4" t="n"/>
+      <c r="P88" s="4" t="n"/>
+      <c r="Q88" s="4" t="n"/>
+      <c r="R88" s="4" t="n"/>
+      <c r="S88" s="4" t="n"/>
+      <c r="T88" s="4" t="n"/>
+      <c r="U88" s="4" t="n"/>
+      <c r="V88" s="4" t="n"/>
+      <c r="W88" s="4" t="n"/>
+      <c r="X88" s="4" t="n"/>
+      <c r="Y88" s="4" t="n"/>
+      <c r="Z88" s="4" t="n"/>
+      <c r="AA88" s="4" t="n"/>
+      <c r="AB88" s="4" t="n"/>
+      <c r="AC88" s="4" t="n"/>
+      <c r="AD88" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21275,7 +27675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD34"/>
+  <dimension ref="A1:AD84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22387,6 +28787,1606 @@
       <c r="AC34" s="4" t="n"/>
       <c r="AD34" s="4" t="n"/>
     </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="n"/>
+      <c r="C35" s="4" t="n"/>
+      <c r="D35" s="4" t="n"/>
+      <c r="E35" s="4" t="n"/>
+      <c r="F35" s="4" t="n"/>
+      <c r="G35" s="4" t="n"/>
+      <c r="H35" s="4" t="n"/>
+      <c r="I35" s="4" t="n"/>
+      <c r="J35" s="4" t="n"/>
+      <c r="K35" s="4" t="n"/>
+      <c r="L35" s="4" t="n"/>
+      <c r="M35" s="4" t="n"/>
+      <c r="N35" s="4" t="n"/>
+      <c r="O35" s="4" t="n"/>
+      <c r="P35" s="4" t="n"/>
+      <c r="Q35" s="4" t="n"/>
+      <c r="R35" s="4" t="n"/>
+      <c r="S35" s="4" t="n"/>
+      <c r="T35" s="4" t="n"/>
+      <c r="U35" s="4" t="n"/>
+      <c r="V35" s="4" t="n"/>
+      <c r="W35" s="4" t="n"/>
+      <c r="X35" s="4" t="n"/>
+      <c r="Y35" s="4" t="n"/>
+      <c r="Z35" s="4" t="n"/>
+      <c r="AA35" s="4" t="n"/>
+      <c r="AB35" s="4" t="n"/>
+      <c r="AC35" s="4" t="n"/>
+      <c r="AD35" s="4" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="n"/>
+      <c r="C36" s="4" t="n"/>
+      <c r="D36" s="4" t="n"/>
+      <c r="E36" s="4" t="n"/>
+      <c r="F36" s="4" t="n"/>
+      <c r="G36" s="4" t="n"/>
+      <c r="H36" s="4" t="n"/>
+      <c r="I36" s="4" t="n"/>
+      <c r="J36" s="4" t="n"/>
+      <c r="K36" s="4" t="n"/>
+      <c r="L36" s="4" t="n"/>
+      <c r="M36" s="4" t="n"/>
+      <c r="N36" s="4" t="n"/>
+      <c r="O36" s="4" t="n"/>
+      <c r="P36" s="4" t="n"/>
+      <c r="Q36" s="4" t="n"/>
+      <c r="R36" s="4" t="n"/>
+      <c r="S36" s="4" t="n"/>
+      <c r="T36" s="4" t="n"/>
+      <c r="U36" s="4" t="n"/>
+      <c r="V36" s="4" t="n"/>
+      <c r="W36" s="4" t="n"/>
+      <c r="X36" s="4" t="n"/>
+      <c r="Y36" s="4" t="n"/>
+      <c r="Z36" s="4" t="n"/>
+      <c r="AA36" s="4" t="n"/>
+      <c r="AB36" s="4" t="n"/>
+      <c r="AC36" s="4" t="n"/>
+      <c r="AD36" s="4" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="4" t="n"/>
+      <c r="C37" s="4" t="n"/>
+      <c r="D37" s="4" t="n"/>
+      <c r="E37" s="4" t="n"/>
+      <c r="F37" s="4" t="n"/>
+      <c r="G37" s="4" t="n"/>
+      <c r="H37" s="4" t="n"/>
+      <c r="I37" s="4" t="n"/>
+      <c r="J37" s="4" t="n"/>
+      <c r="K37" s="4" t="n"/>
+      <c r="L37" s="4" t="n"/>
+      <c r="M37" s="4" t="n"/>
+      <c r="N37" s="4" t="n"/>
+      <c r="O37" s="4" t="n"/>
+      <c r="P37" s="4" t="n"/>
+      <c r="Q37" s="4" t="n"/>
+      <c r="R37" s="4" t="n"/>
+      <c r="S37" s="4" t="n"/>
+      <c r="T37" s="4" t="n"/>
+      <c r="U37" s="4" t="n"/>
+      <c r="V37" s="4" t="n"/>
+      <c r="W37" s="4" t="n"/>
+      <c r="X37" s="4" t="n"/>
+      <c r="Y37" s="4" t="n"/>
+      <c r="Z37" s="4" t="n"/>
+      <c r="AA37" s="4" t="n"/>
+      <c r="AB37" s="4" t="n"/>
+      <c r="AC37" s="4" t="n"/>
+      <c r="AD37" s="4" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="4" t="n"/>
+      <c r="C38" s="4" t="n"/>
+      <c r="D38" s="4" t="n"/>
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="4" t="n"/>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="n"/>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
+      <c r="O38" s="4" t="n"/>
+      <c r="P38" s="4" t="n"/>
+      <c r="Q38" s="4" t="n"/>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="n"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+      <c r="V38" s="4" t="n"/>
+      <c r="W38" s="4" t="n"/>
+      <c r="X38" s="4" t="n"/>
+      <c r="Y38" s="4" t="n"/>
+      <c r="Z38" s="4" t="n"/>
+      <c r="AA38" s="4" t="n"/>
+      <c r="AB38" s="4" t="n"/>
+      <c r="AC38" s="4" t="n"/>
+      <c r="AD38" s="4" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="n"/>
+      <c r="C39" s="4" t="n"/>
+      <c r="D39" s="4" t="n"/>
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="n"/>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="n"/>
+      <c r="Q39" s="4" t="n"/>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="n"/>
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="n"/>
+      <c r="W39" s="4" t="n"/>
+      <c r="X39" s="4" t="n"/>
+      <c r="Y39" s="4" t="n"/>
+      <c r="Z39" s="4" t="n"/>
+      <c r="AA39" s="4" t="n"/>
+      <c r="AB39" s="4" t="n"/>
+      <c r="AC39" s="4" t="n"/>
+      <c r="AD39" s="4" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="4" t="n"/>
+      <c r="C40" s="4" t="n"/>
+      <c r="D40" s="4" t="n"/>
+      <c r="E40" s="4" t="n"/>
+      <c r="F40" s="4" t="n"/>
+      <c r="G40" s="4" t="n"/>
+      <c r="H40" s="4" t="n"/>
+      <c r="I40" s="4" t="n"/>
+      <c r="J40" s="4" t="n"/>
+      <c r="K40" s="4" t="n"/>
+      <c r="L40" s="4" t="n"/>
+      <c r="M40" s="4" t="n"/>
+      <c r="N40" s="4" t="n"/>
+      <c r="O40" s="4" t="n"/>
+      <c r="P40" s="4" t="n"/>
+      <c r="Q40" s="4" t="n"/>
+      <c r="R40" s="4" t="n"/>
+      <c r="S40" s="4" t="n"/>
+      <c r="T40" s="4" t="n"/>
+      <c r="U40" s="4" t="n"/>
+      <c r="V40" s="4" t="n"/>
+      <c r="W40" s="4" t="n"/>
+      <c r="X40" s="4" t="n"/>
+      <c r="Y40" s="4" t="n"/>
+      <c r="Z40" s="4" t="n"/>
+      <c r="AA40" s="4" t="n"/>
+      <c r="AB40" s="4" t="n"/>
+      <c r="AC40" s="4" t="n"/>
+      <c r="AD40" s="4" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="4" t="n"/>
+      <c r="C41" s="4" t="n"/>
+      <c r="D41" s="4" t="n"/>
+      <c r="E41" s="4" t="n"/>
+      <c r="F41" s="4" t="n"/>
+      <c r="G41" s="4" t="n"/>
+      <c r="H41" s="4" t="n"/>
+      <c r="I41" s="4" t="n"/>
+      <c r="J41" s="4" t="n"/>
+      <c r="K41" s="4" t="n"/>
+      <c r="L41" s="4" t="n"/>
+      <c r="M41" s="4" t="n"/>
+      <c r="N41" s="4" t="n"/>
+      <c r="O41" s="4" t="n"/>
+      <c r="P41" s="4" t="n"/>
+      <c r="Q41" s="4" t="n"/>
+      <c r="R41" s="4" t="n"/>
+      <c r="S41" s="4" t="n"/>
+      <c r="T41" s="4" t="n"/>
+      <c r="U41" s="4" t="n"/>
+      <c r="V41" s="4" t="n"/>
+      <c r="W41" s="4" t="n"/>
+      <c r="X41" s="4" t="n"/>
+      <c r="Y41" s="4" t="n"/>
+      <c r="Z41" s="4" t="n"/>
+      <c r="AA41" s="4" t="n"/>
+      <c r="AB41" s="4" t="n"/>
+      <c r="AC41" s="4" t="n"/>
+      <c r="AD41" s="4" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="4" t="n"/>
+      <c r="C42" s="4" t="n"/>
+      <c r="D42" s="4" t="n"/>
+      <c r="E42" s="4" t="n"/>
+      <c r="F42" s="4" t="n"/>
+      <c r="G42" s="4" t="n"/>
+      <c r="H42" s="4" t="n"/>
+      <c r="I42" s="4" t="n"/>
+      <c r="J42" s="4" t="n"/>
+      <c r="K42" s="4" t="n"/>
+      <c r="L42" s="4" t="n"/>
+      <c r="M42" s="4" t="n"/>
+      <c r="N42" s="4" t="n"/>
+      <c r="O42" s="4" t="n"/>
+      <c r="P42" s="4" t="n"/>
+      <c r="Q42" s="4" t="n"/>
+      <c r="R42" s="4" t="n"/>
+      <c r="S42" s="4" t="n"/>
+      <c r="T42" s="4" t="n"/>
+      <c r="U42" s="4" t="n"/>
+      <c r="V42" s="4" t="n"/>
+      <c r="W42" s="4" t="n"/>
+      <c r="X42" s="4" t="n"/>
+      <c r="Y42" s="4" t="n"/>
+      <c r="Z42" s="4" t="n"/>
+      <c r="AA42" s="4" t="n"/>
+      <c r="AB42" s="4" t="n"/>
+      <c r="AC42" s="4" t="n"/>
+      <c r="AD42" s="4" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="4" t="n"/>
+      <c r="C43" s="4" t="n"/>
+      <c r="D43" s="4" t="n"/>
+      <c r="E43" s="4" t="n"/>
+      <c r="F43" s="4" t="n"/>
+      <c r="G43" s="4" t="n"/>
+      <c r="H43" s="4" t="n"/>
+      <c r="I43" s="4" t="n"/>
+      <c r="J43" s="4" t="n"/>
+      <c r="K43" s="4" t="n"/>
+      <c r="L43" s="4" t="n"/>
+      <c r="M43" s="4" t="n"/>
+      <c r="N43" s="4" t="n"/>
+      <c r="O43" s="4" t="n"/>
+      <c r="P43" s="4" t="n"/>
+      <c r="Q43" s="4" t="n"/>
+      <c r="R43" s="4" t="n"/>
+      <c r="S43" s="4" t="n"/>
+      <c r="T43" s="4" t="n"/>
+      <c r="U43" s="4" t="n"/>
+      <c r="V43" s="4" t="n"/>
+      <c r="W43" s="4" t="n"/>
+      <c r="X43" s="4" t="n"/>
+      <c r="Y43" s="4" t="n"/>
+      <c r="Z43" s="4" t="n"/>
+      <c r="AA43" s="4" t="n"/>
+      <c r="AB43" s="4" t="n"/>
+      <c r="AC43" s="4" t="n"/>
+      <c r="AD43" s="4" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="4" t="n"/>
+      <c r="C44" s="4" t="n"/>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="4" t="n"/>
+      <c r="F44" s="4" t="n"/>
+      <c r="G44" s="4" t="n"/>
+      <c r="H44" s="4" t="n"/>
+      <c r="I44" s="4" t="n"/>
+      <c r="J44" s="4" t="n"/>
+      <c r="K44" s="4" t="n"/>
+      <c r="L44" s="4" t="n"/>
+      <c r="M44" s="4" t="n"/>
+      <c r="N44" s="4" t="n"/>
+      <c r="O44" s="4" t="n"/>
+      <c r="P44" s="4" t="n"/>
+      <c r="Q44" s="4" t="n"/>
+      <c r="R44" s="4" t="n"/>
+      <c r="S44" s="4" t="n"/>
+      <c r="T44" s="4" t="n"/>
+      <c r="U44" s="4" t="n"/>
+      <c r="V44" s="4" t="n"/>
+      <c r="W44" s="4" t="n"/>
+      <c r="X44" s="4" t="n"/>
+      <c r="Y44" s="4" t="n"/>
+      <c r="Z44" s="4" t="n"/>
+      <c r="AA44" s="4" t="n"/>
+      <c r="AB44" s="4" t="n"/>
+      <c r="AC44" s="4" t="n"/>
+      <c r="AD44" s="4" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n"/>
+      <c r="B45" s="4" t="n"/>
+      <c r="C45" s="4" t="n"/>
+      <c r="D45" s="4" t="n"/>
+      <c r="E45" s="4" t="n"/>
+      <c r="F45" s="4" t="n"/>
+      <c r="G45" s="4" t="n"/>
+      <c r="H45" s="4" t="n"/>
+      <c r="I45" s="4" t="n"/>
+      <c r="J45" s="4" t="n"/>
+      <c r="K45" s="4" t="n"/>
+      <c r="L45" s="4" t="n"/>
+      <c r="M45" s="4" t="n"/>
+      <c r="N45" s="4" t="n"/>
+      <c r="O45" s="4" t="n"/>
+      <c r="P45" s="4" t="n"/>
+      <c r="Q45" s="4" t="n"/>
+      <c r="R45" s="4" t="n"/>
+      <c r="S45" s="4" t="n"/>
+      <c r="T45" s="4" t="n"/>
+      <c r="U45" s="4" t="n"/>
+      <c r="V45" s="4" t="n"/>
+      <c r="W45" s="4" t="n"/>
+      <c r="X45" s="4" t="n"/>
+      <c r="Y45" s="4" t="n"/>
+      <c r="Z45" s="4" t="n"/>
+      <c r="AA45" s="4" t="n"/>
+      <c r="AB45" s="4" t="n"/>
+      <c r="AC45" s="4" t="n"/>
+      <c r="AD45" s="4" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="n"/>
+      <c r="B46" s="4" t="n"/>
+      <c r="C46" s="4" t="n"/>
+      <c r="D46" s="4" t="n"/>
+      <c r="E46" s="4" t="n"/>
+      <c r="F46" s="4" t="n"/>
+      <c r="G46" s="4" t="n"/>
+      <c r="H46" s="4" t="n"/>
+      <c r="I46" s="4" t="n"/>
+      <c r="J46" s="4" t="n"/>
+      <c r="K46" s="4" t="n"/>
+      <c r="L46" s="4" t="n"/>
+      <c r="M46" s="4" t="n"/>
+      <c r="N46" s="4" t="n"/>
+      <c r="O46" s="4" t="n"/>
+      <c r="P46" s="4" t="n"/>
+      <c r="Q46" s="4" t="n"/>
+      <c r="R46" s="4" t="n"/>
+      <c r="S46" s="4" t="n"/>
+      <c r="T46" s="4" t="n"/>
+      <c r="U46" s="4" t="n"/>
+      <c r="V46" s="4" t="n"/>
+      <c r="W46" s="4" t="n"/>
+      <c r="X46" s="4" t="n"/>
+      <c r="Y46" s="4" t="n"/>
+      <c r="Z46" s="4" t="n"/>
+      <c r="AA46" s="4" t="n"/>
+      <c r="AB46" s="4" t="n"/>
+      <c r="AC46" s="4" t="n"/>
+      <c r="AD46" s="4" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="n"/>
+      <c r="C47" s="4" t="n"/>
+      <c r="D47" s="4" t="n"/>
+      <c r="E47" s="4" t="n"/>
+      <c r="F47" s="4" t="n"/>
+      <c r="G47" s="4" t="n"/>
+      <c r="H47" s="4" t="n"/>
+      <c r="I47" s="4" t="n"/>
+      <c r="J47" s="4" t="n"/>
+      <c r="K47" s="4" t="n"/>
+      <c r="L47" s="4" t="n"/>
+      <c r="M47" s="4" t="n"/>
+      <c r="N47" s="4" t="n"/>
+      <c r="O47" s="4" t="n"/>
+      <c r="P47" s="4" t="n"/>
+      <c r="Q47" s="4" t="n"/>
+      <c r="R47" s="4" t="n"/>
+      <c r="S47" s="4" t="n"/>
+      <c r="T47" s="4" t="n"/>
+      <c r="U47" s="4" t="n"/>
+      <c r="V47" s="4" t="n"/>
+      <c r="W47" s="4" t="n"/>
+      <c r="X47" s="4" t="n"/>
+      <c r="Y47" s="4" t="n"/>
+      <c r="Z47" s="4" t="n"/>
+      <c r="AA47" s="4" t="n"/>
+      <c r="AB47" s="4" t="n"/>
+      <c r="AC47" s="4" t="n"/>
+      <c r="AD47" s="4" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="4" t="n"/>
+      <c r="C48" s="4" t="n"/>
+      <c r="D48" s="4" t="n"/>
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="n"/>
+      <c r="Q48" s="4" t="n"/>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="n"/>
+      <c r="W48" s="4" t="n"/>
+      <c r="X48" s="4" t="n"/>
+      <c r="Y48" s="4" t="n"/>
+      <c r="Z48" s="4" t="n"/>
+      <c r="AA48" s="4" t="n"/>
+      <c r="AB48" s="4" t="n"/>
+      <c r="AC48" s="4" t="n"/>
+      <c r="AD48" s="4" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="n"/>
+      <c r="C49" s="4" t="n"/>
+      <c r="D49" s="4" t="n"/>
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="n"/>
+      <c r="Q49" s="4" t="n"/>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="n"/>
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="n"/>
+      <c r="W49" s="4" t="n"/>
+      <c r="X49" s="4" t="n"/>
+      <c r="Y49" s="4" t="n"/>
+      <c r="Z49" s="4" t="n"/>
+      <c r="AA49" s="4" t="n"/>
+      <c r="AB49" s="4" t="n"/>
+      <c r="AC49" s="4" t="n"/>
+      <c r="AD49" s="4" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="4" t="n"/>
+      <c r="C50" s="4" t="n"/>
+      <c r="D50" s="4" t="n"/>
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="n"/>
+      <c r="Q50" s="4" t="n"/>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="n"/>
+      <c r="W50" s="4" t="n"/>
+      <c r="X50" s="4" t="n"/>
+      <c r="Y50" s="4" t="n"/>
+      <c r="Z50" s="4" t="n"/>
+      <c r="AA50" s="4" t="n"/>
+      <c r="AB50" s="4" t="n"/>
+      <c r="AC50" s="4" t="n"/>
+      <c r="AD50" s="4" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="n"/>
+      <c r="C51" s="4" t="n"/>
+      <c r="D51" s="4" t="n"/>
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s="4" t="n"/>
+      <c r="I51" s="4" t="n"/>
+      <c r="J51" s="4" t="n"/>
+      <c r="K51" s="4" t="n"/>
+      <c r="L51" s="4" t="n"/>
+      <c r="M51" s="4" t="n"/>
+      <c r="N51" s="4" t="n"/>
+      <c r="O51" s="4" t="n"/>
+      <c r="P51" s="4" t="n"/>
+      <c r="Q51" s="4" t="n"/>
+      <c r="R51" s="4" t="n"/>
+      <c r="S51" s="4" t="n"/>
+      <c r="T51" s="4" t="n"/>
+      <c r="U51" s="4" t="n"/>
+      <c r="V51" s="4" t="n"/>
+      <c r="W51" s="4" t="n"/>
+      <c r="X51" s="4" t="n"/>
+      <c r="Y51" s="4" t="n"/>
+      <c r="Z51" s="4" t="n"/>
+      <c r="AA51" s="4" t="n"/>
+      <c r="AB51" s="4" t="n"/>
+      <c r="AC51" s="4" t="n"/>
+      <c r="AD51" s="4" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="4" t="n"/>
+      <c r="D52" s="4" t="n"/>
+      <c r="E52" s="4" t="n"/>
+      <c r="F52" s="4" t="n"/>
+      <c r="G52" s="4" t="n"/>
+      <c r="H52" s="4" t="n"/>
+      <c r="I52" s="4" t="n"/>
+      <c r="J52" s="4" t="n"/>
+      <c r="K52" s="4" t="n"/>
+      <c r="L52" s="4" t="n"/>
+      <c r="M52" s="4" t="n"/>
+      <c r="N52" s="4" t="n"/>
+      <c r="O52" s="4" t="n"/>
+      <c r="P52" s="4" t="n"/>
+      <c r="Q52" s="4" t="n"/>
+      <c r="R52" s="4" t="n"/>
+      <c r="S52" s="4" t="n"/>
+      <c r="T52" s="4" t="n"/>
+      <c r="U52" s="4" t="n"/>
+      <c r="V52" s="4" t="n"/>
+      <c r="W52" s="4" t="n"/>
+      <c r="X52" s="4" t="n"/>
+      <c r="Y52" s="4" t="n"/>
+      <c r="Z52" s="4" t="n"/>
+      <c r="AA52" s="4" t="n"/>
+      <c r="AB52" s="4" t="n"/>
+      <c r="AC52" s="4" t="n"/>
+      <c r="AD52" s="4" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="n"/>
+      <c r="C53" s="4" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="n"/>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="n"/>
+      <c r="Q53" s="4" t="n"/>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="n"/>
+      <c r="W53" s="4" t="n"/>
+      <c r="X53" s="4" t="n"/>
+      <c r="Y53" s="4" t="n"/>
+      <c r="Z53" s="4" t="n"/>
+      <c r="AA53" s="4" t="n"/>
+      <c r="AB53" s="4" t="n"/>
+      <c r="AC53" s="4" t="n"/>
+      <c r="AD53" s="4" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="n"/>
+      <c r="C54" s="4" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="n"/>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="n"/>
+      <c r="Q54" s="4" t="n"/>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="n"/>
+      <c r="W54" s="4" t="n"/>
+      <c r="X54" s="4" t="n"/>
+      <c r="Y54" s="4" t="n"/>
+      <c r="Z54" s="4" t="n"/>
+      <c r="AA54" s="4" t="n"/>
+      <c r="AB54" s="4" t="n"/>
+      <c r="AC54" s="4" t="n"/>
+      <c r="AD54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4" t="n"/>
+      <c r="N55" s="4" t="n"/>
+      <c r="O55" s="4" t="n"/>
+      <c r="P55" s="4" t="n"/>
+      <c r="Q55" s="4" t="n"/>
+      <c r="R55" s="4" t="n"/>
+      <c r="S55" s="4" t="n"/>
+      <c r="T55" s="4" t="n"/>
+      <c r="U55" s="4" t="n"/>
+      <c r="V55" s="4" t="n"/>
+      <c r="W55" s="4" t="n"/>
+      <c r="X55" s="4" t="n"/>
+      <c r="Y55" s="4" t="n"/>
+      <c r="Z55" s="4" t="n"/>
+      <c r="AA55" s="4" t="n"/>
+      <c r="AB55" s="4" t="n"/>
+      <c r="AC55" s="4" t="n"/>
+      <c r="AD55" s="4" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="n"/>
+      <c r="C56" s="4" t="n"/>
+      <c r="D56" s="4" t="n"/>
+      <c r="E56" s="4" t="n"/>
+      <c r="F56" s="4" t="n"/>
+      <c r="G56" s="4" t="n"/>
+      <c r="H56" s="4" t="n"/>
+      <c r="I56" s="4" t="n"/>
+      <c r="J56" s="4" t="n"/>
+      <c r="K56" s="4" t="n"/>
+      <c r="L56" s="4" t="n"/>
+      <c r="M56" s="4" t="n"/>
+      <c r="N56" s="4" t="n"/>
+      <c r="O56" s="4" t="n"/>
+      <c r="P56" s="4" t="n"/>
+      <c r="Q56" s="4" t="n"/>
+      <c r="R56" s="4" t="n"/>
+      <c r="S56" s="4" t="n"/>
+      <c r="T56" s="4" t="n"/>
+      <c r="U56" s="4" t="n"/>
+      <c r="V56" s="4" t="n"/>
+      <c r="W56" s="4" t="n"/>
+      <c r="X56" s="4" t="n"/>
+      <c r="Y56" s="4" t="n"/>
+      <c r="Z56" s="4" t="n"/>
+      <c r="AA56" s="4" t="n"/>
+      <c r="AB56" s="4" t="n"/>
+      <c r="AC56" s="4" t="n"/>
+      <c r="AD56" s="4" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="n"/>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="4" t="n"/>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="n"/>
+      <c r="Q57" s="4" t="n"/>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="n"/>
+      <c r="W57" s="4" t="n"/>
+      <c r="X57" s="4" t="n"/>
+      <c r="Y57" s="4" t="n"/>
+      <c r="Z57" s="4" t="n"/>
+      <c r="AA57" s="4" t="n"/>
+      <c r="AB57" s="4" t="n"/>
+      <c r="AC57" s="4" t="n"/>
+      <c r="AD57" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="n"/>
+      <c r="C58" s="4" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="n"/>
+      <c r="Q58" s="4" t="n"/>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="n"/>
+      <c r="W58" s="4" t="n"/>
+      <c r="X58" s="4" t="n"/>
+      <c r="Y58" s="4" t="n"/>
+      <c r="Z58" s="4" t="n"/>
+      <c r="AA58" s="4" t="n"/>
+      <c r="AB58" s="4" t="n"/>
+      <c r="AC58" s="4" t="n"/>
+      <c r="AD58" s="4" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="4" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="n"/>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="n"/>
+      <c r="Q59" s="4" t="n"/>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="n"/>
+      <c r="W59" s="4" t="n"/>
+      <c r="X59" s="4" t="n"/>
+      <c r="Y59" s="4" t="n"/>
+      <c r="Z59" s="4" t="n"/>
+      <c r="AA59" s="4" t="n"/>
+      <c r="AB59" s="4" t="n"/>
+      <c r="AC59" s="4" t="n"/>
+      <c r="AD59" s="4" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="4" t="n"/>
+      <c r="C60" s="4" t="n"/>
+      <c r="D60" s="4" t="n"/>
+      <c r="E60" s="4" t="n"/>
+      <c r="F60" s="4" t="n"/>
+      <c r="G60" s="4" t="n"/>
+      <c r="H60" s="4" t="n"/>
+      <c r="I60" s="4" t="n"/>
+      <c r="J60" s="4" t="n"/>
+      <c r="K60" s="4" t="n"/>
+      <c r="L60" s="4" t="n"/>
+      <c r="M60" s="4" t="n"/>
+      <c r="N60" s="4" t="n"/>
+      <c r="O60" s="4" t="n"/>
+      <c r="P60" s="4" t="n"/>
+      <c r="Q60" s="4" t="n"/>
+      <c r="R60" s="4" t="n"/>
+      <c r="S60" s="4" t="n"/>
+      <c r="T60" s="4" t="n"/>
+      <c r="U60" s="4" t="n"/>
+      <c r="V60" s="4" t="n"/>
+      <c r="W60" s="4" t="n"/>
+      <c r="X60" s="4" t="n"/>
+      <c r="Y60" s="4" t="n"/>
+      <c r="Z60" s="4" t="n"/>
+      <c r="AA60" s="4" t="n"/>
+      <c r="AB60" s="4" t="n"/>
+      <c r="AC60" s="4" t="n"/>
+      <c r="AD60" s="4" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="4" t="n"/>
+      <c r="C61" s="4" t="n"/>
+      <c r="D61" s="4" t="n"/>
+      <c r="E61" s="4" t="n"/>
+      <c r="F61" s="4" t="n"/>
+      <c r="G61" s="4" t="n"/>
+      <c r="H61" s="4" t="n"/>
+      <c r="I61" s="4" t="n"/>
+      <c r="J61" s="4" t="n"/>
+      <c r="K61" s="4" t="n"/>
+      <c r="L61" s="4" t="n"/>
+      <c r="M61" s="4" t="n"/>
+      <c r="N61" s="4" t="n"/>
+      <c r="O61" s="4" t="n"/>
+      <c r="P61" s="4" t="n"/>
+      <c r="Q61" s="4" t="n"/>
+      <c r="R61" s="4" t="n"/>
+      <c r="S61" s="4" t="n"/>
+      <c r="T61" s="4" t="n"/>
+      <c r="U61" s="4" t="n"/>
+      <c r="V61" s="4" t="n"/>
+      <c r="W61" s="4" t="n"/>
+      <c r="X61" s="4" t="n"/>
+      <c r="Y61" s="4" t="n"/>
+      <c r="Z61" s="4" t="n"/>
+      <c r="AA61" s="4" t="n"/>
+      <c r="AB61" s="4" t="n"/>
+      <c r="AC61" s="4" t="n"/>
+      <c r="AD61" s="4" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="4" t="n"/>
+      <c r="C62" s="4" t="n"/>
+      <c r="D62" s="4" t="n"/>
+      <c r="E62" s="4" t="n"/>
+      <c r="F62" s="4" t="n"/>
+      <c r="G62" s="4" t="n"/>
+      <c r="H62" s="4" t="n"/>
+      <c r="I62" s="4" t="n"/>
+      <c r="J62" s="4" t="n"/>
+      <c r="K62" s="4" t="n"/>
+      <c r="L62" s="4" t="n"/>
+      <c r="M62" s="4" t="n"/>
+      <c r="N62" s="4" t="n"/>
+      <c r="O62" s="4" t="n"/>
+      <c r="P62" s="4" t="n"/>
+      <c r="Q62" s="4" t="n"/>
+      <c r="R62" s="4" t="n"/>
+      <c r="S62" s="4" t="n"/>
+      <c r="T62" s="4" t="n"/>
+      <c r="U62" s="4" t="n"/>
+      <c r="V62" s="4" t="n"/>
+      <c r="W62" s="4" t="n"/>
+      <c r="X62" s="4" t="n"/>
+      <c r="Y62" s="4" t="n"/>
+      <c r="Z62" s="4" t="n"/>
+      <c r="AA62" s="4" t="n"/>
+      <c r="AB62" s="4" t="n"/>
+      <c r="AC62" s="4" t="n"/>
+      <c r="AD62" s="4" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="4" t="n"/>
+      <c r="C63" s="4" t="n"/>
+      <c r="D63" s="4" t="n"/>
+      <c r="E63" s="4" t="n"/>
+      <c r="F63" s="4" t="n"/>
+      <c r="G63" s="4" t="n"/>
+      <c r="H63" s="4" t="n"/>
+      <c r="I63" s="4" t="n"/>
+      <c r="J63" s="4" t="n"/>
+      <c r="K63" s="4" t="n"/>
+      <c r="L63" s="4" t="n"/>
+      <c r="M63" s="4" t="n"/>
+      <c r="N63" s="4" t="n"/>
+      <c r="O63" s="4" t="n"/>
+      <c r="P63" s="4" t="n"/>
+      <c r="Q63" s="4" t="n"/>
+      <c r="R63" s="4" t="n"/>
+      <c r="S63" s="4" t="n"/>
+      <c r="T63" s="4" t="n"/>
+      <c r="U63" s="4" t="n"/>
+      <c r="V63" s="4" t="n"/>
+      <c r="W63" s="4" t="n"/>
+      <c r="X63" s="4" t="n"/>
+      <c r="Y63" s="4" t="n"/>
+      <c r="Z63" s="4" t="n"/>
+      <c r="AA63" s="4" t="n"/>
+      <c r="AB63" s="4" t="n"/>
+      <c r="AC63" s="4" t="n"/>
+      <c r="AD63" s="4" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="4" t="n"/>
+      <c r="C64" s="4" t="n"/>
+      <c r="D64" s="4" t="n"/>
+      <c r="E64" s="4" t="n"/>
+      <c r="F64" s="4" t="n"/>
+      <c r="G64" s="4" t="n"/>
+      <c r="H64" s="4" t="n"/>
+      <c r="I64" s="4" t="n"/>
+      <c r="J64" s="4" t="n"/>
+      <c r="K64" s="4" t="n"/>
+      <c r="L64" s="4" t="n"/>
+      <c r="M64" s="4" t="n"/>
+      <c r="N64" s="4" t="n"/>
+      <c r="O64" s="4" t="n"/>
+      <c r="P64" s="4" t="n"/>
+      <c r="Q64" s="4" t="n"/>
+      <c r="R64" s="4" t="n"/>
+      <c r="S64" s="4" t="n"/>
+      <c r="T64" s="4" t="n"/>
+      <c r="U64" s="4" t="n"/>
+      <c r="V64" s="4" t="n"/>
+      <c r="W64" s="4" t="n"/>
+      <c r="X64" s="4" t="n"/>
+      <c r="Y64" s="4" t="n"/>
+      <c r="Z64" s="4" t="n"/>
+      <c r="AA64" s="4" t="n"/>
+      <c r="AB64" s="4" t="n"/>
+      <c r="AC64" s="4" t="n"/>
+      <c r="AD64" s="4" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="4" t="n"/>
+      <c r="C65" s="4" t="n"/>
+      <c r="D65" s="4" t="n"/>
+      <c r="E65" s="4" t="n"/>
+      <c r="F65" s="4" t="n"/>
+      <c r="G65" s="4" t="n"/>
+      <c r="H65" s="4" t="n"/>
+      <c r="I65" s="4" t="n"/>
+      <c r="J65" s="4" t="n"/>
+      <c r="K65" s="4" t="n"/>
+      <c r="L65" s="4" t="n"/>
+      <c r="M65" s="4" t="n"/>
+      <c r="N65" s="4" t="n"/>
+      <c r="O65" s="4" t="n"/>
+      <c r="P65" s="4" t="n"/>
+      <c r="Q65" s="4" t="n"/>
+      <c r="R65" s="4" t="n"/>
+      <c r="S65" s="4" t="n"/>
+      <c r="T65" s="4" t="n"/>
+      <c r="U65" s="4" t="n"/>
+      <c r="V65" s="4" t="n"/>
+      <c r="W65" s="4" t="n"/>
+      <c r="X65" s="4" t="n"/>
+      <c r="Y65" s="4" t="n"/>
+      <c r="Z65" s="4" t="n"/>
+      <c r="AA65" s="4" t="n"/>
+      <c r="AB65" s="4" t="n"/>
+      <c r="AC65" s="4" t="n"/>
+      <c r="AD65" s="4" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="4" t="n"/>
+      <c r="C66" s="4" t="n"/>
+      <c r="D66" s="4" t="n"/>
+      <c r="E66" s="4" t="n"/>
+      <c r="F66" s="4" t="n"/>
+      <c r="G66" s="4" t="n"/>
+      <c r="H66" s="4" t="n"/>
+      <c r="I66" s="4" t="n"/>
+      <c r="J66" s="4" t="n"/>
+      <c r="K66" s="4" t="n"/>
+      <c r="L66" s="4" t="n"/>
+      <c r="M66" s="4" t="n"/>
+      <c r="N66" s="4" t="n"/>
+      <c r="O66" s="4" t="n"/>
+      <c r="P66" s="4" t="n"/>
+      <c r="Q66" s="4" t="n"/>
+      <c r="R66" s="4" t="n"/>
+      <c r="S66" s="4" t="n"/>
+      <c r="T66" s="4" t="n"/>
+      <c r="U66" s="4" t="n"/>
+      <c r="V66" s="4" t="n"/>
+      <c r="W66" s="4" t="n"/>
+      <c r="X66" s="4" t="n"/>
+      <c r="Y66" s="4" t="n"/>
+      <c r="Z66" s="4" t="n"/>
+      <c r="AA66" s="4" t="n"/>
+      <c r="AB66" s="4" t="n"/>
+      <c r="AC66" s="4" t="n"/>
+      <c r="AD66" s="4" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="n"/>
+      <c r="B67" s="4" t="n"/>
+      <c r="C67" s="4" t="n"/>
+      <c r="D67" s="4" t="n"/>
+      <c r="E67" s="4" t="n"/>
+      <c r="F67" s="4" t="n"/>
+      <c r="G67" s="4" t="n"/>
+      <c r="H67" s="4" t="n"/>
+      <c r="I67" s="4" t="n"/>
+      <c r="J67" s="4" t="n"/>
+      <c r="K67" s="4" t="n"/>
+      <c r="L67" s="4" t="n"/>
+      <c r="M67" s="4" t="n"/>
+      <c r="N67" s="4" t="n"/>
+      <c r="O67" s="4" t="n"/>
+      <c r="P67" s="4" t="n"/>
+      <c r="Q67" s="4" t="n"/>
+      <c r="R67" s="4" t="n"/>
+      <c r="S67" s="4" t="n"/>
+      <c r="T67" s="4" t="n"/>
+      <c r="U67" s="4" t="n"/>
+      <c r="V67" s="4" t="n"/>
+      <c r="W67" s="4" t="n"/>
+      <c r="X67" s="4" t="n"/>
+      <c r="Y67" s="4" t="n"/>
+      <c r="Z67" s="4" t="n"/>
+      <c r="AA67" s="4" t="n"/>
+      <c r="AB67" s="4" t="n"/>
+      <c r="AC67" s="4" t="n"/>
+      <c r="AD67" s="4" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="n"/>
+      <c r="B68" s="4" t="n"/>
+      <c r="C68" s="4" t="n"/>
+      <c r="D68" s="4" t="n"/>
+      <c r="E68" s="4" t="n"/>
+      <c r="F68" s="4" t="n"/>
+      <c r="G68" s="4" t="n"/>
+      <c r="H68" s="4" t="n"/>
+      <c r="I68" s="4" t="n"/>
+      <c r="J68" s="4" t="n"/>
+      <c r="K68" s="4" t="n"/>
+      <c r="L68" s="4" t="n"/>
+      <c r="M68" s="4" t="n"/>
+      <c r="N68" s="4" t="n"/>
+      <c r="O68" s="4" t="n"/>
+      <c r="P68" s="4" t="n"/>
+      <c r="Q68" s="4" t="n"/>
+      <c r="R68" s="4" t="n"/>
+      <c r="S68" s="4" t="n"/>
+      <c r="T68" s="4" t="n"/>
+      <c r="U68" s="4" t="n"/>
+      <c r="V68" s="4" t="n"/>
+      <c r="W68" s="4" t="n"/>
+      <c r="X68" s="4" t="n"/>
+      <c r="Y68" s="4" t="n"/>
+      <c r="Z68" s="4" t="n"/>
+      <c r="AA68" s="4" t="n"/>
+      <c r="AB68" s="4" t="n"/>
+      <c r="AC68" s="4" t="n"/>
+      <c r="AD68" s="4" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="4" t="n"/>
+      <c r="C69" s="4" t="n"/>
+      <c r="D69" s="4" t="n"/>
+      <c r="E69" s="4" t="n"/>
+      <c r="F69" s="4" t="n"/>
+      <c r="G69" s="4" t="n"/>
+      <c r="H69" s="4" t="n"/>
+      <c r="I69" s="4" t="n"/>
+      <c r="J69" s="4" t="n"/>
+      <c r="K69" s="4" t="n"/>
+      <c r="L69" s="4" t="n"/>
+      <c r="M69" s="4" t="n"/>
+      <c r="N69" s="4" t="n"/>
+      <c r="O69" s="4" t="n"/>
+      <c r="P69" s="4" t="n"/>
+      <c r="Q69" s="4" t="n"/>
+      <c r="R69" s="4" t="n"/>
+      <c r="S69" s="4" t="n"/>
+      <c r="T69" s="4" t="n"/>
+      <c r="U69" s="4" t="n"/>
+      <c r="V69" s="4" t="n"/>
+      <c r="W69" s="4" t="n"/>
+      <c r="X69" s="4" t="n"/>
+      <c r="Y69" s="4" t="n"/>
+      <c r="Z69" s="4" t="n"/>
+      <c r="AA69" s="4" t="n"/>
+      <c r="AB69" s="4" t="n"/>
+      <c r="AC69" s="4" t="n"/>
+      <c r="AD69" s="4" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="4" t="n"/>
+      <c r="C70" s="4" t="n"/>
+      <c r="D70" s="4" t="n"/>
+      <c r="E70" s="4" t="n"/>
+      <c r="F70" s="4" t="n"/>
+      <c r="G70" s="4" t="n"/>
+      <c r="H70" s="4" t="n"/>
+      <c r="I70" s="4" t="n"/>
+      <c r="J70" s="4" t="n"/>
+      <c r="K70" s="4" t="n"/>
+      <c r="L70" s="4" t="n"/>
+      <c r="M70" s="4" t="n"/>
+      <c r="N70" s="4" t="n"/>
+      <c r="O70" s="4" t="n"/>
+      <c r="P70" s="4" t="n"/>
+      <c r="Q70" s="4" t="n"/>
+      <c r="R70" s="4" t="n"/>
+      <c r="S70" s="4" t="n"/>
+      <c r="T70" s="4" t="n"/>
+      <c r="U70" s="4" t="n"/>
+      <c r="V70" s="4" t="n"/>
+      <c r="W70" s="4" t="n"/>
+      <c r="X70" s="4" t="n"/>
+      <c r="Y70" s="4" t="n"/>
+      <c r="Z70" s="4" t="n"/>
+      <c r="AA70" s="4" t="n"/>
+      <c r="AB70" s="4" t="n"/>
+      <c r="AC70" s="4" t="n"/>
+      <c r="AD70" s="4" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="4" t="n"/>
+      <c r="C71" s="4" t="n"/>
+      <c r="D71" s="4" t="n"/>
+      <c r="E71" s="4" t="n"/>
+      <c r="F71" s="4" t="n"/>
+      <c r="G71" s="4" t="n"/>
+      <c r="H71" s="4" t="n"/>
+      <c r="I71" s="4" t="n"/>
+      <c r="J71" s="4" t="n"/>
+      <c r="K71" s="4" t="n"/>
+      <c r="L71" s="4" t="n"/>
+      <c r="M71" s="4" t="n"/>
+      <c r="N71" s="4" t="n"/>
+      <c r="O71" s="4" t="n"/>
+      <c r="P71" s="4" t="n"/>
+      <c r="Q71" s="4" t="n"/>
+      <c r="R71" s="4" t="n"/>
+      <c r="S71" s="4" t="n"/>
+      <c r="T71" s="4" t="n"/>
+      <c r="U71" s="4" t="n"/>
+      <c r="V71" s="4" t="n"/>
+      <c r="W71" s="4" t="n"/>
+      <c r="X71" s="4" t="n"/>
+      <c r="Y71" s="4" t="n"/>
+      <c r="Z71" s="4" t="n"/>
+      <c r="AA71" s="4" t="n"/>
+      <c r="AB71" s="4" t="n"/>
+      <c r="AC71" s="4" t="n"/>
+      <c r="AD71" s="4" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="4" t="n"/>
+      <c r="C72" s="4" t="n"/>
+      <c r="D72" s="4" t="n"/>
+      <c r="E72" s="4" t="n"/>
+      <c r="F72" s="4" t="n"/>
+      <c r="G72" s="4" t="n"/>
+      <c r="H72" s="4" t="n"/>
+      <c r="I72" s="4" t="n"/>
+      <c r="J72" s="4" t="n"/>
+      <c r="K72" s="4" t="n"/>
+      <c r="L72" s="4" t="n"/>
+      <c r="M72" s="4" t="n"/>
+      <c r="N72" s="4" t="n"/>
+      <c r="O72" s="4" t="n"/>
+      <c r="P72" s="4" t="n"/>
+      <c r="Q72" s="4" t="n"/>
+      <c r="R72" s="4" t="n"/>
+      <c r="S72" s="4" t="n"/>
+      <c r="T72" s="4" t="n"/>
+      <c r="U72" s="4" t="n"/>
+      <c r="V72" s="4" t="n"/>
+      <c r="W72" s="4" t="n"/>
+      <c r="X72" s="4" t="n"/>
+      <c r="Y72" s="4" t="n"/>
+      <c r="Z72" s="4" t="n"/>
+      <c r="AA72" s="4" t="n"/>
+      <c r="AB72" s="4" t="n"/>
+      <c r="AC72" s="4" t="n"/>
+      <c r="AD72" s="4" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="4" t="n"/>
+      <c r="C73" s="4" t="n"/>
+      <c r="D73" s="4" t="n"/>
+      <c r="E73" s="4" t="n"/>
+      <c r="F73" s="4" t="n"/>
+      <c r="G73" s="4" t="n"/>
+      <c r="H73" s="4" t="n"/>
+      <c r="I73" s="4" t="n"/>
+      <c r="J73" s="4" t="n"/>
+      <c r="K73" s="4" t="n"/>
+      <c r="L73" s="4" t="n"/>
+      <c r="M73" s="4" t="n"/>
+      <c r="N73" s="4" t="n"/>
+      <c r="O73" s="4" t="n"/>
+      <c r="P73" s="4" t="n"/>
+      <c r="Q73" s="4" t="n"/>
+      <c r="R73" s="4" t="n"/>
+      <c r="S73" s="4" t="n"/>
+      <c r="T73" s="4" t="n"/>
+      <c r="U73" s="4" t="n"/>
+      <c r="V73" s="4" t="n"/>
+      <c r="W73" s="4" t="n"/>
+      <c r="X73" s="4" t="n"/>
+      <c r="Y73" s="4" t="n"/>
+      <c r="Z73" s="4" t="n"/>
+      <c r="AA73" s="4" t="n"/>
+      <c r="AB73" s="4" t="n"/>
+      <c r="AC73" s="4" t="n"/>
+      <c r="AD73" s="4" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="4" t="n"/>
+      <c r="C74" s="4" t="n"/>
+      <c r="D74" s="4" t="n"/>
+      <c r="E74" s="4" t="n"/>
+      <c r="F74" s="4" t="n"/>
+      <c r="G74" s="4" t="n"/>
+      <c r="H74" s="4" t="n"/>
+      <c r="I74" s="4" t="n"/>
+      <c r="J74" s="4" t="n"/>
+      <c r="K74" s="4" t="n"/>
+      <c r="L74" s="4" t="n"/>
+      <c r="M74" s="4" t="n"/>
+      <c r="N74" s="4" t="n"/>
+      <c r="O74" s="4" t="n"/>
+      <c r="P74" s="4" t="n"/>
+      <c r="Q74" s="4" t="n"/>
+      <c r="R74" s="4" t="n"/>
+      <c r="S74" s="4" t="n"/>
+      <c r="T74" s="4" t="n"/>
+      <c r="U74" s="4" t="n"/>
+      <c r="V74" s="4" t="n"/>
+      <c r="W74" s="4" t="n"/>
+      <c r="X74" s="4" t="n"/>
+      <c r="Y74" s="4" t="n"/>
+      <c r="Z74" s="4" t="n"/>
+      <c r="AA74" s="4" t="n"/>
+      <c r="AB74" s="4" t="n"/>
+      <c r="AC74" s="4" t="n"/>
+      <c r="AD74" s="4" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="4" t="n"/>
+      <c r="C75" s="4" t="n"/>
+      <c r="D75" s="4" t="n"/>
+      <c r="E75" s="4" t="n"/>
+      <c r="F75" s="4" t="n"/>
+      <c r="G75" s="4" t="n"/>
+      <c r="H75" s="4" t="n"/>
+      <c r="I75" s="4" t="n"/>
+      <c r="J75" s="4" t="n"/>
+      <c r="K75" s="4" t="n"/>
+      <c r="L75" s="4" t="n"/>
+      <c r="M75" s="4" t="n"/>
+      <c r="N75" s="4" t="n"/>
+      <c r="O75" s="4" t="n"/>
+      <c r="P75" s="4" t="n"/>
+      <c r="Q75" s="4" t="n"/>
+      <c r="R75" s="4" t="n"/>
+      <c r="S75" s="4" t="n"/>
+      <c r="T75" s="4" t="n"/>
+      <c r="U75" s="4" t="n"/>
+      <c r="V75" s="4" t="n"/>
+      <c r="W75" s="4" t="n"/>
+      <c r="X75" s="4" t="n"/>
+      <c r="Y75" s="4" t="n"/>
+      <c r="Z75" s="4" t="n"/>
+      <c r="AA75" s="4" t="n"/>
+      <c r="AB75" s="4" t="n"/>
+      <c r="AC75" s="4" t="n"/>
+      <c r="AD75" s="4" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="4" t="n"/>
+      <c r="C76" s="4" t="n"/>
+      <c r="D76" s="4" t="n"/>
+      <c r="E76" s="4" t="n"/>
+      <c r="F76" s="4" t="n"/>
+      <c r="G76" s="4" t="n"/>
+      <c r="H76" s="4" t="n"/>
+      <c r="I76" s="4" t="n"/>
+      <c r="J76" s="4" t="n"/>
+      <c r="K76" s="4" t="n"/>
+      <c r="L76" s="4" t="n"/>
+      <c r="M76" s="4" t="n"/>
+      <c r="N76" s="4" t="n"/>
+      <c r="O76" s="4" t="n"/>
+      <c r="P76" s="4" t="n"/>
+      <c r="Q76" s="4" t="n"/>
+      <c r="R76" s="4" t="n"/>
+      <c r="S76" s="4" t="n"/>
+      <c r="T76" s="4" t="n"/>
+      <c r="U76" s="4" t="n"/>
+      <c r="V76" s="4" t="n"/>
+      <c r="W76" s="4" t="n"/>
+      <c r="X76" s="4" t="n"/>
+      <c r="Y76" s="4" t="n"/>
+      <c r="Z76" s="4" t="n"/>
+      <c r="AA76" s="4" t="n"/>
+      <c r="AB76" s="4" t="n"/>
+      <c r="AC76" s="4" t="n"/>
+      <c r="AD76" s="4" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="4" t="n"/>
+      <c r="C77" s="4" t="n"/>
+      <c r="D77" s="4" t="n"/>
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="n"/>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="n"/>
+      <c r="Q77" s="4" t="n"/>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="n"/>
+      <c r="W77" s="4" t="n"/>
+      <c r="X77" s="4" t="n"/>
+      <c r="Y77" s="4" t="n"/>
+      <c r="Z77" s="4" t="n"/>
+      <c r="AA77" s="4" t="n"/>
+      <c r="AB77" s="4" t="n"/>
+      <c r="AC77" s="4" t="n"/>
+      <c r="AD77" s="4" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="n"/>
+      <c r="B78" s="4" t="n"/>
+      <c r="C78" s="4" t="n"/>
+      <c r="D78" s="4" t="n"/>
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="n"/>
+      <c r="Q78" s="4" t="n"/>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="n"/>
+      <c r="W78" s="4" t="n"/>
+      <c r="X78" s="4" t="n"/>
+      <c r="Y78" s="4" t="n"/>
+      <c r="Z78" s="4" t="n"/>
+      <c r="AA78" s="4" t="n"/>
+      <c r="AB78" s="4" t="n"/>
+      <c r="AC78" s="4" t="n"/>
+      <c r="AD78" s="4" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="n"/>
+      <c r="B79" s="4" t="n"/>
+      <c r="C79" s="4" t="n"/>
+      <c r="D79" s="4" t="n"/>
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="n"/>
+      <c r="Q79" s="4" t="n"/>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="n"/>
+      <c r="W79" s="4" t="n"/>
+      <c r="X79" s="4" t="n"/>
+      <c r="Y79" s="4" t="n"/>
+      <c r="Z79" s="4" t="n"/>
+      <c r="AA79" s="4" t="n"/>
+      <c r="AB79" s="4" t="n"/>
+      <c r="AC79" s="4" t="n"/>
+      <c r="AD79" s="4" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="n"/>
+      <c r="B80" s="4" t="n"/>
+      <c r="C80" s="4" t="n"/>
+      <c r="D80" s="4" t="n"/>
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="n"/>
+      <c r="Q80" s="4" t="n"/>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="n"/>
+      <c r="W80" s="4" t="n"/>
+      <c r="X80" s="4" t="n"/>
+      <c r="Y80" s="4" t="n"/>
+      <c r="Z80" s="4" t="n"/>
+      <c r="AA80" s="4" t="n"/>
+      <c r="AB80" s="4" t="n"/>
+      <c r="AC80" s="4" t="n"/>
+      <c r="AD80" s="4" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="n"/>
+      <c r="B81" s="4" t="n"/>
+      <c r="C81" s="4" t="n"/>
+      <c r="D81" s="4" t="n"/>
+      <c r="E81" s="4" t="n"/>
+      <c r="F81" s="4" t="n"/>
+      <c r="G81" s="4" t="n"/>
+      <c r="H81" s="4" t="n"/>
+      <c r="I81" s="4" t="n"/>
+      <c r="J81" s="4" t="n"/>
+      <c r="K81" s="4" t="n"/>
+      <c r="L81" s="4" t="n"/>
+      <c r="M81" s="4" t="n"/>
+      <c r="N81" s="4" t="n"/>
+      <c r="O81" s="4" t="n"/>
+      <c r="P81" s="4" t="n"/>
+      <c r="Q81" s="4" t="n"/>
+      <c r="R81" s="4" t="n"/>
+      <c r="S81" s="4" t="n"/>
+      <c r="T81" s="4" t="n"/>
+      <c r="U81" s="4" t="n"/>
+      <c r="V81" s="4" t="n"/>
+      <c r="W81" s="4" t="n"/>
+      <c r="X81" s="4" t="n"/>
+      <c r="Y81" s="4" t="n"/>
+      <c r="Z81" s="4" t="n"/>
+      <c r="AA81" s="4" t="n"/>
+      <c r="AB81" s="4" t="n"/>
+      <c r="AC81" s="4" t="n"/>
+      <c r="AD81" s="4" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="n"/>
+      <c r="B82" s="4" t="n"/>
+      <c r="C82" s="4" t="n"/>
+      <c r="D82" s="4" t="n"/>
+      <c r="E82" s="4" t="n"/>
+      <c r="F82" s="4" t="n"/>
+      <c r="G82" s="4" t="n"/>
+      <c r="H82" s="4" t="n"/>
+      <c r="I82" s="4" t="n"/>
+      <c r="J82" s="4" t="n"/>
+      <c r="K82" s="4" t="n"/>
+      <c r="L82" s="4" t="n"/>
+      <c r="M82" s="4" t="n"/>
+      <c r="N82" s="4" t="n"/>
+      <c r="O82" s="4" t="n"/>
+      <c r="P82" s="4" t="n"/>
+      <c r="Q82" s="4" t="n"/>
+      <c r="R82" s="4" t="n"/>
+      <c r="S82" s="4" t="n"/>
+      <c r="T82" s="4" t="n"/>
+      <c r="U82" s="4" t="n"/>
+      <c r="V82" s="4" t="n"/>
+      <c r="W82" s="4" t="n"/>
+      <c r="X82" s="4" t="n"/>
+      <c r="Y82" s="4" t="n"/>
+      <c r="Z82" s="4" t="n"/>
+      <c r="AA82" s="4" t="n"/>
+      <c r="AB82" s="4" t="n"/>
+      <c r="AC82" s="4" t="n"/>
+      <c r="AD82" s="4" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="n"/>
+      <c r="B83" s="4" t="n"/>
+      <c r="C83" s="4" t="n"/>
+      <c r="D83" s="4" t="n"/>
+      <c r="E83" s="4" t="n"/>
+      <c r="F83" s="4" t="n"/>
+      <c r="G83" s="4" t="n"/>
+      <c r="H83" s="4" t="n"/>
+      <c r="I83" s="4" t="n"/>
+      <c r="J83" s="4" t="n"/>
+      <c r="K83" s="4" t="n"/>
+      <c r="L83" s="4" t="n"/>
+      <c r="M83" s="4" t="n"/>
+      <c r="N83" s="4" t="n"/>
+      <c r="O83" s="4" t="n"/>
+      <c r="P83" s="4" t="n"/>
+      <c r="Q83" s="4" t="n"/>
+      <c r="R83" s="4" t="n"/>
+      <c r="S83" s="4" t="n"/>
+      <c r="T83" s="4" t="n"/>
+      <c r="U83" s="4" t="n"/>
+      <c r="V83" s="4" t="n"/>
+      <c r="W83" s="4" t="n"/>
+      <c r="X83" s="4" t="n"/>
+      <c r="Y83" s="4" t="n"/>
+      <c r="Z83" s="4" t="n"/>
+      <c r="AA83" s="4" t="n"/>
+      <c r="AB83" s="4" t="n"/>
+      <c r="AC83" s="4" t="n"/>
+      <c r="AD83" s="4" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="n"/>
+      <c r="B84" s="4" t="n"/>
+      <c r="C84" s="4" t="n"/>
+      <c r="D84" s="4" t="n"/>
+      <c r="E84" s="4" t="n"/>
+      <c r="F84" s="4" t="n"/>
+      <c r="G84" s="4" t="n"/>
+      <c r="H84" s="4" t="n"/>
+      <c r="I84" s="4" t="n"/>
+      <c r="J84" s="4" t="n"/>
+      <c r="K84" s="4" t="n"/>
+      <c r="L84" s="4" t="n"/>
+      <c r="M84" s="4" t="n"/>
+      <c r="N84" s="4" t="n"/>
+      <c r="O84" s="4" t="n"/>
+      <c r="P84" s="4" t="n"/>
+      <c r="Q84" s="4" t="n"/>
+      <c r="R84" s="4" t="n"/>
+      <c r="S84" s="4" t="n"/>
+      <c r="T84" s="4" t="n"/>
+      <c r="U84" s="4" t="n"/>
+      <c r="V84" s="4" t="n"/>
+      <c r="W84" s="4" t="n"/>
+      <c r="X84" s="4" t="n"/>
+      <c r="Y84" s="4" t="n"/>
+      <c r="Z84" s="4" t="n"/>
+      <c r="AA84" s="4" t="n"/>
+      <c r="AB84" s="4" t="n"/>
+      <c r="AC84" s="4" t="n"/>
+      <c r="AD84" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
